--- a/Analysis3-Heatmap.xlsx
+++ b/Analysis3-Heatmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSDS\DS Project\TK analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F95759-270B-4488-9253-E6A05BB7037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9D2595-2036-4FA0-8808-3C81596F7731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EF2B5DF0-820C-4264-A359-51F45012B519}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>At Merriwa</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>WRF model</t>
+  </si>
+  <si>
+    <t>MASE</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E05100-03FD-456C-B673-56B7EF01DBA8}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +515,7 @@
         <v>0.83319741802372405</v>
       </c>
       <c r="C3">
-        <v>0.64988312764622103</v>
+        <v>0.64855556565196104</v>
       </c>
       <c r="D3">
         <v>0.73465649446335102</v>
@@ -521,7 +524,7 @@
         <v>0.65167267199225798</v>
       </c>
       <c r="F3">
-        <v>0.73210165511815595</v>
+        <v>0.700541973366412</v>
       </c>
       <c r="G3">
         <v>0.76596197144535705</v>
@@ -530,7 +533,7 @@
         <v>0.73624238016131005</v>
       </c>
       <c r="I3">
-        <v>0.71185786795250205</v>
+        <v>0.75477503672009805</v>
       </c>
       <c r="J3">
         <v>0.73655723387359695</v>
@@ -539,7 +542,7 @@
         <v>0.75226129151682297</v>
       </c>
       <c r="L3">
-        <v>0.80034262021420899</v>
+        <v>0.78964499311948</v>
       </c>
       <c r="M3">
         <v>0.94312737636025101</v>
@@ -548,7 +551,7 @@
         <v>0.88935302033796904</v>
       </c>
       <c r="O3">
-        <v>0.82922218774670797</v>
+        <v>0.841122144345545</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -559,7 +562,7 @@
         <v>212.959093374106</v>
       </c>
       <c r="C4">
-        <v>333.80450513323001</v>
+        <v>334.31196993949101</v>
       </c>
       <c r="D4">
         <v>319.03948336161397</v>
@@ -568,7 +571,7 @@
         <v>362.403209960195</v>
       </c>
       <c r="F4">
-        <v>313.15289771490097</v>
+        <v>353.90041968192003</v>
       </c>
       <c r="G4">
         <v>285.24618012083198</v>
@@ -577,7 +580,7 @@
         <v>291.47751294738799</v>
       </c>
       <c r="I4">
-        <v>312.31835530718001</v>
+        <v>284.23476883990099</v>
       </c>
       <c r="J4">
         <v>271.411777904178</v>
@@ -586,7 +589,7 @@
         <v>272.84478814247598</v>
       </c>
       <c r="L4">
-        <v>212.899438547491</v>
+        <v>233.49224224419299</v>
       </c>
       <c r="M4">
         <v>107.15248067534</v>
@@ -595,7 +598,7 @@
         <v>160.111010538763</v>
       </c>
       <c r="O4">
-        <v>185.58590420973101</v>
+        <v>167.90371754583001</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -606,7 +609,7 @@
         <v>171.77557861519901</v>
       </c>
       <c r="C5">
-        <v>274.93360842930701</v>
+        <v>275.83183029554698</v>
       </c>
       <c r="D5">
         <v>280.90060472082502</v>
@@ -615,7 +618,7 @@
         <v>314.66247087279999</v>
       </c>
       <c r="F5">
-        <v>280.09575785688099</v>
+        <v>303.970451840973</v>
       </c>
       <c r="G5">
         <v>239.73414650267901</v>
@@ -624,7 +627,7 @@
         <v>247.22110404745101</v>
       </c>
       <c r="I5">
-        <v>283.84284793032202</v>
+        <v>255.85969580565001</v>
       </c>
       <c r="J5">
         <v>222.582509468197</v>
@@ -633,7 +636,7 @@
         <v>236.003625209169</v>
       </c>
       <c r="L5">
-        <v>177.45884536064301</v>
+        <v>198.601046868933</v>
       </c>
       <c r="M5">
         <v>75.793423762985796</v>
@@ -642,7 +645,7 @@
         <v>115.245490867046</v>
       </c>
       <c r="O5">
-        <v>139.48498621092699</v>
+        <v>127.76163253224</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -653,7 +656,7 @@
         <v>-21.589624677775099</v>
       </c>
       <c r="C6">
-        <v>180.78692948889099</v>
+        <v>194.63317948889099</v>
       </c>
       <c r="D6">
         <v>280.90060472082502</v>
@@ -662,7 +665,7 @@
         <v>314.66247087279999</v>
       </c>
       <c r="F6">
-        <v>278.14027147388998</v>
+        <v>302.371460143523</v>
       </c>
       <c r="G6">
         <v>229.38148164343201</v>
@@ -671,7 +674,7 @@
         <v>240.62748080400601</v>
       </c>
       <c r="I6">
-        <v>283.84284793032202</v>
+        <v>250.766439041838</v>
       </c>
       <c r="J6">
         <v>215.871478235636</v>
@@ -680,7 +683,7 @@
         <v>224.962557035457</v>
       </c>
       <c r="L6">
-        <v>167.59186726894799</v>
+        <v>194.383112942884</v>
       </c>
       <c r="M6">
         <v>30.8949246365965</v>
@@ -689,7 +692,7 @@
         <v>100.853882864933</v>
       </c>
       <c r="O6">
-        <v>127.671451969389</v>
+        <v>100.452500021343</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -700,7 +703,7 @@
         <v>3611.44141869947</v>
       </c>
       <c r="C7">
-        <v>5860.6758522290202</v>
+        <v>5639.2235886756198</v>
       </c>
       <c r="D7">
         <v>6940.8162379265996</v>
@@ -709,7 +712,7 @@
         <v>6204.3513511554702</v>
       </c>
       <c r="F7">
-        <v>5769.5200444042803</v>
+        <v>5116.2225790863904</v>
       </c>
       <c r="G7">
         <v>4717.1303971638699</v>
@@ -718,7 +721,7 @@
         <v>3300.1668892563098</v>
       </c>
       <c r="I7">
-        <v>4898.2950549724601</v>
+        <v>4196.1160416550101</v>
       </c>
       <c r="J7">
         <v>3730.32027633814</v>
@@ -727,7 +730,7 @@
         <v>2127.4816923459698</v>
       </c>
       <c r="L7">
-        <v>3280.9594720216301</v>
+        <v>3947.71757055834</v>
       </c>
       <c r="M7">
         <v>1787.3530768027199</v>
@@ -736,287 +739,405 @@
         <v>2186.10305293383</v>
       </c>
       <c r="O7">
-        <v>3163.8207630945599</v>
+        <v>3145.8237010821899</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0.90875279768639095</v>
+      </c>
+      <c r="C8">
+        <v>1.4592467072025099</v>
+      </c>
+      <c r="D8">
+        <v>1.4860622940102901</v>
+      </c>
+      <c r="E8">
+        <v>1.66467435614429</v>
+      </c>
+      <c r="F8">
+        <v>1.6081098416398401</v>
+      </c>
+      <c r="G8">
+        <v>1.26827735404287</v>
+      </c>
+      <c r="H8">
+        <v>1.3078859740214599</v>
+      </c>
+      <c r="I8">
+        <v>1.35358714115838</v>
+      </c>
+      <c r="J8">
+        <v>1.1775392045012401</v>
+      </c>
+      <c r="K8">
+        <v>1.2485415936418001</v>
+      </c>
+      <c r="L8">
+        <v>1.0506688926362899</v>
+      </c>
+      <c r="M8">
+        <v>0.40097367999637801</v>
+      </c>
+      <c r="N8">
+        <v>0.60968889227716605</v>
+      </c>
+      <c r="O8">
+        <v>0.67590365252526396</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0.39773650792426901</v>
-      </c>
-      <c r="C10">
-        <v>0.53856949930687104</v>
-      </c>
-      <c r="D10">
-        <v>0.55294032698357098</v>
-      </c>
-      <c r="E10">
-        <v>0.69445977177371598</v>
-      </c>
-      <c r="F10">
-        <v>0.52126310024813505</v>
-      </c>
-      <c r="G10">
-        <v>0.88394054923112597</v>
-      </c>
-      <c r="H10">
-        <v>0.87551630390824298</v>
-      </c>
-      <c r="I10">
-        <v>0.90578194536987799</v>
-      </c>
-      <c r="J10">
-        <v>0.75308044469347701</v>
-      </c>
-      <c r="K10">
-        <v>0.75213163857401999</v>
-      </c>
-      <c r="L10">
-        <v>0.76212426635800801</v>
-      </c>
-      <c r="M10">
-        <v>0.96466697218393804</v>
-      </c>
-      <c r="N10">
-        <v>0.96422615796421296</v>
-      </c>
-      <c r="O10">
-        <v>0.92130993143874795</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>585.35819956461705</v>
+        <v>0.39773650792426901</v>
       </c>
       <c r="C11">
-        <v>458.91711445741498</v>
+        <v>0.58391273634833596</v>
       </c>
       <c r="D11">
-        <v>358.77946665098</v>
+        <v>0.55294032698357098</v>
       </c>
       <c r="E11">
-        <v>270.12466618031499</v>
+        <v>0.69445977177371598</v>
       </c>
       <c r="F11">
-        <v>289.54915794993298</v>
+        <v>0.50750857010233996</v>
       </c>
       <c r="G11">
-        <v>176.21507852974</v>
+        <v>0.88394054923112597</v>
       </c>
       <c r="H11">
-        <v>197.674364374954</v>
+        <v>0.87551630390824298</v>
       </c>
       <c r="I11">
-        <v>150.386769422355</v>
+        <v>0.90315591255027605</v>
       </c>
       <c r="J11">
-        <v>269.94876529472998</v>
+        <v>0.75308044469347701</v>
       </c>
       <c r="K11">
-        <v>255.452142715436</v>
+        <v>0.75213163857401999</v>
       </c>
       <c r="L11">
-        <v>223.78831997168299</v>
+        <v>0.743059995764487</v>
       </c>
       <c r="M11">
-        <v>94.975546690978007</v>
+        <v>0.96466697218393804</v>
       </c>
       <c r="N11">
-        <v>95.464430987569799</v>
+        <v>0.96422615796421296</v>
       </c>
       <c r="O11">
-        <v>131.90772274645701</v>
+        <v>0.91939084784384095</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>505.07920994760201</v>
+        <v>585.35819956461705</v>
       </c>
       <c r="C12">
-        <v>384.71552489469201</v>
+        <v>426.73064219696801</v>
       </c>
       <c r="D12">
-        <v>277.25321356203398</v>
+        <v>358.77946665098</v>
       </c>
       <c r="E12">
-        <v>226.50930213458199</v>
+        <v>270.12466618031499</v>
       </c>
       <c r="F12">
-        <v>242.022431030289</v>
+        <v>294.21980850309097</v>
       </c>
       <c r="G12">
-        <v>151.49791899210899</v>
+        <v>176.21507852974</v>
       </c>
       <c r="H12">
-        <v>180.75561525383401</v>
+        <v>197.674364374954</v>
       </c>
       <c r="I12">
-        <v>128.30643091081299</v>
+        <v>153.184801040124</v>
       </c>
       <c r="J12">
-        <v>227.497953628575</v>
+        <v>269.94876529472998</v>
       </c>
       <c r="K12">
-        <v>213.66627941305299</v>
+        <v>255.452142715436</v>
       </c>
       <c r="L12">
-        <v>176.399960749423</v>
+        <v>232.17748776730301</v>
       </c>
       <c r="M12">
-        <v>71.321956218651096</v>
+        <v>94.975546690978007</v>
       </c>
       <c r="N12">
-        <v>67.219356108574402</v>
+        <v>95.464430987569799</v>
       </c>
       <c r="O12">
-        <v>102.97184160957499</v>
+        <v>140.17975095009001</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>-375.16142476241703</v>
+        <v>505.07920994760201</v>
       </c>
       <c r="C13">
-        <v>-343.37658309574999</v>
+        <v>355.98713151768999</v>
       </c>
       <c r="D13">
-        <v>51.771395979363596</v>
+        <v>277.25321356203398</v>
       </c>
       <c r="E13">
-        <v>88.988630744973605</v>
+        <v>226.50930213458199</v>
       </c>
       <c r="F13">
-        <v>118.991592374153</v>
+        <v>248.06421444801299</v>
       </c>
       <c r="G13">
-        <v>-2.4340674300602099</v>
+        <v>151.49791899210899</v>
       </c>
       <c r="H13">
-        <v>-28.903414333774101</v>
+        <v>180.75561525383401</v>
       </c>
       <c r="I13">
-        <v>-38.044982206242999</v>
+        <v>126.011735911089</v>
       </c>
       <c r="J13">
-        <v>56.2253233373551</v>
+        <v>227.497953628575</v>
       </c>
       <c r="K13">
-        <v>48.953391706526702</v>
+        <v>213.66627941305299</v>
       </c>
       <c r="L13">
-        <v>58.312202884080101</v>
+        <v>185.197365863995</v>
       </c>
       <c r="M13">
-        <v>-25.8341935693831</v>
+        <v>71.321956218651096</v>
       </c>
       <c r="N13">
-        <v>-37.41115665817</v>
+        <v>67.219356108574402</v>
       </c>
       <c r="O13">
-        <v>-33.6393864526489</v>
+        <v>112.437770063531</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>-375.16142476241703</v>
+      </c>
+      <c r="C14">
+        <v>-308.86866642908302</v>
+      </c>
+      <c r="D14">
+        <v>51.771395979363596</v>
+      </c>
+      <c r="E14">
+        <v>88.988630744973605</v>
+      </c>
+      <c r="F14">
+        <v>98.825382554684893</v>
+      </c>
+      <c r="G14">
+        <v>-2.4340674300602099</v>
+      </c>
+      <c r="H14">
+        <v>-28.903414333774101</v>
+      </c>
+      <c r="I14">
+        <v>-4.7645275173891903</v>
+      </c>
+      <c r="J14">
+        <v>56.2253233373551</v>
+      </c>
+      <c r="K14">
+        <v>48.953391706526702</v>
+      </c>
+      <c r="L14">
+        <v>56.426526506003697</v>
+      </c>
+      <c r="M14">
+        <v>-25.8341935693831</v>
+      </c>
+      <c r="N14">
+        <v>-37.41115665817</v>
+      </c>
+      <c r="O14">
+        <v>-41.5722244714513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>12043.293816520199</v>
       </c>
-      <c r="C14">
-        <v>9781.2237085837205</v>
-      </c>
-      <c r="D14">
+      <c r="C15">
+        <v>6127.6856189151003</v>
+      </c>
+      <c r="D15">
         <v>6171.7577966029003</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>4192.0909859351796</v>
       </c>
-      <c r="F14">
-        <v>3799.30326106555</v>
-      </c>
-      <c r="G14">
+      <c r="F15">
+        <v>3542.7207067243598</v>
+      </c>
+      <c r="G15">
         <v>2915.28024819645</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>3658.10846492476</v>
       </c>
-      <c r="I14">
-        <v>2783.88325039764</v>
-      </c>
-      <c r="J14">
+      <c r="I15">
+        <v>2730.4826615041002</v>
+      </c>
+      <c r="J15">
         <v>3055.1059756743898</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>2869.9537899089801</v>
       </c>
-      <c r="L14">
-        <v>2159.7842091550701</v>
-      </c>
-      <c r="M14">
+      <c r="L15">
+        <v>2345.42921661534</v>
+      </c>
+      <c r="M15">
         <v>1711.72694924762</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <v>1489.7919786165201</v>
       </c>
-      <c r="O14">
-        <v>2455.85204387166</v>
+      <c r="O15">
+        <v>2514.0139728363401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2.2963707223832999</v>
+      </c>
+      <c r="C16">
+        <v>1.6185152947539601</v>
+      </c>
+      <c r="D16">
+        <v>1.2605471572995199</v>
+      </c>
+      <c r="E16">
+        <v>1.02983714143231</v>
+      </c>
+      <c r="F16">
+        <v>1.1278377492285401</v>
+      </c>
+      <c r="G16">
+        <v>0.68879371556704905</v>
+      </c>
+      <c r="H16">
+        <v>0.82181545904126396</v>
+      </c>
+      <c r="I16">
+        <v>0.57291936655429399</v>
+      </c>
+      <c r="J16">
+        <v>1.0343321004421699</v>
+      </c>
+      <c r="K16">
+        <v>0.97144562425289305</v>
+      </c>
+      <c r="L16">
+        <v>0.84201012525680496</v>
+      </c>
+      <c r="M16">
+        <v>0.324269241136663</v>
+      </c>
+      <c r="N16">
+        <v>0.30561654153454698</v>
+      </c>
+      <c r="O16">
+        <v>0.51120457579464995</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:I3">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:I8">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:I4">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:I5">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:I6">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:I7">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:I4">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:I5">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:I8">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -1028,67 +1149,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:I6">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:I7">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J3:O3">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:O8">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:O4">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:O5">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:O6">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:O7">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:O4">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:O5">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:O8">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -1100,19 +1221,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:O6">
+  <conditionalFormatting sqref="B3:O3">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:O7">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:O4">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -1124,19 +1245,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:O3">
+  <conditionalFormatting sqref="B5:O5">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:O4">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:O6">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -1148,7 +1269,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:O5">
+  <conditionalFormatting sqref="B7:O8">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -1160,7 +1281,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:O6">
+  <conditionalFormatting sqref="B11:I11">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:I15">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -1172,7 +1305,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:O7">
+  <conditionalFormatting sqref="B12:I12">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -1184,43 +1317,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:I10">
+  <conditionalFormatting sqref="B13:I13">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:I14">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:I14">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:I11">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:I12">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:I15">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1232,7 +1353,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:I13">
+  <conditionalFormatting sqref="J11:O11">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:O15">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1244,7 +1377,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:I14">
+  <conditionalFormatting sqref="J12:O12">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1256,43 +1389,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:O10">
+  <conditionalFormatting sqref="J13:O13">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:O14">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:O14">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:O11">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:O12">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:O15">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1304,19 +1425,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:O13">
+  <conditionalFormatting sqref="B11:O11">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:O14">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:O12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1328,19 +1449,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:O10">
+  <conditionalFormatting sqref="B13:O13">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:O11">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:O14">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1352,7 +1473,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:O12">
+  <conditionalFormatting sqref="B15:O15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1364,7 +1485,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:O13">
+  <conditionalFormatting sqref="B8:O8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1376,7 +1497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:O14">
+  <conditionalFormatting sqref="B16:O16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Analysis3-Heatmap.xlsx
+++ b/Analysis3-Heatmap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSDS\DS Project\TK analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Melbourne\MAST90106\group-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9D2595-2036-4FA0-8808-3C81596F7731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DD12BC-DDAC-461A-A7BE-65C86D827959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EF2B5DF0-820C-4264-A359-51F45012B519}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{EF2B5DF0-820C-4264-A359-51F45012B519}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>At Merriwa</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>MASE</t>
+  </si>
+  <si>
+    <t>3 features vanilla LSTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 features vector model </t>
+  </si>
+  <si>
+    <t>3 features Encoder decoder</t>
   </si>
 </sst>
 </file>
@@ -133,7 +142,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -149,7 +158,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -445,20 +454,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E05100-03FD-456C-B673-56B7EF01DBA8}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.53125" customWidth="1"/>
     <col min="4" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -501,13 +510,22 @@
       <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -553,8 +571,17 @@
       <c r="O3">
         <v>0.841122144345545</v>
       </c>
+      <c r="P3">
+        <v>0.93684000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>0.95679000000000003</v>
+      </c>
+      <c r="R3">
+        <v>0.93723999999999996</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -600,8 +627,17 @@
       <c r="O4">
         <v>167.90371754583001</v>
       </c>
+      <c r="P4">
+        <v>129.43362999999999</v>
+      </c>
+      <c r="Q4">
+        <v>110.30329999999999</v>
+      </c>
+      <c r="R4">
+        <v>134.05144000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -647,8 +683,17 @@
       <c r="O5">
         <v>127.76163253224</v>
       </c>
+      <c r="P5">
+        <v>108.7963</v>
+      </c>
+      <c r="Q5">
+        <v>90.339659999999995</v>
+      </c>
+      <c r="R5">
+        <v>104.12736</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -694,8 +739,17 @@
       <c r="O6">
         <v>100.452500021343</v>
       </c>
+      <c r="P6">
+        <v>24.861910000000002</v>
+      </c>
+      <c r="Q6">
+        <v>19.603090000000002</v>
+      </c>
+      <c r="R6">
+        <v>43.669170000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -741,8 +795,17 @@
       <c r="O7">
         <v>3145.8237010821899</v>
       </c>
+      <c r="P7">
+        <v>1866.26</v>
+      </c>
+      <c r="Q7">
+        <v>1545.5</v>
+      </c>
+      <c r="R7">
+        <v>1850.33</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -788,13 +851,22 @@
       <c r="O8">
         <v>0.67590365252526396</v>
       </c>
+      <c r="P8">
+        <v>0.57557000000000003</v>
+      </c>
+      <c r="Q8">
+        <v>0.47793000000000002</v>
+      </c>
+      <c r="R8">
+        <v>0.55086999999999997</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -840,8 +912,17 @@
       <c r="O11">
         <v>0.91939084784384095</v>
       </c>
+      <c r="P11">
+        <v>0.78551000000000004</v>
+      </c>
+      <c r="Q11">
+        <v>0.72414999999999996</v>
+      </c>
+      <c r="R11">
+        <v>0.85282000000000002</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -887,8 +968,17 @@
       <c r="O12">
         <v>140.17975095009001</v>
       </c>
+      <c r="P12">
+        <v>241.25435999999999</v>
+      </c>
+      <c r="Q12">
+        <v>289.36772999999999</v>
+      </c>
+      <c r="R12">
+        <v>183.79640000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -934,8 +1024,17 @@
       <c r="O13">
         <v>112.437770063531</v>
       </c>
+      <c r="P13">
+        <v>197.08094</v>
+      </c>
+      <c r="Q13">
+        <v>221.72345999999999</v>
+      </c>
+      <c r="R13">
+        <v>143.52216999999999</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -981,8 +1080,17 @@
       <c r="O14">
         <v>-41.5722244714513</v>
       </c>
+      <c r="P14">
+        <v>52.681609999999999</v>
+      </c>
+      <c r="Q14">
+        <v>-5.0073100000000004</v>
+      </c>
+      <c r="R14">
+        <v>73.015739999999994</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1028,8 +1136,17 @@
       <c r="O15">
         <v>2514.0139728363401</v>
       </c>
+      <c r="P15">
+        <v>3469.68</v>
+      </c>
+      <c r="Q15">
+        <v>2304.2199999999998</v>
+      </c>
+      <c r="R15">
+        <v>2709.3</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1074,46 +1191,211 @@
       </c>
       <c r="O16">
         <v>0.51120457579464995</v>
+      </c>
+      <c r="P16">
+        <v>0.90019000000000005</v>
+      </c>
+      <c r="Q16">
+        <v>1.01275</v>
+      </c>
+      <c r="R16">
+        <v>0.65556000000000003</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:I3">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:I8">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:I4">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:I5">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:I6">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:I8">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:O3">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:O8">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:O4">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:O5">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:O6">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:O8">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:O3">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:O4">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:O5">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:O6">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:I8">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:I4">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:I5">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:O8">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -1125,7 +1407,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:I6">
+  <conditionalFormatting sqref="B11:I11">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:I15">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -1137,7 +1431,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:I8">
+  <conditionalFormatting sqref="B12:I12">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -1149,43 +1443,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:O3">
+  <conditionalFormatting sqref="B13:I13">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:I14">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:I15">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:O11">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:O15">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:O12">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:O13">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:O14">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:O8">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:O4">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:O5">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:O15">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -1197,19 +1551,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:O6">
+  <conditionalFormatting sqref="B11:O11">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:O8">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:O12">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -1221,19 +1575,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:O3">
+  <conditionalFormatting sqref="B13:O13">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:O4">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:O14">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -1245,7 +1599,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:O5">
+  <conditionalFormatting sqref="B15:O15">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -1257,7 +1611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:O6">
+  <conditionalFormatting sqref="B8:O8">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -1269,7 +1623,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:O8">
+  <conditionalFormatting sqref="B16:O16">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -1281,7 +1635,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:I11">
+  <conditionalFormatting sqref="A3:O3 S3:XFD3">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:R16">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -1293,19 +1659,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:I15">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:I12">
+  <conditionalFormatting sqref="P3:R16">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -1317,43 +1671,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:I13">
+  <conditionalFormatting sqref="P3:R16">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:I14">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:R16">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:I15">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:XFD3">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:O11">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:XFD7">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:XFD8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:XFD11">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1365,31 +1743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:O15">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:O12">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:O13">
+  <conditionalFormatting sqref="A12:XFD12">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1401,7 +1755,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:O14">
+  <conditionalFormatting sqref="A13:XFD13">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1413,7 +1767,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:O15">
+  <conditionalFormatting sqref="A14:XFD14">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1425,19 +1779,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:O11">
+  <conditionalFormatting sqref="A15:XFD15">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:O12">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:XFD16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1449,7 +1803,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:O13">
+  <conditionalFormatting sqref="A4:XFD4">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1461,7 +1815,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:O14">
+  <conditionalFormatting sqref="A5:XFD5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1473,7 +1827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:O15">
+  <conditionalFormatting sqref="A6:XFD6">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1485,7 +1839,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:O8">
+  <conditionalFormatting sqref="A7:XFD7">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1497,18 +1851,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:O16">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analysis3-Heatmap.xlsx
+++ b/Analysis3-Heatmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSDS\DS Project\TK analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF2EFF4-A287-464B-8C6F-5AFDE00F5F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47B08D2-9F63-4503-BBCB-46C67701E721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF2B5DF0-820C-4264-A359-51F45012B519}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>At Merriwa</t>
   </si>
@@ -78,9 +78,6 @@
     <t>AdaBoost with lags and differences (up to 5)</t>
   </si>
   <si>
-    <t>WRF model</t>
-  </si>
-  <si>
     <t>MASE</t>
   </si>
   <si>
@@ -91,6 +88,42 @@
   </si>
   <si>
     <t>3 features Encoder decoder</t>
+  </si>
+  <si>
+    <t>DTW Distance</t>
+  </si>
+  <si>
+    <t>Against CTM</t>
+  </si>
+  <si>
+    <t>Against WRF</t>
+  </si>
+  <si>
+    <t>XGBM</t>
+  </si>
+  <si>
+    <t>LGBM</t>
+  </si>
+  <si>
+    <t>AdaBoost</t>
+  </si>
+  <si>
+    <t>Merriwa</t>
+  </si>
+  <si>
+    <t>Lidcombe</t>
+  </si>
+  <si>
+    <t>WRF BLH</t>
+  </si>
+  <si>
+    <t>XGBM with lags, differences and rolling means (up to 5)</t>
+  </si>
+  <si>
+    <t>LGBM with lags, differences and rolling means (up to 5)</t>
+  </si>
+  <si>
+    <t>AdaBoost with lags, differences and rolling means (up to 5)</t>
   </si>
 </sst>
 </file>
@@ -117,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -125,19 +158,200 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,72 +667,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E05100-03FD-456C-B673-56B7EF01DBA8}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.77734375" customWidth="1"/>
+    <col min="13" max="15" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -535,7 +758,7 @@
         <v>0.65167267199225798</v>
       </c>
       <c r="F3">
-        <v>0.70395789942195597</v>
+        <v>0.73536704054324498</v>
       </c>
       <c r="G3">
         <v>0.74297041646694395</v>
@@ -544,28 +767,37 @@
         <v>0.76234843417932596</v>
       </c>
       <c r="I3">
-        <v>0.76601617125309496</v>
-      </c>
-      <c r="J3" s="2">
+        <v>0.77624042051068598</v>
+      </c>
+      <c r="J3" s="1">
         <v>0.77699724213947396</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>0.74935266408352896</v>
       </c>
-      <c r="L3" s="2">
-        <v>0.76803194189743595</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="L3" s="1">
+        <v>0.80902421084787102</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.79796325136134605</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.79206668343448405</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.77735784786949302</v>
+      </c>
+      <c r="P3" s="2">
         <v>0.93684000000000001</v>
       </c>
-      <c r="N3" s="3">
+      <c r="Q3" s="2">
         <v>0.95679000000000003</v>
       </c>
-      <c r="O3" s="3">
+      <c r="R3" s="2">
         <v>0.93723999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -582,7 +814,7 @@
         <v>362.403209960195</v>
       </c>
       <c r="F4">
-        <v>341.88079162587599</v>
+        <v>290.21874366033398</v>
       </c>
       <c r="G4">
         <v>264.16249575106798</v>
@@ -591,7 +823,7 @@
         <v>261.12905471932902</v>
       </c>
       <c r="I4">
-        <v>237.30980256182201</v>
+        <v>235.39476844846999</v>
       </c>
       <c r="J4">
         <v>237.93083178884001</v>
@@ -600,19 +832,28 @@
         <v>258.62253835043902</v>
       </c>
       <c r="L4">
-        <v>234.98610723338899</v>
-      </c>
-      <c r="M4" s="3">
+        <v>213.19661969577101</v>
+      </c>
+      <c r="M4" s="2">
+        <v>218.06105857040399</v>
+      </c>
+      <c r="N4" s="2">
+        <v>240.31073572090099</v>
+      </c>
+      <c r="O4" s="2">
+        <v>210.81064239682601</v>
+      </c>
+      <c r="P4" s="2">
         <v>129.43362999999999</v>
       </c>
-      <c r="N4" s="3">
+      <c r="Q4" s="2">
         <v>110.30329999999999</v>
       </c>
-      <c r="O4" s="3">
+      <c r="R4" s="2">
         <v>134.05144000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -629,7 +870,7 @@
         <v>314.66247087279999</v>
       </c>
       <c r="F5">
-        <v>305.00152984481298</v>
+        <v>251.30088884710599</v>
       </c>
       <c r="G5">
         <v>221.04900351492199</v>
@@ -638,7 +879,7 @@
         <v>225.450637869285</v>
       </c>
       <c r="I5">
-        <v>195.05121738803501</v>
+        <v>196.62098748337201</v>
       </c>
       <c r="J5">
         <v>201.337342857312</v>
@@ -647,19 +888,28 @@
         <v>217.21627372730501</v>
       </c>
       <c r="L5">
-        <v>196.484258241308</v>
-      </c>
-      <c r="M5" s="3">
+        <v>181.22032493909501</v>
+      </c>
+      <c r="M5" s="2">
+        <v>179.46261588064499</v>
+      </c>
+      <c r="N5" s="2">
+        <v>201.15211127881901</v>
+      </c>
+      <c r="O5" s="2">
+        <v>177.301512146297</v>
+      </c>
+      <c r="P5" s="2">
         <v>108.7963</v>
       </c>
-      <c r="N5" s="3">
+      <c r="Q5" s="2">
         <v>90.339659999999995</v>
       </c>
-      <c r="O5" s="3">
+      <c r="R5" s="2">
         <v>104.12736</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -676,7 +926,7 @@
         <v>314.66247087279999</v>
       </c>
       <c r="F6">
-        <v>302.37346845053202</v>
+        <v>251.30088884710599</v>
       </c>
       <c r="G6">
         <v>211.15921830725</v>
@@ -685,7 +935,7 @@
         <v>216.87372325980601</v>
       </c>
       <c r="I6">
-        <v>190.52347866324601</v>
+        <v>192.65111882692801</v>
       </c>
       <c r="J6">
         <v>197.419163223022</v>
@@ -694,19 +944,28 @@
         <v>208.21742249192201</v>
       </c>
       <c r="L6">
-        <v>186.132570673667</v>
-      </c>
-      <c r="M6" s="3">
+        <v>173.762553204835</v>
+      </c>
+      <c r="M6" s="2">
+        <v>168.129557764444</v>
+      </c>
+      <c r="N6" s="2">
+        <v>196.14325678709</v>
+      </c>
+      <c r="O6" s="2">
+        <v>144.54147661032599</v>
+      </c>
+      <c r="P6" s="2">
         <v>24.861910000000002</v>
       </c>
-      <c r="N6" s="3">
+      <c r="Q6" s="2">
         <v>19.603090000000002</v>
       </c>
-      <c r="O6" s="3">
+      <c r="R6" s="2">
         <v>43.669170000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -723,7 +982,7 @@
         <v>6204.3513511554702</v>
       </c>
       <c r="F7">
-        <v>6031.9856637843995</v>
+        <v>4085.20325685949</v>
       </c>
       <c r="G7">
         <v>3812.5966702785699</v>
@@ -732,7 +991,7 @@
         <v>2666.23498101828</v>
       </c>
       <c r="I7">
-        <v>3633.99328955792</v>
+        <v>4073.6379957142299</v>
       </c>
       <c r="J7">
         <v>3714.0818339131401</v>
@@ -741,21 +1000,30 @@
         <v>2863.0683553233598</v>
       </c>
       <c r="L7">
-        <v>3721.55814083614</v>
-      </c>
-      <c r="M7" s="3">
+        <v>3726.4539007444901</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2919.4209235490098</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2499.2887534225101</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3349.7875304631898</v>
+      </c>
+      <c r="P7" s="2">
         <v>1866.26</v>
       </c>
-      <c r="N7" s="3">
+      <c r="Q7" s="2">
         <v>1545.5</v>
       </c>
-      <c r="O7" s="3">
+      <c r="R7" s="2">
         <v>1850.33</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0.90875279768639095</v>
@@ -770,7 +1038,7 @@
         <v>1.66467435614429</v>
       </c>
       <c r="F8">
-        <v>1.61356460434928</v>
+        <v>1.32946946033851</v>
       </c>
       <c r="G8">
         <v>1.16942642248332</v>
@@ -779,7 +1047,7 @@
         <v>1.19271260533985</v>
       </c>
       <c r="I8">
-        <v>1.03188905502443</v>
+        <v>1.0401936870178801</v>
       </c>
       <c r="J8">
         <v>1.0651448539736501</v>
@@ -788,322 +1056,1150 @@
         <v>1.1491499434555501</v>
       </c>
       <c r="L8">
-        <v>1.0394703415793101</v>
-      </c>
-      <c r="M8" s="3">
+        <v>0.95871880399806897</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.94941990925841602</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1.06416491423756</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.93798691581131799</v>
+      </c>
+      <c r="P8" s="2">
         <v>0.57557000000000003</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="2">
         <v>0.47793000000000002</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="2">
         <v>0.55086999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>0.39773650792426901</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.58391273634833596</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.55294032698357098</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.69445977177371598</v>
       </c>
-      <c r="F11" s="3">
-        <v>0.61557388437379901</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="2">
+        <v>0.60581553108922004</v>
+      </c>
+      <c r="G11" s="2">
         <v>0.79704861791751602</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>0.75462059369936896</v>
       </c>
-      <c r="I11" s="3">
-        <v>0.68622890492067501</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="I11" s="2">
+        <v>0.73415814507814203</v>
+      </c>
+      <c r="J11" s="1">
         <v>0.74703613481157105</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>0.77277585201943999</v>
       </c>
-      <c r="L11" s="2">
-        <v>0.72288057700642205</v>
-      </c>
-      <c r="M11" s="3">
+      <c r="L11" s="1">
+        <v>0.75671602213564604</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.759802908095776</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.77998696481068197</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.75191704213305399</v>
+      </c>
+      <c r="P11" s="2">
         <v>0.78551000000000004</v>
       </c>
-      <c r="N11" s="3">
+      <c r="Q11" s="2">
         <v>0.72414999999999996</v>
       </c>
-      <c r="O11" s="3">
+      <c r="R11" s="2">
         <v>0.85282000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>585.35819956461705</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>426.73064219696801</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>358.77946665098</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>270.12466618031499</v>
       </c>
-      <c r="F12" s="3">
-        <v>276.17983253916202</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="2">
+        <v>281.92395697301799</v>
+      </c>
+      <c r="G12" s="2">
         <v>234.44172707668099</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>249.02426265067299</v>
       </c>
-      <c r="I12" s="3">
-        <v>263.73516622426303</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="I12" s="2">
+        <v>241.69835377006299</v>
+      </c>
+      <c r="J12" s="2">
         <v>263.18053888836602</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>235.71032743027499</v>
       </c>
-      <c r="L12" s="3">
-        <v>240.24722563538899</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="L12" s="2">
+        <v>235.14105540304499</v>
+      </c>
+      <c r="M12" s="2">
+        <v>245.35570412401401</v>
+      </c>
+      <c r="N12" s="2">
+        <v>234.66857267166299</v>
+      </c>
+      <c r="O12" s="2">
+        <v>231.70671387372499</v>
+      </c>
+      <c r="P12" s="2">
         <v>241.25435999999999</v>
       </c>
-      <c r="N12" s="3">
+      <c r="Q12" s="2">
         <v>289.36772999999999</v>
       </c>
-      <c r="O12" s="3">
+      <c r="R12" s="2">
         <v>183.79640000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>505.07920994760201</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>355.98713151768999</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>277.25321356203398</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>226.50930213458199</v>
       </c>
-      <c r="F13" s="3">
-        <v>223.97706571755501</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="2">
+        <v>234.78005343676401</v>
+      </c>
+      <c r="G13" s="2">
         <v>181.17054960635801</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>208.36751161055099</v>
       </c>
-      <c r="I13" s="3">
-        <v>203.94911575348399</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="I13" s="2">
+        <v>191.291803868209</v>
+      </c>
+      <c r="J13" s="2">
         <v>206.922530960118</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>188.27116700753501</v>
       </c>
-      <c r="L13" s="3">
-        <v>192.11656083939499</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="L13" s="2">
+        <v>179.06785138773</v>
+      </c>
+      <c r="M13" s="2">
+        <v>203.05927566701399</v>
+      </c>
+      <c r="N13" s="2">
+        <v>184.60753307705801</v>
+      </c>
+      <c r="O13" s="2">
+        <v>191.19327674136699</v>
+      </c>
+      <c r="P13" s="2">
         <v>197.08094</v>
       </c>
-      <c r="N13" s="3">
+      <c r="Q13" s="2">
         <v>221.72345999999999</v>
       </c>
-      <c r="O13" s="3">
+      <c r="R13" s="2">
         <v>143.52216999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>-375.16142476241703</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>-308.86866642908302</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>51.771395979363596</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>88.988630744973605</v>
       </c>
-      <c r="F14" s="3">
-        <v>96.481216261421594</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="2">
+        <v>140.24737302994001</v>
+      </c>
+      <c r="G14" s="2">
         <v>43.1243724604834</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>60.027941644275003</v>
       </c>
-      <c r="I14" s="3">
-        <v>109.5803551979</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="2">
+        <v>72.400338513200694</v>
+      </c>
+      <c r="J14" s="2">
         <v>24.436777093051699</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>39.443646886290502</v>
       </c>
-      <c r="L14" s="3">
-        <v>51.873431664351301</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="L14" s="2">
+        <v>35.801490359601303</v>
+      </c>
+      <c r="M14" s="2">
+        <v>41.005959171095299</v>
+      </c>
+      <c r="N14" s="2">
+        <v>43.733302989162503</v>
+      </c>
+      <c r="O14" s="2">
+        <v>23.898894777931101</v>
+      </c>
+      <c r="P14" s="2">
         <v>52.681609999999999</v>
       </c>
-      <c r="N14" s="3">
+      <c r="Q14" s="2">
         <v>-5.0073100000000004</v>
       </c>
-      <c r="O14" s="3">
+      <c r="R14" s="2">
         <v>73.015739999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>12043.293816520199</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>6127.6856189151003</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>6171.7577966029003</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>4192.0909859351796</v>
       </c>
-      <c r="F15" s="3">
-        <v>3121.8335051981999</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="2">
+        <v>4139.1621501200398</v>
+      </c>
+      <c r="G15" s="2">
         <v>2550.9978443774598</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>3811.1648487029902</v>
       </c>
-      <c r="I15" s="3">
-        <v>2024.9810130405899</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="2">
+        <v>2522.3227526568598</v>
+      </c>
+      <c r="J15" s="2">
         <v>2947.9262561369101</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>2067.7983330204802</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
+        <v>1762.1564904453001</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2323.3347035233901</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2388.4133075381001</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1929.6335592550899</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3469.68</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2304.2199999999998</v>
+      </c>
+      <c r="R15" s="2">
+        <v>2709.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.2963707223832999</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.6185152947539601</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.2605471572995199</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.02983714143231</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.06744057227718</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.823701981155184</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.94735448170193604</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.86971882663793998</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.94078479679962501</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.85598533313199199</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.81414194674441098</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.92322029172110898</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.83932841768233402</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.86927086757531102</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.90019000000000005</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.01275</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.65556000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0.83319741802372405</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0.64855556565196104</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0.77699724213947396</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.74935266408352896</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0.76803194189743595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="10">
+        <v>212.959093374106</v>
+      </c>
+      <c r="C24" s="10">
+        <v>334.31196993949101</v>
+      </c>
+      <c r="D24" s="10">
+        <v>237.93083178884001</v>
+      </c>
+      <c r="E24" s="10">
+        <v>258.62253835043902</v>
+      </c>
+      <c r="F24" s="11">
+        <v>234.98610723338899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="10">
+        <v>171.77557861519901</v>
+      </c>
+      <c r="C25" s="10">
+        <v>275.83183029554698</v>
+      </c>
+      <c r="D25" s="10">
+        <v>201.337342857312</v>
+      </c>
+      <c r="E25" s="10">
+        <v>217.21627372730501</v>
+      </c>
+      <c r="F25" s="11">
+        <v>196.484258241308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="10">
+        <v>-21.589624677775099</v>
+      </c>
+      <c r="C26" s="10">
+        <v>194.63317948889099</v>
+      </c>
+      <c r="D26" s="10">
+        <v>197.419163223022</v>
+      </c>
+      <c r="E26" s="10">
+        <v>208.21742249192201</v>
+      </c>
+      <c r="F26" s="11">
+        <v>186.132570673667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="10">
+        <v>3611.44141869947</v>
+      </c>
+      <c r="C27" s="10">
+        <v>5639.2235886756198</v>
+      </c>
+      <c r="D27" s="10">
+        <v>3714.0818339131401</v>
+      </c>
+      <c r="E27" s="10">
+        <v>2863.0683553233598</v>
+      </c>
+      <c r="F27" s="11">
+        <v>3721.55814083614</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0.90875279768639095</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1.4592467072025099</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1.0651448539736501</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1.1491499434555501</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1.0394703415793101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.39773650792426901</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.58391273634833596</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0.74703613481157105</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0.77277585201943999</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.72288057700642205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="10">
+        <v>585.35819956461705</v>
+      </c>
+      <c r="C31" s="10">
+        <v>426.73064219696801</v>
+      </c>
+      <c r="D31" s="10">
+        <v>263.18053888836602</v>
+      </c>
+      <c r="E31" s="10">
+        <v>235.71032743027499</v>
+      </c>
+      <c r="F31" s="11">
+        <v>240.24722563538899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="10">
+        <v>505.07920994760201</v>
+      </c>
+      <c r="C32" s="10">
+        <v>355.98713151768999</v>
+      </c>
+      <c r="D32" s="10">
+        <v>206.922530960118</v>
+      </c>
+      <c r="E32" s="10">
+        <v>188.27116700753501</v>
+      </c>
+      <c r="F32" s="11">
+        <v>192.11656083939499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="10">
+        <v>-375.16142476241703</v>
+      </c>
+      <c r="C33" s="10">
+        <v>-308.86866642908302</v>
+      </c>
+      <c r="D33" s="10">
+        <v>24.436777093051699</v>
+      </c>
+      <c r="E33" s="10">
+        <v>39.443646886290502</v>
+      </c>
+      <c r="F33" s="11">
+        <v>51.873431664351301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="10">
+        <v>12043.293816520199</v>
+      </c>
+      <c r="C34" s="10">
+        <v>6127.6856189151003</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2947.9262561369101</v>
+      </c>
+      <c r="E34" s="10">
+        <v>2067.7983330204802</v>
+      </c>
+      <c r="F34" s="11">
         <v>1980.89139649613</v>
       </c>
-      <c r="M15" s="3">
-        <v>3469.68</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2304.2199999999998</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2709.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="12">
         <v>2.2963707223832999</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C35" s="12">
         <v>1.6185152947539601</v>
       </c>
-      <c r="D16" s="3">
-        <v>1.2605471572995199</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1.02983714143231</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1.01832418771003</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.823701981155184</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.94735448170193604</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.92726599917041497</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="D35" s="12">
         <v>0.94078479679962501</v>
       </c>
-      <c r="K16" s="3">
+      <c r="E35" s="12">
         <v>0.85598533313199199</v>
       </c>
-      <c r="L16" s="3">
+      <c r="F35" s="14">
         <v>0.873468630083442</v>
       </c>
-      <c r="M16" s="3">
-        <v>0.90019000000000005</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1.01275</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0.65556000000000003</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G3:L3">
+  <mergeCells count="2">
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B22:F22"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:O3">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:O8">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:O4">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:O5">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:O6">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:O8">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F8">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F4">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:F5">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:F6">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:F8">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:O3">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:O4">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:O5">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:O6">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:O8">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:O8">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:R3">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:R4">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:R5">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:R6">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:R7">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:R8">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:O11">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:O16">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:O12">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:O13">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:O14">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:O16">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F11">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F16">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:F12">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:F13">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:F14">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:F16">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:O11">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:O12">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:O13">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:O14">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:L8">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:O16">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:O16">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -1115,283 +2211,355 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:L4">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:L5">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:L6">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:L8">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F8">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F4">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:F5">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:F6">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:F8">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:L3">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:L4">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:L5">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:L6">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:L8">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:L8">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:O3">
+  <conditionalFormatting sqref="B11:R11">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:R12">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:R13">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:R14">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:R15">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:R16">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:F23">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:F28">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:F24">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F25">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:F28">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:O4">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:O5">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:O6">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:O7">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:O8">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:L11">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:F23">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:F24">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F25">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:F28">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F28">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:F23">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:F24">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F25">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:F27">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F28">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:F30">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:F35">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:F31">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F32">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:L16">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:F33">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:F35">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1403,55 +2571,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:L12">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:L13">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:L14">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:L16">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:F11">
+  <conditionalFormatting sqref="B30:F30">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1463,7 +2583,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:F16">
+  <conditionalFormatting sqref="B31:F31">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -1475,7 +2595,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:F12">
+  <conditionalFormatting sqref="B32:F32">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1487,7 +2607,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:F13">
+  <conditionalFormatting sqref="B33:F33">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -1499,7 +2619,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:F14">
+  <conditionalFormatting sqref="B34:F35">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -1511,7 +2631,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:F16">
+  <conditionalFormatting sqref="B35:F35">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -1523,79 +2643,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:L11">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:L12">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:L13">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:L14">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:L16">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:L16">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:O11">
+  <conditionalFormatting sqref="B30:F30">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1607,7 +2655,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:O12">
+  <conditionalFormatting sqref="B31:F31">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1619,7 +2667,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:O13">
+  <conditionalFormatting sqref="B32:F32">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1631,7 +2679,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:O14">
+  <conditionalFormatting sqref="B33:F33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1643,7 +2691,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:O15">
+  <conditionalFormatting sqref="B34:F34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1655,7 +2703,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:O16">
+  <conditionalFormatting sqref="B35:F35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Analysis3-Heatmap.xlsx
+++ b/Analysis3-Heatmap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSDS\DS Project\TK analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F276A93-7A85-4B21-BAC2-609EA7A91561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C32E49F-25E9-47F4-9EF6-1E2B7C5EF697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28935" yWindow="-165" windowWidth="29070" windowHeight="15870" xr2:uid="{EF2B5DF0-820C-4264-A359-51F45012B519}"/>
   </bookViews>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -429,6 +420,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,24 +459,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,8 +783,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -926,7 +917,7 @@
         <v>0.83404310143979898</v>
       </c>
       <c r="R3" s="1">
-        <v>0.77887768205159402</v>
+        <v>0.811631930572148</v>
       </c>
       <c r="S3" s="2">
         <v>0.93684000000000001</v>
@@ -991,7 +982,7 @@
         <v>203.98336248729899</v>
       </c>
       <c r="R4" s="2">
-        <v>226.269604915446</v>
+        <v>206.87060566903401</v>
       </c>
       <c r="S4" s="2">
         <v>129.43362999999999</v>
@@ -1056,7 +1047,7 @@
         <v>169.351818070794</v>
       </c>
       <c r="R5" s="2">
-        <v>196.36031165823599</v>
+        <v>177.97778245741</v>
       </c>
       <c r="S5" s="2">
         <v>108.7963</v>
@@ -1073,7 +1064,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" ref="B6:V6" si="0">ABS(B18)</f>
+        <f t="shared" ref="B6:U6" si="0">ABS(B18)</f>
         <v>21.589624677775099</v>
       </c>
       <c r="C6" s="2">
@@ -1138,7 +1129,7 @@
       </c>
       <c r="R6" s="2">
         <f t="shared" si="0"/>
-        <v>177.45739199512801</v>
+        <v>159.01040396538099</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" si="0"/>
@@ -1209,7 +1200,7 @@
         <v>2525.3496100518801</v>
       </c>
       <c r="R7" s="2">
-        <v>3698.82170376657</v>
+        <v>4175.3776112124597</v>
       </c>
       <c r="S7" s="2">
         <v>1866.26</v>
@@ -1274,7 +1265,7 @@
         <v>0.89593025799008397</v>
       </c>
       <c r="R8" s="2">
-        <v>1.0388146208707001</v>
+        <v>0.94156462192164303</v>
       </c>
       <c r="S8" s="2">
         <v>0.57557000000000003</v>
@@ -1347,7 +1338,7 @@
         <v>0.79078542244594296</v>
       </c>
       <c r="R11" s="1">
-        <v>0.764884813560606</v>
+        <v>0.75221091588370603</v>
       </c>
       <c r="S11" s="2">
         <v>0.78551000000000004</v>
@@ -1412,7 +1403,7 @@
         <v>231.974710992735</v>
       </c>
       <c r="R12" s="2">
-        <v>228.607086525043</v>
+        <v>241.31411140247499</v>
       </c>
       <c r="S12" s="2">
         <v>241.25435999999999</v>
@@ -1477,7 +1468,7 @@
         <v>181.89402495562001</v>
       </c>
       <c r="R13" s="2">
-        <v>178.40278238185601</v>
+        <v>173.88340111534399</v>
       </c>
       <c r="S13" s="2">
         <v>197.08094</v>
@@ -1559,7 +1550,7 @@
       </c>
       <c r="R14" s="2">
         <f t="shared" si="1"/>
-        <v>28.294700597212898</v>
+        <v>9.2951625537961409</v>
       </c>
       <c r="S14" s="2">
         <f t="shared" si="1"/>
@@ -1630,7 +1621,7 @@
         <v>2230.8070560995802</v>
       </c>
       <c r="R15" s="2">
-        <v>1641.56793299329</v>
+        <v>1304.8175854455801</v>
       </c>
       <c r="S15" s="2">
         <v>3469.68</v>
@@ -1695,7 +1686,7 @@
         <v>0.82699130207295402</v>
       </c>
       <c r="R16" s="2">
-        <v>0.81111817351562998</v>
+        <v>0.790570555202883</v>
       </c>
       <c r="S16" s="2">
         <v>0.90019000000000005</v>
@@ -1760,7 +1751,7 @@
         <v>154.000218244341</v>
       </c>
       <c r="R18" s="2">
-        <v>177.45739199512801</v>
+        <v>159.01040396538099</v>
       </c>
       <c r="S18" s="2">
         <v>24.861910000000002</v>
@@ -1825,7 +1816,7 @@
         <v>31.668914219201302</v>
       </c>
       <c r="R19" s="2">
-        <v>28.294700597212898</v>
+        <v>9.2951625537961409</v>
       </c>
       <c r="S19" s="2">
         <v>52.681609999999999</v>
@@ -1842,340 +1833,340 @@
     </row>
     <row r="23" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="14">
         <f t="shared" ref="B25:C27" si="2">B3</f>
         <v>0.83319741802372405</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="14">
         <f t="shared" si="2"/>
         <v>0.71511616084183505</v>
       </c>
-      <c r="D25" s="22">
-        <f>M3</f>
-        <v>0.79796325136134605</v>
-      </c>
-      <c r="E25" s="22">
-        <f>N3</f>
-        <v>0.79206668343448405</v>
-      </c>
-      <c r="F25" s="22">
-        <f>O3</f>
-        <v>0.78070427612563098</v>
+      <c r="D25" s="14">
+        <f>P3</f>
+        <v>0.79549399019883904</v>
+      </c>
+      <c r="E25" s="14">
+        <f>Q3</f>
+        <v>0.83404310143979898</v>
+      </c>
+      <c r="F25" s="14">
+        <f>R3</f>
+        <v>0.811631930572148</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="15">
         <f t="shared" si="2"/>
         <v>212.959093374106</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="15">
         <f t="shared" si="2"/>
         <v>318.60121933773701</v>
       </c>
-      <c r="D26" s="23">
-        <f>M4</f>
-        <v>218.06105857040399</v>
-      </c>
-      <c r="E26" s="23">
-        <f t="shared" ref="E26:F30" si="3">N4</f>
-        <v>240.31073572090099</v>
-      </c>
-      <c r="F26" s="23">
-        <f t="shared" si="3"/>
-        <v>229.33988646221101</v>
+      <c r="D26" s="15">
+        <f>P4</f>
+        <v>235.35118613417299</v>
+      </c>
+      <c r="E26" s="15">
+        <f>Q4</f>
+        <v>203.98336248729899</v>
+      </c>
+      <c r="F26" s="15">
+        <f>R4</f>
+        <v>206.87060566903401</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="15">
         <f t="shared" si="2"/>
         <v>171.77557861519901</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="15">
         <f t="shared" si="2"/>
         <v>243.62768709391699</v>
       </c>
-      <c r="D27" s="23">
-        <f>M5</f>
-        <v>179.46261588064499</v>
-      </c>
-      <c r="E27" s="23">
-        <f t="shared" si="3"/>
-        <v>201.15211127881901</v>
-      </c>
-      <c r="F27" s="23">
-        <f t="shared" si="3"/>
-        <v>194.59238682300801</v>
+      <c r="D27" s="15">
+        <f>P5</f>
+        <v>206.00623185761401</v>
+      </c>
+      <c r="E27" s="15">
+        <f>Q5</f>
+        <v>169.351818070794</v>
+      </c>
+      <c r="F27" s="15">
+        <f>R5</f>
+        <v>177.97778245741</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="15">
         <f>ABS(B39)</f>
         <v>21.589624677775099</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="15">
         <f>ABS(C39)</f>
         <v>114.603179488891</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="15">
         <f>ABS(D39)</f>
         <v>193.857194737508</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="15">
         <f>ABS(E39)</f>
         <v>154.000218244341</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="15">
         <f>ABS(F39)</f>
-        <v>177.45739199512801</v>
+        <v>159.01040396538099</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="15">
         <f>B7</f>
         <v>3611.44141869947</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="15">
         <f>C7</f>
         <v>5243.57686626132</v>
       </c>
-      <c r="D29" s="23">
-        <f>M7</f>
-        <v>2919.4209235490198</v>
-      </c>
-      <c r="E29" s="23">
-        <f t="shared" si="3"/>
-        <v>2499.2887534225101</v>
-      </c>
-      <c r="F29" s="23">
-        <f t="shared" si="3"/>
-        <v>3508.7671603657</v>
+      <c r="D29" s="15">
+        <f>P7</f>
+        <v>3819.21668252272</v>
+      </c>
+      <c r="E29" s="15">
+        <f>Q7</f>
+        <v>2525.3496100518801</v>
+      </c>
+      <c r="F29" s="15">
+        <f>R7</f>
+        <v>4175.3776112124597</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="16">
         <f>B8</f>
         <v>0.90875279768639095</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="16">
         <f>C8</f>
         <v>1.28887554345791</v>
       </c>
-      <c r="D30" s="25">
-        <f>M8</f>
-        <v>0.94941990925841602</v>
-      </c>
-      <c r="E30" s="25">
-        <f t="shared" si="3"/>
-        <v>1.06416491423756</v>
-      </c>
-      <c r="F30" s="25">
-        <f t="shared" si="3"/>
-        <v>1.02946168110438</v>
+      <c r="D30" s="17">
+        <f>P8</f>
+        <v>1.0898449072368499</v>
+      </c>
+      <c r="E30" s="17">
+        <f>Q8</f>
+        <v>0.89593025799008397</v>
+      </c>
+      <c r="F30" s="17">
+        <f>R8</f>
+        <v>0.94156462192164303</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="22">
-        <f t="shared" ref="B32:C34" si="4">B11</f>
+      <c r="B32" s="14">
+        <f t="shared" ref="B32:C34" si="3">B11</f>
         <v>0.39773650792426901</v>
       </c>
-      <c r="C32" s="22">
-        <f t="shared" si="4"/>
+      <c r="C32" s="14">
+        <f t="shared" si="3"/>
         <v>0.52481268909677503</v>
       </c>
-      <c r="D32" s="22">
-        <f t="shared" ref="D32:F34" si="5">M11</f>
-        <v>0.759802908095776</v>
-      </c>
-      <c r="E32" s="22">
-        <f t="shared" si="5"/>
-        <v>0.76759942767106704</v>
-      </c>
-      <c r="F32" s="22">
-        <f t="shared" si="5"/>
-        <v>0.754793283519548</v>
+      <c r="D32" s="14">
+        <f>P11</f>
+        <v>0.75722065694084995</v>
+      </c>
+      <c r="E32" s="14">
+        <f>Q11</f>
+        <v>0.79078542244594296</v>
+      </c>
+      <c r="F32" s="14">
+        <f>R11</f>
+        <v>0.75221091588370603</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="23">
-        <f t="shared" si="4"/>
+      <c r="B33" s="15">
+        <f t="shared" si="3"/>
         <v>585.35819956461705</v>
       </c>
-      <c r="C33" s="23">
-        <f t="shared" si="4"/>
+      <c r="C33" s="15">
+        <f t="shared" si="3"/>
         <v>573.70993018248305</v>
       </c>
-      <c r="D33" s="23">
-        <f t="shared" si="5"/>
-        <v>245.35570412401401</v>
-      </c>
-      <c r="E33" s="23">
-        <f t="shared" si="5"/>
-        <v>248.685635410061</v>
-      </c>
-      <c r="F33" s="23">
-        <f t="shared" si="5"/>
-        <v>232.38151998498401</v>
+      <c r="D33" s="15">
+        <f>P12</f>
+        <v>243.35929527891099</v>
+      </c>
+      <c r="E33" s="15">
+        <f>Q12</f>
+        <v>231.974710992735</v>
+      </c>
+      <c r="F33" s="15">
+        <f>R12</f>
+        <v>241.31411140247499</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="23">
-        <f t="shared" si="4"/>
+      <c r="B34" s="15">
+        <f t="shared" si="3"/>
         <v>505.07920994760201</v>
       </c>
-      <c r="C34" s="23">
-        <f t="shared" si="4"/>
+      <c r="C34" s="15">
+        <f t="shared" si="3"/>
         <v>473.14111102327303</v>
       </c>
-      <c r="D34" s="23">
-        <f t="shared" si="5"/>
-        <v>203.05927566701399</v>
-      </c>
-      <c r="E34" s="23">
-        <f t="shared" si="5"/>
-        <v>198.17073484124799</v>
-      </c>
-      <c r="F34" s="23">
-        <f t="shared" si="5"/>
-        <v>182.822721417916</v>
+      <c r="D34" s="15">
+        <f>P13</f>
+        <v>190.49006449298199</v>
+      </c>
+      <c r="E34" s="15">
+        <f>Q13</f>
+        <v>181.89402495562001</v>
+      </c>
+      <c r="F34" s="15">
+        <f>R13</f>
+        <v>173.88340111534399</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="15">
         <f>ABS(B14)</f>
         <v>375.16142476241703</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="15">
         <f>ABS(C40)</f>
         <v>428.84949976241597</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="15">
         <f>ABS(D40)</f>
         <v>5.8716042618343396</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="15">
         <f>ABS(E40)</f>
         <v>31.668914219201302</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="15">
         <f>ABS(F40)</f>
-        <v>28.294700597212898</v>
+        <v>9.2951625537961409</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="15">
         <f>B15</f>
         <v>12043.293816520199</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="15">
         <f>C15</f>
         <v>8962.8026559521404</v>
       </c>
-      <c r="D36" s="23">
-        <f t="shared" ref="D36:F37" si="6">M15</f>
-        <v>2323.3347035233901</v>
-      </c>
-      <c r="E36" s="23">
-        <f t="shared" si="6"/>
-        <v>2397.1858378430702</v>
-      </c>
-      <c r="F36" s="23">
-        <f t="shared" si="6"/>
-        <v>1634.1021092636099</v>
+      <c r="D36" s="15">
+        <f>P15</f>
+        <v>1704.23316722559</v>
+      </c>
+      <c r="E36" s="15">
+        <f>Q15</f>
+        <v>2230.8070560995802</v>
+      </c>
+      <c r="F36" s="15">
+        <f>R15</f>
+        <v>1304.8175854455801</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="16">
         <f>B16</f>
         <v>2.2963707223832999</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="16">
         <f>C16</f>
         <v>2.1511623791097398</v>
       </c>
-      <c r="D37" s="26">
-        <f t="shared" si="6"/>
-        <v>0.92322029172110898</v>
-      </c>
-      <c r="E37" s="26">
-        <f t="shared" si="6"/>
-        <v>0.900994268938211</v>
-      </c>
-      <c r="F37" s="26">
-        <f t="shared" si="6"/>
-        <v>0.83121367219628095</v>
+      <c r="D37" s="18">
+        <f>P16</f>
+        <v>0.866073673972789</v>
+      </c>
+      <c r="E37" s="18">
+        <f>Q16</f>
+        <v>0.82699130207295402</v>
+      </c>
+      <c r="F37" s="18">
+        <f>R16</f>
+        <v>0.790570555202883</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2183,24 +2174,24 @@
         <v>27</v>
       </c>
       <c r="B39" s="8">
-        <f>B6</f>
-        <v>21.589624677775099</v>
+        <f>B18</f>
+        <v>-21.589624677775099</v>
       </c>
       <c r="C39" s="8">
-        <f>C6</f>
+        <f>C18</f>
         <v>114.603179488891</v>
       </c>
       <c r="D39" s="8">
-        <f>P6</f>
+        <f>P18</f>
         <v>193.857194737508</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" ref="E39:F39" si="7">Q6</f>
+        <f t="shared" ref="E39:F39" si="4">Q18</f>
         <v>154.000218244341</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="7"/>
-        <v>177.45739199512801</v>
+        <f t="shared" si="4"/>
+        <v>159.01040396538099</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2208,24 +2199,24 @@
         <v>28</v>
       </c>
       <c r="B40" s="8">
-        <f>B14</f>
-        <v>375.16142476241703</v>
+        <f>B19</f>
+        <v>-375.16142476241703</v>
       </c>
       <c r="C40" s="8">
-        <f>C14</f>
-        <v>428.84949976241597</v>
+        <f>C19</f>
+        <v>-428.84949976241597</v>
       </c>
       <c r="D40" s="8">
-        <f>P14</f>
+        <f>P19</f>
         <v>5.8716042618343396</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" ref="E40:F40" si="8">Q14</f>
+        <f t="shared" ref="E40:F40" si="5">Q19</f>
         <v>31.668914219201302</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="8"/>
-        <v>28.294700597212898</v>
+        <f t="shared" si="5"/>
+        <v>9.2951625537961409</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +2225,7 @@
     <mergeCell ref="B24:F24"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:R3">
-    <cfRule type="colorScale" priority="160">
+    <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2246,7 +2237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:R5 G7:R8">
-    <cfRule type="colorScale" priority="162">
+    <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2258,7 +2249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:R4">
-    <cfRule type="colorScale" priority="161">
+    <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2270,7 +2261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:R5">
-    <cfRule type="colorScale" priority="159">
+    <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2282,7 +2273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:R8">
-    <cfRule type="colorScale" priority="157">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2294,7 +2285,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="colorScale" priority="176">
+    <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2306,7 +2297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F5 B7:F8 B6:U6">
-    <cfRule type="colorScale" priority="177">
+    <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2318,7 +2309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F4">
-    <cfRule type="colorScale" priority="178">
+    <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2330,7 +2321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:F5">
-    <cfRule type="colorScale" priority="179">
+    <cfRule type="colorScale" priority="187">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2342,7 +2333,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:U6">
-    <cfRule type="colorScale" priority="180">
+    <cfRule type="colorScale" priority="188">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2354,7 +2345,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:F8">
-    <cfRule type="colorScale" priority="181">
+    <cfRule type="colorScale" priority="189">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2366,7 +2357,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:R3">
-    <cfRule type="colorScale" priority="182">
+    <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2378,7 +2369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:R4">
-    <cfRule type="colorScale" priority="184">
+    <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2390,7 +2381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:R5">
-    <cfRule type="colorScale" priority="186">
+    <cfRule type="colorScale" priority="194">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2402,7 +2393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:R8">
-    <cfRule type="colorScale" priority="190">
+    <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2414,7 +2405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:R8">
-    <cfRule type="colorScale" priority="208">
+    <cfRule type="colorScale" priority="216">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2426,102 +2417,342 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:U3">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:U4">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:U5">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:U7">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:U8">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:R11">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:R16">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:R12">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:R13">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:R14">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:R16">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F11">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F16 B14:U14">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:F12">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:F13">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:U14">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:F16">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:R11">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:R12">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:R13">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:U14">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:U4">
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:U5">
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:U7">
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:U8">
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:R11">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:R16">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:R16">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:U11">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:U12">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:U13">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:U14">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:U15">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:R16">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:R12">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:R13">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:U16">
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
@@ -2533,7 +2764,189 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:R14">
+  <conditionalFormatting sqref="B25:F25">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F30">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26 D27:F30">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:F27">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F28">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:F30">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F25">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:F27">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F28">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:F30">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:F30">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -2545,247 +2958,187 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:R16">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:F11">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:F16 B14:U14">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:F12">
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:F13">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:U14">
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:F16">
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:R11">
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:R12">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:R13">
-    <cfRule type="colorScale" priority="123">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:U14">
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:R16">
-    <cfRule type="colorScale" priority="125">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:R16">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:U11">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:U12">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:U13">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:U14">
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:U15">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:U16">
-    <cfRule type="colorScale" priority="103">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B25:F25">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:F27">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F28">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:F29">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:F30">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F32">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F34 B36:F37">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:F33 D34:F34 D36:F37">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:F34">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:F37">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F32">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:F33">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:F34">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:F37">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F30">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:F37">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -2797,31 +3150,589 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F26 D27:F30">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:F27">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F28">
+  <conditionalFormatting sqref="B32:F32">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:F33">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:F34">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:F36">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:F37">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:F35">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:F35">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:F35">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:F35">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:F35">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:F35">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:F35">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18:U18">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19:U19">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:F39">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:F39">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:F39">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:F39">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:F39">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:F40">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:F40">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:F40">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:F40">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:F40">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:F40">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:F40">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:Q18">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:Q18">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:Q19">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:Q19">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2832,796 +3743,8 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F30">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F25">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F26">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:F27">
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F28">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F30">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:F30">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F25">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F26">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:F27">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F28">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F29">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:F30">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F32">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F34 B36:F37">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F33 D34:F34 D36:F37">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:F34">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:F37">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F32">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F33">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:F34">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:F37">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:F37">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F32">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F33">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:F34">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:F36">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:F37">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:F35">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:F35">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:F35">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18:U18">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S19:U19">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:F39">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:F39">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:F39">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:F39">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:F39">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:F40">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:F40">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:F40">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:F40">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:F40">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:F40">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:F40">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:R18">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3633,7 +3756,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:R18">
+  <conditionalFormatting sqref="R18">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3645,55 +3780,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:R18">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:R18">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:R18">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:R18">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:R19">
+  <conditionalFormatting sqref="R19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3705,7 +3792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:R19">
+  <conditionalFormatting sqref="R19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3717,7 +3804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:R19">
+  <conditionalFormatting sqref="R19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3729,7 +3816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:R19">
+  <conditionalFormatting sqref="R19">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3741,7 +3828,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:R19">
+  <conditionalFormatting sqref="R19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3753,7 +3840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:R19">
+  <conditionalFormatting sqref="R19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3785,12 +3872,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
@@ -3812,13 +3899,13 @@
     </row>
     <row r="6" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
@@ -3942,13 +4029,13 @@
     </row>
     <row r="13" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">

--- a/Analysis3-Heatmap.xlsx
+++ b/Analysis3-Heatmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSDS\DS Project\TK analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C32E49F-25E9-47F4-9EF6-1E2B7C5EF697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E714686-FCFF-49DF-A6AD-F3C1E1AA3479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28935" yWindow="-165" windowWidth="29070" windowHeight="15870" xr2:uid="{EF2B5DF0-820C-4264-A359-51F45012B519}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>At Merriwa</t>
   </si>
@@ -82,15 +82,6 @@
     <t>MASE</t>
   </si>
   <si>
-    <t>3 features vanilla LSTM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 features vector model </t>
-  </si>
-  <si>
-    <t>3 features Encoder decoder</t>
-  </si>
-  <si>
     <t>DTW Distance</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>Abs MAE</t>
   </si>
   <si>
-    <t xml:space="preserve"> Purely for color palette</t>
-  </si>
-  <si>
     <t>XGBM tuned - with all factors</t>
   </si>
   <si>
@@ -149,6 +137,18 @@
   </si>
   <si>
     <t>AdaBoost tuned - with all factors</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>Vector Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encoder-Decoder </t>
+  </si>
+  <si>
+    <t>SL Results</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -211,26 +211,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -392,11 +372,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -404,67 +393,977 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="130">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -781,16 +1680,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E05100-03FD-456C-B673-56B7EF01DBA8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.77734375" customWidth="1"/>
+    <col min="8" max="12" width="11.77734375" customWidth="1"/>
     <col min="13" max="18" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -799,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
@@ -829,31 +1729,31 @@
         <v>16</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -920,13 +1820,13 @@
         <v>0.811631930572148</v>
       </c>
       <c r="S3" s="2">
-        <v>0.93684000000000001</v>
+        <v>0.88009999999999999</v>
       </c>
       <c r="T3" s="2">
-        <v>0.95679000000000003</v>
+        <v>0.91481000000000001</v>
       </c>
       <c r="U3" s="2">
-        <v>0.93723999999999996</v>
+        <v>0.90980000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -985,13 +1885,13 @@
         <v>206.87060566903401</v>
       </c>
       <c r="S4" s="2">
-        <v>129.43362999999999</v>
+        <v>0.88009999999999999</v>
       </c>
       <c r="T4" s="2">
-        <v>110.30329999999999</v>
+        <v>155.02667</v>
       </c>
       <c r="U4" s="2">
-        <v>134.05144000000001</v>
+        <v>160.72957</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1050,102 +1950,80 @@
         <v>177.97778245741</v>
       </c>
       <c r="S5" s="2">
-        <v>108.7963</v>
+        <v>165.06471999999999</v>
       </c>
       <c r="T5" s="2">
-        <v>90.339659999999995</v>
+        <v>126.46784</v>
       </c>
       <c r="U5" s="2">
-        <v>104.12736</v>
+        <v>131.67061000000001</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" ref="B6:U6" si="0">ABS(B18)</f>
-        <v>21.589624677775099</v>
+        <v>-21.589624677775099</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
         <v>114.603179488891</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
         <v>280.90060472082502</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
         <v>314.66247087279999</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
         <v>300.21064491112702</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
         <v>211.15921830725</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
         <v>216.87372325980601</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
         <v>183.096482436478</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="0"/>
         <v>197.419163223022</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="0"/>
         <v>208.21742249192201</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="0"/>
         <v>199.128419784957</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="0"/>
         <v>168.129557764444</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="0"/>
         <v>196.14325678709</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="0"/>
         <v>181.93531422644901</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="0"/>
         <v>193.857194737508</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="0"/>
         <v>154.000218244341</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="0"/>
         <v>159.01040396538099</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="0"/>
         <v>24.861910000000002</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" si="0"/>
         <v>19.603090000000002</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" si="0"/>
         <v>43.669170000000001</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1203,13 +2081,13 @@
         <v>4175.3776112124597</v>
       </c>
       <c r="S7" s="2">
-        <v>1866.26</v>
+        <v>2397.92</v>
       </c>
       <c r="T7" s="2">
-        <v>1545.5</v>
+        <v>1957.58</v>
       </c>
       <c r="U7" s="2">
-        <v>1850.33</v>
+        <v>1971.03</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1268,13 +2146,13 @@
         <v>0.94156462192164303</v>
       </c>
       <c r="S8" s="2">
-        <v>0.57557000000000003</v>
+        <v>0.87324999999999997</v>
       </c>
       <c r="T8" s="2">
-        <v>0.47793000000000002</v>
+        <v>0.66905999999999999</v>
       </c>
       <c r="U8" s="2">
-        <v>0.55086999999999997</v>
+        <v>0.69657999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1341,13 +2219,13 @@
         <v>0.75221091588370603</v>
       </c>
       <c r="S11" s="2">
-        <v>0.78551000000000004</v>
+        <v>0.85718000000000005</v>
       </c>
       <c r="T11" s="2">
-        <v>0.72414999999999996</v>
+        <v>0.82977000000000001</v>
       </c>
       <c r="U11" s="2">
-        <v>0.85282000000000002</v>
+        <v>0.82643999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1406,13 +2284,13 @@
         <v>241.31411140247499</v>
       </c>
       <c r="S12" s="2">
-        <v>241.25435999999999</v>
+        <v>197.39032</v>
       </c>
       <c r="T12" s="2">
-        <v>289.36772999999999</v>
+        <v>220.63361</v>
       </c>
       <c r="U12" s="2">
-        <v>183.79640000000001</v>
+        <v>216.14597000000001</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -1471,101 +2349,82 @@
         <v>173.88340111534399</v>
       </c>
       <c r="S13" s="2">
-        <v>197.08094</v>
+        <v>168.51536999999999</v>
       </c>
       <c r="T13" s="2">
-        <v>221.72345999999999</v>
+        <v>193.72343000000001</v>
       </c>
       <c r="U13" s="2">
-        <v>143.52216999999999</v>
+        <v>193.26488000000001</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" ref="B14:U14" si="1">ABS(B19)</f>
-        <v>375.16142476241703</v>
+        <v>-375.16142476241703</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="1"/>
-        <v>428.84949976241597</v>
+        <v>-428.84949976241597</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="1"/>
         <v>51.771395979363596</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
         <v>88.988630744973705</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
         <v>109.809652296197</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="1"/>
         <v>43.1243724604834</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="1"/>
         <v>60.027941644275003</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="1"/>
         <v>71.443372169781895</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="1"/>
         <v>24.436777093051699</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="1"/>
         <v>39.443646886290601</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="1"/>
         <v>26.5766408724336</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="1"/>
         <v>41.005959171095398</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="1"/>
         <v>38.1363011422957</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="1"/>
         <v>8.1882079363654707</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="1"/>
         <v>5.8716042618343396</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="1"/>
         <v>31.668914219201302</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="1"/>
         <v>9.2951625537961409</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="1"/>
         <v>52.681609999999999</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="1"/>
-        <v>5.0073100000000004</v>
+        <v>-5.0073100000000004</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="1"/>
         <v>73.015739999999994</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>37</v>
+      <c r="V14" s="2">
+        <f>V19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -1624,13 +2483,13 @@
         <v>1304.8175854455801</v>
       </c>
       <c r="S15" s="2">
-        <v>3469.68</v>
+        <v>2422.2199999999998</v>
       </c>
       <c r="T15" s="2">
-        <v>2304.2199999999998</v>
+        <v>2450.39</v>
       </c>
       <c r="U15" s="2">
-        <v>2709.3</v>
+        <v>2319.91</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -1689,18 +2548,18 @@
         <v>0.790570555202883</v>
       </c>
       <c r="S16" s="2">
-        <v>0.90019000000000005</v>
+        <v>0.76971999999999996</v>
       </c>
       <c r="T16" s="2">
-        <v>1.01275</v>
+        <v>0.88485999999999998</v>
       </c>
       <c r="U16" s="2">
-        <v>0.65556000000000003</v>
+        <v>0.88275999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2">
         <v>-21.589624677775099</v>
@@ -1765,7 +2624,7 @@
     </row>
     <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2">
         <v>-375.16142476241703</v>
@@ -1826,406 +2685,670 @@
       </c>
       <c r="U19" s="2">
         <v>73.015739999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>26</v>
+      <c r="I23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="B24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="14">
-        <f t="shared" ref="B25:C27" si="2">B3</f>
+      <c r="B25" s="13">
+        <f>$B$3</f>
         <v>0.83319741802372405</v>
       </c>
-      <c r="C25" s="14">
-        <f t="shared" si="2"/>
+      <c r="C25" s="13">
+        <f>$C$3</f>
         <v>0.71511616084183505</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <f>P3</f>
         <v>0.79549399019883904</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <f>Q3</f>
         <v>0.83404310143979898</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <f>R3</f>
         <v>0.811631930572148</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="13">
+        <f>$B$3</f>
+        <v>0.83319741802372405</v>
+      </c>
+      <c r="J25" s="13">
+        <f>$C$3</f>
+        <v>0.71511616084183505</v>
+      </c>
+      <c r="K25" s="13">
+        <f>S3</f>
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="L25" s="13">
+        <f t="shared" ref="L25:M30" si="0">T3</f>
+        <v>0.91481000000000001</v>
+      </c>
+      <c r="M25" s="13">
+        <f t="shared" si="0"/>
+        <v>0.90980000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="15">
-        <f t="shared" si="2"/>
+      <c r="B26" s="14">
+        <f>$B$4</f>
         <v>212.959093374106</v>
       </c>
-      <c r="C26" s="15">
-        <f t="shared" si="2"/>
+      <c r="C26" s="14">
+        <f>$C$4</f>
         <v>318.60121933773701</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <f>P4</f>
         <v>235.35118613417299</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="14">
         <f>Q4</f>
         <v>203.98336248729899</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="14">
         <f>R4</f>
         <v>206.87060566903401</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="14">
+        <f>$B$4</f>
+        <v>212.959093374106</v>
+      </c>
+      <c r="J26" s="14">
+        <f>$C$4</f>
+        <v>318.60121933773701</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" ref="K26:K30" si="1">S4</f>
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="L26" s="14">
+        <f t="shared" si="0"/>
+        <v>155.02667</v>
+      </c>
+      <c r="M26" s="14">
+        <f t="shared" si="0"/>
+        <v>160.72957</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="15">
-        <f t="shared" si="2"/>
+      <c r="B27" s="14">
+        <f>$B$5</f>
         <v>171.77557861519901</v>
       </c>
-      <c r="C27" s="15">
-        <f t="shared" si="2"/>
+      <c r="C27" s="24">
+        <f>$C$5</f>
         <v>243.62768709391699</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <f>P5</f>
         <v>206.00623185761401</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="14">
         <f>Q5</f>
         <v>169.351818070794</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="14">
         <f>R5</f>
         <v>177.97778245741</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="14">
+        <f>$B$5</f>
+        <v>171.77557861519901</v>
+      </c>
+      <c r="J27" s="24">
+        <f>$C$5</f>
+        <v>243.62768709391699</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="1"/>
+        <v>165.06471999999999</v>
+      </c>
+      <c r="L27" s="14">
+        <f t="shared" si="0"/>
+        <v>126.46784</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" si="0"/>
+        <v>131.67061000000001</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="15">
-        <f>ABS(B39)</f>
-        <v>21.589624677775099</v>
-      </c>
-      <c r="C28" s="15">
-        <f>ABS(C39)</f>
+      <c r="B28" s="14">
+        <f>$B$6</f>
+        <v>-21.589624677775099</v>
+      </c>
+      <c r="C28" s="14">
+        <f>$C$6</f>
         <v>114.603179488891</v>
       </c>
-      <c r="D28" s="15">
-        <f>ABS(D39)</f>
+      <c r="D28" s="14">
+        <f>P6</f>
         <v>193.857194737508</v>
       </c>
-      <c r="E28" s="15">
-        <f>ABS(E39)</f>
+      <c r="E28" s="14">
+        <f t="shared" ref="E28:F28" si="2">Q6</f>
         <v>154.000218244341</v>
       </c>
-      <c r="F28" s="15">
-        <f>ABS(F39)</f>
+      <c r="F28" s="14">
+        <f t="shared" si="2"/>
         <v>159.01040396538099</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="14">
+        <f>$B$6</f>
+        <v>-21.589624677775099</v>
+      </c>
+      <c r="J28" s="14">
+        <f>$C$6</f>
+        <v>114.603179488891</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="1"/>
+        <v>24.861910000000002</v>
+      </c>
+      <c r="L28" s="14">
+        <f t="shared" si="0"/>
+        <v>19.603090000000002</v>
+      </c>
+      <c r="M28" s="14">
+        <f t="shared" si="0"/>
+        <v>43.669170000000001</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="15">
-        <f>B7</f>
+        <v>18</v>
+      </c>
+      <c r="B29" s="14">
+        <f>$B$7</f>
         <v>3611.44141869947</v>
       </c>
-      <c r="C29" s="15">
-        <f>C7</f>
+      <c r="C29" s="24">
+        <f>$C$7</f>
         <v>5243.57686626132</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <f>P7</f>
         <v>3819.21668252272</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="14">
         <f>Q7</f>
         <v>2525.3496100518801</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="14">
         <f>R7</f>
         <v>4175.3776112124597</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="14">
+        <f>$B$7</f>
+        <v>3611.44141869947</v>
+      </c>
+      <c r="J29" s="24">
+        <f>$C$7</f>
+        <v>5243.57686626132</v>
+      </c>
+      <c r="K29" s="14">
+        <f t="shared" si="1"/>
+        <v>2397.92</v>
+      </c>
+      <c r="L29" s="14">
+        <f t="shared" si="0"/>
+        <v>1957.58</v>
+      </c>
+      <c r="M29" s="14">
+        <f t="shared" si="0"/>
+        <v>1971.03</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="16">
-        <f>B8</f>
+      <c r="B30" s="15">
+        <f>$B$8</f>
         <v>0.90875279768639095</v>
       </c>
-      <c r="C30" s="16">
-        <f>C8</f>
+      <c r="C30" s="15">
+        <f>$C$8</f>
         <v>1.28887554345791</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="16">
         <f>P8</f>
         <v>1.0898449072368499</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <f>Q8</f>
         <v>0.89593025799008397</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="16">
         <f>R8</f>
         <v>0.94156462192164303</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="15">
+        <f>$B$8</f>
+        <v>0.90875279768639095</v>
+      </c>
+      <c r="J30" s="15">
+        <f>$C$8</f>
+        <v>1.28887554345791</v>
+      </c>
+      <c r="K30" s="16">
+        <f t="shared" si="1"/>
+        <v>0.87324999999999997</v>
+      </c>
+      <c r="L30" s="16">
+        <f t="shared" si="0"/>
+        <v>0.66905999999999999</v>
+      </c>
+      <c r="M30" s="16">
+        <f t="shared" si="0"/>
+        <v>0.69657999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
+      <c r="B31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="19"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="14">
-        <f t="shared" ref="B32:C34" si="3">B11</f>
+      <c r="B32" s="13">
+        <f>$B$11</f>
         <v>0.39773650792426901</v>
       </c>
-      <c r="C32" s="14">
-        <f t="shared" si="3"/>
+      <c r="C32" s="13">
+        <f>$C$11</f>
         <v>0.52481268909677503</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <f>P11</f>
         <v>0.75722065694084995</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <f>Q11</f>
         <v>0.79078542244594296</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <f>R11</f>
         <v>0.75221091588370603</v>
       </c>
+      <c r="H32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="13">
+        <f>$B$11</f>
+        <v>0.39773650792426901</v>
+      </c>
+      <c r="J32" s="13">
+        <f>$C$11</f>
+        <v>0.52481268909677503</v>
+      </c>
+      <c r="K32" s="13">
+        <f>S11</f>
+        <v>0.85718000000000005</v>
+      </c>
+      <c r="L32" s="13">
+        <f t="shared" ref="L32:M37" si="3">T11</f>
+        <v>0.82977000000000001</v>
+      </c>
+      <c r="M32" s="13">
+        <f t="shared" si="3"/>
+        <v>0.82643999999999995</v>
+      </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="15">
-        <f t="shared" si="3"/>
+      <c r="B33" s="14">
+        <f>$B$12</f>
         <v>585.35819956461705</v>
       </c>
-      <c r="C33" s="15">
-        <f t="shared" si="3"/>
+      <c r="C33" s="14">
+        <f>$C$12</f>
         <v>573.70993018248305</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <f>P12</f>
         <v>243.35929527891099</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="14">
         <f>Q12</f>
         <v>231.974710992735</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="14">
         <f>R12</f>
         <v>241.31411140247499</v>
       </c>
+      <c r="H33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="14">
+        <f>$B$12</f>
+        <v>585.35819956461705</v>
+      </c>
+      <c r="J33" s="14">
+        <f>$C$12</f>
+        <v>573.70993018248305</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="shared" ref="K33:K37" si="4">S12</f>
+        <v>197.39032</v>
+      </c>
+      <c r="L33" s="14">
+        <f t="shared" si="3"/>
+        <v>220.63361</v>
+      </c>
+      <c r="M33" s="14">
+        <f t="shared" si="3"/>
+        <v>216.14597000000001</v>
+      </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="15">
-        <f t="shared" si="3"/>
+      <c r="B34" s="14">
+        <f>$B$13</f>
         <v>505.07920994760201</v>
       </c>
-      <c r="C34" s="15">
-        <f t="shared" si="3"/>
+      <c r="C34" s="14">
+        <f>$C$13</f>
         <v>473.14111102327303</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <f>P13</f>
         <v>190.49006449298199</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="14">
         <f>Q13</f>
         <v>181.89402495562001</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="14">
         <f>R13</f>
         <v>173.88340111534399</v>
       </c>
+      <c r="H34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="14">
+        <f>$B$13</f>
+        <v>505.07920994760201</v>
+      </c>
+      <c r="J34" s="14">
+        <f>$C$13</f>
+        <v>473.14111102327303</v>
+      </c>
+      <c r="K34" s="14">
+        <f t="shared" si="4"/>
+        <v>168.51536999999999</v>
+      </c>
+      <c r="L34" s="14">
+        <f t="shared" si="3"/>
+        <v>193.72343000000001</v>
+      </c>
+      <c r="M34" s="14">
+        <f t="shared" si="3"/>
+        <v>193.26488000000001</v>
+      </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="15">
-        <f>ABS(B14)</f>
-        <v>375.16142476241703</v>
-      </c>
-      <c r="C35" s="15">
-        <f>ABS(C40)</f>
-        <v>428.84949976241597</v>
-      </c>
-      <c r="D35" s="15">
-        <f>ABS(D40)</f>
+      <c r="B35" s="14">
+        <f>$B$14</f>
+        <v>-375.16142476241703</v>
+      </c>
+      <c r="C35" s="14">
+        <f>$C$14</f>
+        <v>-428.84949976241597</v>
+      </c>
+      <c r="D35" s="14">
+        <f>P14</f>
         <v>5.8716042618343396</v>
       </c>
-      <c r="E35" s="15">
-        <f>ABS(E40)</f>
+      <c r="E35" s="14">
+        <f t="shared" ref="E35:F35" si="5">Q14</f>
         <v>31.668914219201302</v>
       </c>
-      <c r="F35" s="15">
-        <f>ABS(F40)</f>
+      <c r="F35" s="14">
+        <f t="shared" si="5"/>
         <v>9.2951625537961409</v>
       </c>
+      <c r="H35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="14">
+        <f>$B$14</f>
+        <v>-375.16142476241703</v>
+      </c>
+      <c r="J35" s="14">
+        <f>$C$14</f>
+        <v>-428.84949976241597</v>
+      </c>
+      <c r="K35" s="14">
+        <f t="shared" si="4"/>
+        <v>52.681609999999999</v>
+      </c>
+      <c r="L35" s="14">
+        <f t="shared" si="3"/>
+        <v>-5.0073100000000004</v>
+      </c>
+      <c r="M35" s="14">
+        <f t="shared" si="3"/>
+        <v>73.015739999999994</v>
+      </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="15">
-        <f>B15</f>
+        <v>18</v>
+      </c>
+      <c r="B36" s="14">
+        <f>$B$15</f>
         <v>12043.293816520199</v>
       </c>
-      <c r="C36" s="15">
-        <f>C15</f>
+      <c r="C36" s="14">
+        <f>$C$15</f>
         <v>8962.8026559521404</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <f>P15</f>
         <v>1704.23316722559</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="14">
         <f>Q15</f>
         <v>2230.8070560995802</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="14">
         <f>R15</f>
         <v>1304.8175854455801</v>
       </c>
+      <c r="H36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="14">
+        <f>$B$15</f>
+        <v>12043.293816520199</v>
+      </c>
+      <c r="J36" s="14">
+        <f>$C$15</f>
+        <v>8962.8026559521404</v>
+      </c>
+      <c r="K36" s="14">
+        <f t="shared" si="4"/>
+        <v>2422.2199999999998</v>
+      </c>
+      <c r="L36" s="14">
+        <f t="shared" si="3"/>
+        <v>2450.39</v>
+      </c>
+      <c r="M36" s="14">
+        <f t="shared" si="3"/>
+        <v>2319.91</v>
+      </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="16">
-        <f>B16</f>
+      <c r="B37" s="15">
+        <f>$B$16</f>
         <v>2.2963707223832999</v>
       </c>
-      <c r="C37" s="16">
-        <f>C16</f>
+      <c r="C37" s="15">
+        <f>$C$16</f>
         <v>2.1511623791097398</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="17">
         <f>P16</f>
         <v>0.866073673972789</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="17">
         <f>Q16</f>
         <v>0.82699130207295402</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="17">
         <f>R16</f>
         <v>0.790570555202883</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="8">
-        <f>B18</f>
-        <v>-21.589624677775099</v>
-      </c>
-      <c r="C39" s="8">
-        <f>C18</f>
-        <v>114.603179488891</v>
-      </c>
-      <c r="D39" s="8">
-        <f>P18</f>
-        <v>193.857194737508</v>
-      </c>
-      <c r="E39" s="8">
-        <f t="shared" ref="E39:F39" si="4">Q18</f>
-        <v>154.000218244341</v>
-      </c>
-      <c r="F39" s="8">
+      <c r="H37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="15">
+        <f>$B$16</f>
+        <v>2.2963707223832999</v>
+      </c>
+      <c r="J37" s="15">
+        <f>$C$16</f>
+        <v>2.1511623791097398</v>
+      </c>
+      <c r="K37" s="17">
         <f t="shared" si="4"/>
-        <v>159.01040396538099</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="8">
-        <f>B19</f>
-        <v>-375.16142476241703</v>
-      </c>
-      <c r="C40" s="8">
-        <f>C19</f>
-        <v>-428.84949976241597</v>
-      </c>
-      <c r="D40" s="8">
-        <f>P19</f>
-        <v>5.8716042618343396</v>
-      </c>
-      <c r="E40" s="8">
-        <f t="shared" ref="E40:F40" si="5">Q19</f>
-        <v>31.668914219201302</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" si="5"/>
-        <v>9.2951625537961409</v>
+        <v>0.76971999999999996</v>
+      </c>
+      <c r="L37" s="17">
+        <f t="shared" si="3"/>
+        <v>0.88485999999999998</v>
+      </c>
+      <c r="M37" s="17">
+        <f t="shared" si="3"/>
+        <v>0.88275999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B24:F24"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="I31:M31"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:R3">
-    <cfRule type="colorScale" priority="168">
+    <cfRule type="colorScale" priority="424">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2237,7 +3360,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:R5 G7:R8">
-    <cfRule type="colorScale" priority="170">
+    <cfRule type="colorScale" priority="426">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2249,7 +3372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:R4">
-    <cfRule type="colorScale" priority="169">
+    <cfRule type="colorScale" priority="425">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2261,7 +3384,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:R5">
-    <cfRule type="colorScale" priority="167">
+    <cfRule type="colorScale" priority="423">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2273,7 +3396,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:R8">
-    <cfRule type="colorScale" priority="165">
+    <cfRule type="colorScale" priority="421">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2285,19 +3408,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="colorScale" priority="184">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F5 B7:F8 B6:U6">
-    <cfRule type="colorScale" priority="185">
+    <cfRule type="colorScale" priority="440">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F5 B7:F8">
+    <cfRule type="colorScale" priority="441">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2309,7 +3432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F4">
-    <cfRule type="colorScale" priority="186">
+    <cfRule type="colorScale" priority="442">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2321,19 +3444,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:F5">
-    <cfRule type="colorScale" priority="187">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:U6">
-    <cfRule type="colorScale" priority="188">
+    <cfRule type="colorScale" priority="443">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2345,7 +3456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:F8">
-    <cfRule type="colorScale" priority="189">
+    <cfRule type="colorScale" priority="445">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2357,7 +3468,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:R3">
-    <cfRule type="colorScale" priority="190">
+    <cfRule type="colorScale" priority="446">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2369,7 +3480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:R4">
-    <cfRule type="colorScale" priority="192">
+    <cfRule type="colorScale" priority="448">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2381,7 +3492,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:R5">
-    <cfRule type="colorScale" priority="194">
+    <cfRule type="colorScale" priority="450">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2393,7 +3504,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:R8">
-    <cfRule type="colorScale" priority="198">
+    <cfRule type="colorScale" priority="454">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2405,7 +3516,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:R8">
-    <cfRule type="colorScale" priority="216">
+    <cfRule type="colorScale" priority="472">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2417,800 +3528,1262 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:U3">
+    <cfRule type="colorScale" priority="396">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:U4">
+    <cfRule type="colorScale" priority="395">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:U5">
+    <cfRule type="colorScale" priority="394">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:U7">
+    <cfRule type="colorScale" priority="392">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:U8">
+    <cfRule type="colorScale" priority="391">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:R11">
+    <cfRule type="colorScale" priority="376">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:R13 G15:R16">
+    <cfRule type="colorScale" priority="378">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:R12">
+    <cfRule type="colorScale" priority="377">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:R13">
+    <cfRule type="colorScale" priority="375">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:R16">
+    <cfRule type="colorScale" priority="373">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F11">
+    <cfRule type="colorScale" priority="379">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F13 B15:F16">
+    <cfRule type="colorScale" priority="380">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:F12">
+    <cfRule type="colorScale" priority="381">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:F13">
+    <cfRule type="colorScale" priority="382">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:F16">
+    <cfRule type="colorScale" priority="384">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:R11">
+    <cfRule type="colorScale" priority="385">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:R12">
+    <cfRule type="colorScale" priority="386">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:R13">
+    <cfRule type="colorScale" priority="387">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:R16">
+    <cfRule type="colorScale" priority="389">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:R16">
+    <cfRule type="colorScale" priority="390">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:U11">
+    <cfRule type="colorScale" priority="372">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:U12">
+    <cfRule type="colorScale" priority="371">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:U13">
+    <cfRule type="colorScale" priority="370">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:U15">
+    <cfRule type="colorScale" priority="368">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:U16">
+    <cfRule type="colorScale" priority="367">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F25">
+    <cfRule type="colorScale" priority="355">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F27 B29:F30">
+    <cfRule type="colorScale" priority="356">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26 D27:F27 D29:F30">
+    <cfRule type="colorScale" priority="357">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:F27">
+    <cfRule type="colorScale" priority="358">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:F30">
+    <cfRule type="colorScale" priority="360">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F25">
+    <cfRule type="colorScale" priority="361">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26">
+    <cfRule type="colorScale" priority="362">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:F27">
+    <cfRule type="colorScale" priority="363">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:F30">
+    <cfRule type="colorScale" priority="365">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:F30">
+    <cfRule type="colorScale" priority="366">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F25">
+    <cfRule type="colorScale" priority="354">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26">
+    <cfRule type="colorScale" priority="353">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:F27">
+    <cfRule type="colorScale" priority="352">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:F29">
+    <cfRule type="colorScale" priority="350">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:F30">
+    <cfRule type="colorScale" priority="349">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F32">
+    <cfRule type="colorScale" priority="337">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F34 B36:F37">
+    <cfRule type="colorScale" priority="338">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:F33 D34:F34 D36:F37">
+    <cfRule type="colorScale" priority="339">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:F34">
+    <cfRule type="colorScale" priority="340">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:F37">
+    <cfRule type="colorScale" priority="342">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F32">
+    <cfRule type="colorScale" priority="343">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:F33">
+    <cfRule type="colorScale" priority="344">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:F34">
+    <cfRule type="colorScale" priority="345">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:F37">
+    <cfRule type="colorScale" priority="347">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:F37">
+    <cfRule type="colorScale" priority="348">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F32">
+    <cfRule type="colorScale" priority="336">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:F33">
+    <cfRule type="colorScale" priority="335">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:F34">
+    <cfRule type="colorScale" priority="334">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:F36">
+    <cfRule type="colorScale" priority="332">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:F37">
+    <cfRule type="colorScale" priority="331">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18:U18">
+    <cfRule type="colorScale" priority="307">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
+    <cfRule type="colorScale" priority="274">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
+    <cfRule type="colorScale" priority="275">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
+    <cfRule type="colorScale" priority="276">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
+    <cfRule type="expression" dxfId="113" priority="271">
+      <formula>AND(ABS(B18)&gt;200, ABS(B18)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:U18">
+    <cfRule type="expression" dxfId="112" priority="256">
+      <formula>ABS(B18)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="263">
+      <formula>AND(ABS(B18)&gt;150, ABS(B18)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="264">
+      <formula>AND(ABS(B18)&gt;50, ABS(B18)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="272">
+      <formula>AND(ABS(B18)&gt;100, ABS(B18)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="273">
+      <formula>AND(ABS(B18)&gt;0, ABS(B18)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19:U19">
+    <cfRule type="colorScale" priority="255">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
+    <cfRule type="colorScale" priority="252">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
+    <cfRule type="colorScale" priority="254">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
+    <cfRule type="expression" dxfId="107" priority="249">
+      <formula>AND(ABS(B19)&gt;200, ABS(B19)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:U19">
+    <cfRule type="expression" dxfId="106" priority="246">
+      <formula>ABS(B19)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="247">
+      <formula>AND(ABS(B19)&gt;150, ABS(B19)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="248">
+      <formula>AND(ABS(B19)&gt;50, ABS(B19)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="250">
+      <formula>AND(ABS(B19)&gt;100, ABS(B19)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="251">
+      <formula>AND(ABS(B19)&gt;0, ABS(B19)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:U6">
+    <cfRule type="colorScale" priority="245">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6 V6">
+    <cfRule type="colorScale" priority="242">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6 V6">
+    <cfRule type="colorScale" priority="243">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6 V6">
+    <cfRule type="colorScale" priority="244">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6 V6">
+    <cfRule type="expression" dxfId="101" priority="239">
+      <formula>AND(ABS(B6)&gt;200, ABS(B6)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:V6">
+    <cfRule type="expression" dxfId="100" priority="236">
+      <formula>ABS(B6)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="237">
+      <formula>AND(ABS(B6)&gt;150, ABS(B6)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="238">
+      <formula>AND(ABS(B6)&gt;50, ABS(B6)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="240">
+      <formula>AND(ABS(B6)&gt;100, ABS(B6)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="241">
+      <formula>AND(ABS(B6)&gt;0, ABS(B6)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14:U14">
+    <cfRule type="colorScale" priority="235">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:Q14 V14">
+    <cfRule type="colorScale" priority="232">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:Q14 V14">
+    <cfRule type="colorScale" priority="233">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:Q14 V14">
+    <cfRule type="colorScale" priority="234">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:Q14 V14">
+    <cfRule type="expression" dxfId="95" priority="229">
+      <formula>AND(ABS(B14)&gt;200, ABS(B14)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:V14">
+    <cfRule type="expression" dxfId="94" priority="226">
+      <formula>ABS(B14)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="227">
+      <formula>AND(ABS(B14)&gt;150, ABS(B14)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="228">
+      <formula>AND(ABS(B14)&gt;50, ABS(B14)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="230">
+      <formula>AND(ABS(B14)&gt;100, ABS(B14)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="231">
+      <formula>AND(ABS(B14)&gt;0, ABS(B14)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="colorScale" priority="223">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="colorScale" priority="224">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="colorScale" priority="225">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="expression" dxfId="89" priority="220">
+      <formula>AND(ABS(B28)&gt;200, ABS(B28)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="expression" dxfId="88" priority="217">
+      <formula>ABS(B28)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="218">
+      <formula>AND(ABS(B28)&gt;150, ABS(B28)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="219">
+      <formula>AND(ABS(B28)&gt;50, ABS(B28)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="221">
+      <formula>AND(ABS(B28)&gt;100, ABS(B28)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="222">
+      <formula>AND(ABS(B28)&gt;0, ABS(B28)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:C35">
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:C35">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:C35">
+    <cfRule type="colorScale" priority="207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:C35">
+    <cfRule type="expression" dxfId="77" priority="202">
+      <formula>AND(ABS(B35)&gt;200, ABS(B35)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:C35">
+    <cfRule type="expression" dxfId="76" priority="199">
+      <formula>ABS(B35)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="200">
+      <formula>AND(ABS(B35)&gt;150, ABS(B35)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="201">
+      <formula>AND(ABS(B35)&gt;50, ABS(B35)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="203">
+      <formula>AND(ABS(B35)&gt;100, ABS(B35)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="204">
+      <formula>AND(ABS(B35)&gt;0, ABS(B35)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:F35">
+    <cfRule type="expression" dxfId="65" priority="136">
+      <formula>AND(ABS(D35)&gt;200, ABS(D35)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:F35">
+    <cfRule type="expression" dxfId="64" priority="133">
+      <formula>ABS(D35)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="134">
+      <formula>AND(ABS(D35)&gt;150, ABS(D35)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="135">
+      <formula>AND(ABS(D35)&gt;50, ABS(D35)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="137">
+      <formula>AND(ABS(D35)&gt;100, ABS(D35)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="138">
+      <formula>AND(ABS(D35)&gt;0, ABS(D35)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:F28">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:F28">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:F28">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:F28">
+    <cfRule type="expression" dxfId="59" priority="145">
+      <formula>AND(ABS(D28)&gt;200, ABS(D28)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:F28">
+    <cfRule type="expression" dxfId="58" priority="142">
+      <formula>ABS(D28)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="143">
+      <formula>AND(ABS(D28)&gt;150, ABS(D28)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="144">
+      <formula>AND(ABS(D28)&gt;50, ABS(D28)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="146">
+      <formula>AND(ABS(D28)&gt;100, ABS(D28)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="147">
+      <formula>AND(ABS(D28)&gt;0, ABS(D28)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:F35">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:F35">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:U4">
-    <cfRule type="colorScale" priority="139">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:U5">
-    <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:U7">
-    <cfRule type="colorScale" priority="136">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:U8">
-    <cfRule type="colorScale" priority="135">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:R11">
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:R16">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:R12">
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:R13">
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:R14">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:R16">
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:F11">
-    <cfRule type="colorScale" priority="123">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:F16 B14:U14">
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:F12">
-    <cfRule type="colorScale" priority="125">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:F13">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:U14">
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:F16">
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:R11">
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:R12">
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:R13">
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:U14">
-    <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:R16">
-    <cfRule type="colorScale" priority="133">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:R16">
-    <cfRule type="colorScale" priority="134">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:U11">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:U12">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:U13">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:U14">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:U15">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:U16">
-    <cfRule type="colorScale" priority="111">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F25">
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F30">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F26 D27:F30">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:F27">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F28">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="103">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F30">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F25">
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F26">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:F27">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F28">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F30">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:F30">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F25">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F26">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:F27">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F28">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F29">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:F30">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F32">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F34 B36:F37">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F33 D34:F34 D36:F37">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:F34">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:F37">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F32">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F33">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:F34">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:F37">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:F37">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F32">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F33">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:F34">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:F36">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:F37">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:F35">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:M25">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:M27 I29:M30">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:M26 K27:M27 K29:M30">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:M27">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:M30">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:M25">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:M26">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:M27">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -3222,7 +4795,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:F35">
+  <conditionalFormatting sqref="I29:M30">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -3234,57 +4807,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="I30:M30">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -3296,55 +4819,175 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:F35">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:F35">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18:U18">
+  <conditionalFormatting sqref="I25:M25">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:M26">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:M27">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:M29">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:M30">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:M32">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:M34 I36:M37">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:M33 K34:M34 K36:M37">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:M34">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:M37">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:M32">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:M33">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:M34">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:M37">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:M37">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -3356,263 +4999,217 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S19:U19">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:F39">
+  <conditionalFormatting sqref="I32:M32">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:F39">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:F39">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:M33">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:M34">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:M36">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:M37">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:J28">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:J28">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:J28">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:F39">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:F39">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:F40">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:F40">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:F40">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:J28">
+    <cfRule type="expression" dxfId="23" priority="31">
+      <formula>AND(ABS(I28)&gt;200, ABS(I28)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:J28">
+    <cfRule type="expression" dxfId="22" priority="28">
+      <formula>ABS(I28)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="29">
+      <formula>AND(ABS(I28)&gt;150, ABS(I28)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="30">
+      <formula>AND(ABS(I28)&gt;50, ABS(I28)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="32">
+      <formula>AND(ABS(I28)&gt;100, ABS(I28)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="33">
+      <formula>AND(ABS(I28)&gt;0, ABS(I28)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:J35">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:J35">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:J35">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:F40">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:F40">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:F40">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40:F40">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:Q18">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:J35">
+    <cfRule type="expression" dxfId="17" priority="22">
+      <formula>AND(ABS(I35)&gt;200, ABS(I35)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:J35">
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>ABS(I35)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>AND(ABS(I35)&gt;150, ABS(I35)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="21">
+      <formula>AND(ABS(I35)&gt;50, ABS(I35)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="23">
+      <formula>AND(ABS(I35)&gt;100, ABS(I35)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="24">
+      <formula>AND(ABS(I35)&gt;0, ABS(I35)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:M35">
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>AND(ABS(K35)&gt;200, ABS(K35)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:M35">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>ABS(K35)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>AND(ABS(K35)&gt;150, ABS(K35)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>AND(ABS(K35)&gt;50, ABS(K35)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>AND(ABS(K35)&gt;100, ABS(K35)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>AND(ABS(K35)&gt;0, ABS(K35)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:M28">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:M28">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3624,19 +5221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:Q18">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:Q18">
+  <conditionalFormatting sqref="K28:M28">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3648,200 +5233,54 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:Q19">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:Q19">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:Q19">
+  <conditionalFormatting sqref="K28:M28">
+    <cfRule type="expression" dxfId="5" priority="13">
+      <formula>AND(ABS(K28)&gt;200, ABS(K28)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:M28">
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>ABS(K28)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>AND(ABS(K28)&gt;150, ABS(K28)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="12">
+      <formula>AND(ABS(K28)&gt;50, ABS(K28)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>AND(ABS(K28)&gt;100, ABS(K28)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>AND(ABS(K28)&gt;0, ABS(K28)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:M35">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:M35">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:M35">
     <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R18">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3872,288 +5311,288 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>0.83320000000000005</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>0.64856000000000003</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>0.79796325136134605</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>0.79206668343448405</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>0.77735784786949302</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>213</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>334</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>218.06105857040399</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>240.31073572090099</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>210.81064239682601</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>172</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>276</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>179.46261588064499</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>201.15211127881901</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>177.301512146297</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>-22</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>195</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>168.129557764444</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>196.14325678709</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>144.54147661032599</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10">
         <v>3611</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>5639</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>2919.4209235490098</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>2499.2887534225101</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>3349.7875304631898</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>0.90874999999999995</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>1.4592499999999999</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>0.94941990925841602</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>1.06416491423756</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>0.93798691581131799</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>0.39773999999999998</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>0.58391000000000004</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>0.759802908095776</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>0.77998696481068197</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>0.75191704213305399</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>585</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>427</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>245.35570412401401</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>234.66857267166299</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>231.70671387372499</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>505</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>356</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>203.05927566701399</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>184.60753307705801</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>191.19327674136699</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>-375</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>-309</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>41.005959171095299</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>43.733302989162503</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>23.898894777931101</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="A18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="10">
         <v>12043</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>6128</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>2323.3347035233901</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>2388.4133075381001</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>1929.6335592550899</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>2.29637</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>1.61852</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>0.92322029172110898</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>0.83932841768233402</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>0.86927086757531102</v>
       </c>
     </row>

--- a/Analysis3-Heatmap.xlsx
+++ b/Analysis3-Heatmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSDS\DS Project\TK analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E714686-FCFF-49DF-A6AD-F3C1E1AA3479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B03BEFE-94D5-4693-A730-E4944BAF3256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28935" yWindow="-165" windowWidth="29070" windowHeight="15870" xr2:uid="{EF2B5DF0-820C-4264-A359-51F45012B519}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="130">
+  <dxfs count="228">
     <dxf>
       <fill>
         <patternFill>
@@ -463,6 +463,300 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1254,6 +1548,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1296,6 +1597,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1303,6 +1632,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -1317,6 +1667,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
@@ -1324,6 +1681,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1331,6 +1695,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1338,6 +1730,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1345,6 +1758,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -1360,6 +1794,258 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1682,8 +2368,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3348,7 +4034,7 @@
     <mergeCell ref="I31:M31"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:R3">
-    <cfRule type="colorScale" priority="424">
+    <cfRule type="colorScale" priority="520">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3360,7 +4046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:R5 G7:R8">
-    <cfRule type="colorScale" priority="426">
+    <cfRule type="colorScale" priority="522">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3372,7 +4058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:R4">
-    <cfRule type="colorScale" priority="425">
+    <cfRule type="colorScale" priority="521">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3384,7 +4070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:R5">
-    <cfRule type="colorScale" priority="423">
+    <cfRule type="colorScale" priority="519">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3396,7 +4082,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:R8">
-    <cfRule type="colorScale" priority="421">
+    <cfRule type="colorScale" priority="517">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3408,18 +4094,690 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
+    <cfRule type="colorScale" priority="536">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F5 B7:F8">
+    <cfRule type="colorScale" priority="537">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F4">
+    <cfRule type="colorScale" priority="538">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:F5">
+    <cfRule type="colorScale" priority="539">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:F8">
+    <cfRule type="colorScale" priority="541">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:R3">
+    <cfRule type="colorScale" priority="542">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:R4">
+    <cfRule type="colorScale" priority="544">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:R5">
+    <cfRule type="colorScale" priority="546">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:R8">
+    <cfRule type="colorScale" priority="550">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:R8">
+    <cfRule type="colorScale" priority="568">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:U3">
+    <cfRule type="colorScale" priority="492">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:U4">
+    <cfRule type="colorScale" priority="491">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:U5">
+    <cfRule type="colorScale" priority="490">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:U7">
+    <cfRule type="colorScale" priority="488">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:U8">
+    <cfRule type="colorScale" priority="487">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:R11">
+    <cfRule type="colorScale" priority="472">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:R13 G15:R16">
+    <cfRule type="colorScale" priority="474">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:R12">
+    <cfRule type="colorScale" priority="473">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:R13">
+    <cfRule type="colorScale" priority="471">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:R16">
+    <cfRule type="colorScale" priority="469">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F11">
+    <cfRule type="colorScale" priority="475">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F13 B15:F16">
+    <cfRule type="colorScale" priority="476">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:F12">
+    <cfRule type="colorScale" priority="477">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:F13">
+    <cfRule type="colorScale" priority="478">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:F16">
+    <cfRule type="colorScale" priority="480">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:R11">
+    <cfRule type="colorScale" priority="481">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:R12">
+    <cfRule type="colorScale" priority="482">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:R13">
+    <cfRule type="colorScale" priority="483">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:R16">
+    <cfRule type="colorScale" priority="485">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:R16">
+    <cfRule type="colorScale" priority="486">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:U11">
+    <cfRule type="colorScale" priority="468">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:U12">
+    <cfRule type="colorScale" priority="467">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:U13">
+    <cfRule type="colorScale" priority="466">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:U15">
+    <cfRule type="colorScale" priority="464">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:U16">
+    <cfRule type="colorScale" priority="463">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F25">
+    <cfRule type="colorScale" priority="451">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F27 B29:F30">
+    <cfRule type="colorScale" priority="452">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26 D27:F27 D29:F30">
+    <cfRule type="colorScale" priority="453">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:F27">
+    <cfRule type="colorScale" priority="454">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:F30">
+    <cfRule type="colorScale" priority="456">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F25">
+    <cfRule type="colorScale" priority="457">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26">
+    <cfRule type="colorScale" priority="458">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:F27">
+    <cfRule type="colorScale" priority="459">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:F30">
+    <cfRule type="colorScale" priority="461">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:F30">
+    <cfRule type="colorScale" priority="462">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F25">
+    <cfRule type="colorScale" priority="450">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26">
+    <cfRule type="colorScale" priority="449">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:F27">
+    <cfRule type="colorScale" priority="448">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:F29">
+    <cfRule type="colorScale" priority="446">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:F30">
+    <cfRule type="colorScale" priority="445">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F32">
+    <cfRule type="colorScale" priority="433">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F34 B36:F37">
+    <cfRule type="colorScale" priority="434">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:F33 D34:F34 D36:F37">
+    <cfRule type="colorScale" priority="435">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:F34">
+    <cfRule type="colorScale" priority="436">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:F37">
+    <cfRule type="colorScale" priority="438">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F32">
+    <cfRule type="colorScale" priority="439">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:F33">
     <cfRule type="colorScale" priority="440">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F5 B7:F8">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:F34">
     <cfRule type="colorScale" priority="441">
       <colorScale>
         <cfvo type="min"/>
@@ -3431,19 +4789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F4">
-    <cfRule type="colorScale" priority="442">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:F5">
+  <conditionalFormatting sqref="B36:F37">
     <cfRule type="colorScale" priority="443">
       <colorScale>
         <cfvo type="min"/>
@@ -3455,571 +4801,149 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:F8">
-    <cfRule type="colorScale" priority="445">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:R3">
-    <cfRule type="colorScale" priority="446">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:R4">
-    <cfRule type="colorScale" priority="448">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:R5">
-    <cfRule type="colorScale" priority="450">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:R8">
-    <cfRule type="colorScale" priority="454">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:R8">
-    <cfRule type="colorScale" priority="472">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:U3">
-    <cfRule type="colorScale" priority="396">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:U4">
-    <cfRule type="colorScale" priority="395">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:U5">
-    <cfRule type="colorScale" priority="394">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:U7">
-    <cfRule type="colorScale" priority="392">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:U8">
-    <cfRule type="colorScale" priority="391">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:R11">
-    <cfRule type="colorScale" priority="376">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:R13 G15:R16">
-    <cfRule type="colorScale" priority="378">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:R12">
-    <cfRule type="colorScale" priority="377">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:R13">
-    <cfRule type="colorScale" priority="375">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:R16">
-    <cfRule type="colorScale" priority="373">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:F11">
-    <cfRule type="colorScale" priority="379">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:F13 B15:F16">
-    <cfRule type="colorScale" priority="380">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:F12">
-    <cfRule type="colorScale" priority="381">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:F13">
-    <cfRule type="colorScale" priority="382">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:F16">
-    <cfRule type="colorScale" priority="384">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:R11">
-    <cfRule type="colorScale" priority="385">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:R12">
-    <cfRule type="colorScale" priority="386">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:R13">
-    <cfRule type="colorScale" priority="387">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:R16">
-    <cfRule type="colorScale" priority="389">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:R16">
-    <cfRule type="colorScale" priority="390">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:U11">
+  <conditionalFormatting sqref="B37:F37">
+    <cfRule type="colorScale" priority="444">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F32">
+    <cfRule type="colorScale" priority="432">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:F33">
+    <cfRule type="colorScale" priority="431">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:F34">
+    <cfRule type="colorScale" priority="430">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:F36">
+    <cfRule type="colorScale" priority="428">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:F37">
+    <cfRule type="colorScale" priority="427">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18:U18">
+    <cfRule type="colorScale" priority="403">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
+    <cfRule type="colorScale" priority="370">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
+    <cfRule type="colorScale" priority="371">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
     <cfRule type="colorScale" priority="372">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:U12">
-    <cfRule type="colorScale" priority="371">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:U13">
-    <cfRule type="colorScale" priority="370">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:U15">
-    <cfRule type="colorScale" priority="368">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:U16">
-    <cfRule type="colorScale" priority="367">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F25">
-    <cfRule type="colorScale" priority="355">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F27 B29:F30">
-    <cfRule type="colorScale" priority="356">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F26 D27:F27 D29:F30">
-    <cfRule type="colorScale" priority="357">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:F27">
-    <cfRule type="colorScale" priority="358">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F30">
-    <cfRule type="colorScale" priority="360">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F25">
-    <cfRule type="colorScale" priority="361">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F26">
-    <cfRule type="colorScale" priority="362">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:F27">
-    <cfRule type="colorScale" priority="363">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F30">
-    <cfRule type="colorScale" priority="365">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:F30">
-    <cfRule type="colorScale" priority="366">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F25">
-    <cfRule type="colorScale" priority="354">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F26">
-    <cfRule type="colorScale" priority="353">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:F27">
-    <cfRule type="colorScale" priority="352">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F29">
-    <cfRule type="colorScale" priority="350">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:F30">
-    <cfRule type="colorScale" priority="349">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F32">
-    <cfRule type="colorScale" priority="337">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F34 B36:F37">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
+    <cfRule type="expression" dxfId="227" priority="367">
+      <formula>AND(ABS(B18)&gt;200, ABS(B18)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:U18">
+    <cfRule type="expression" dxfId="226" priority="352">
+      <formula>ABS(B18)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="359">
+      <formula>AND(ABS(B18)&gt;150, ABS(B18)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="360">
+      <formula>AND(ABS(B18)&gt;50, ABS(B18)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="368">
+      <formula>AND(ABS(B18)&gt;100, ABS(B18)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="223" priority="369">
+      <formula>AND(ABS(B18)&gt;0, ABS(B18)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6">
     <cfRule type="colorScale" priority="338">
       <colorScale>
         <cfvo type="min"/>
@@ -4031,7 +4955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F33 D34:F34 D36:F37">
+  <conditionalFormatting sqref="V6">
     <cfRule type="colorScale" priority="339">
       <colorScale>
         <cfvo type="min"/>
@@ -4043,7 +4967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:F34">
+  <conditionalFormatting sqref="V6">
     <cfRule type="colorScale" priority="340">
       <colorScale>
         <cfvo type="min"/>
@@ -4055,210 +4979,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:F37">
-    <cfRule type="colorScale" priority="342">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F32">
-    <cfRule type="colorScale" priority="343">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F33">
-    <cfRule type="colorScale" priority="344">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:F34">
-    <cfRule type="colorScale" priority="345">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:F37">
-    <cfRule type="colorScale" priority="347">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:F37">
-    <cfRule type="colorScale" priority="348">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F32">
-    <cfRule type="colorScale" priority="336">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F33">
-    <cfRule type="colorScale" priority="335">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:F34">
-    <cfRule type="colorScale" priority="334">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:F36">
-    <cfRule type="colorScale" priority="332">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:F37">
-    <cfRule type="colorScale" priority="331">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18:U18">
-    <cfRule type="colorScale" priority="307">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="colorScale" priority="274">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="colorScale" priority="275">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="colorScale" priority="276">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="expression" dxfId="113" priority="271">
-      <formula>AND(ABS(B18)&gt;200, ABS(B18)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:U18">
-    <cfRule type="expression" dxfId="112" priority="256">
-      <formula>ABS(B18)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="263">
-      <formula>AND(ABS(B18)&gt;150, ABS(B18)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="264">
-      <formula>AND(ABS(B18)&gt;50, ABS(B18)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="272">
-      <formula>AND(ABS(B18)&gt;100, ABS(B18)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="273">
-      <formula>AND(ABS(B18)&gt;0, ABS(B18)&lt;=50)</formula>
+  <conditionalFormatting sqref="V6">
+    <cfRule type="expression" dxfId="216" priority="335">
+      <formula>AND(ABS(V6)&gt;200, ABS(V6)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6">
+    <cfRule type="expression" dxfId="215" priority="332">
+      <formula>ABS(V6)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="333">
+      <formula>AND(ABS(V6)&gt;150, ABS(V6)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="334">
+      <formula>AND(ABS(V6)&gt;50, ABS(V6)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="336">
+      <formula>AND(ABS(V6)&gt;100, ABS(V6)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="337">
+      <formula>AND(ABS(V6)&gt;0, ABS(V6)&lt;=50)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:U19">
-    <cfRule type="colorScale" priority="255">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4270,7 +5014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="colorScale" priority="252">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4282,7 +5026,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="colorScale" priority="253">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4294,7 +5038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="colorScale" priority="254">
+    <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4306,99 +5050,99 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="expression" dxfId="107" priority="249">
+    <cfRule type="expression" dxfId="41" priority="90">
       <formula>AND(ABS(B19)&gt;200, ABS(B19)&lt;=300)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:U19">
-    <cfRule type="expression" dxfId="106" priority="246">
+    <cfRule type="expression" dxfId="40" priority="87">
       <formula>ABS(B19)&gt;300</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="247">
+    <cfRule type="expression" dxfId="39" priority="88">
       <formula>AND(ABS(B19)&gt;150, ABS(B19)&lt;=200)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="248">
+    <cfRule type="expression" dxfId="38" priority="89">
       <formula>AND(ABS(B19)&gt;50, ABS(B19)&lt;=100)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="250">
+    <cfRule type="expression" dxfId="37" priority="91">
       <formula>AND(ABS(B19)&gt;100, ABS(B19)&lt;=150)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="251">
+    <cfRule type="expression" dxfId="36" priority="92">
       <formula>AND(ABS(B19)&gt;0, ABS(B19)&lt;=50)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:U6">
-    <cfRule type="colorScale" priority="245">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Q6 V6">
-    <cfRule type="colorScale" priority="242">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Q6 V6">
-    <cfRule type="colorScale" priority="243">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Q6 V6">
-    <cfRule type="colorScale" priority="244">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Q6 V6">
-    <cfRule type="expression" dxfId="101" priority="239">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6">
+    <cfRule type="expression" dxfId="35" priority="80">
       <formula>AND(ABS(B6)&gt;200, ABS(B6)&lt;=300)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:V6">
-    <cfRule type="expression" dxfId="100" priority="236">
+  <conditionalFormatting sqref="B6:U6">
+    <cfRule type="expression" dxfId="34" priority="77">
       <formula>ABS(B6)&gt;300</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="237">
+    <cfRule type="expression" dxfId="33" priority="78">
       <formula>AND(ABS(B6)&gt;150, ABS(B6)&lt;=200)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="238">
+    <cfRule type="expression" dxfId="32" priority="79">
       <formula>AND(ABS(B6)&gt;50, ABS(B6)&lt;=100)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="240">
+    <cfRule type="expression" dxfId="31" priority="81">
       <formula>AND(ABS(B6)&gt;100, ABS(B6)&lt;=150)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="241">
+    <cfRule type="expression" dxfId="30" priority="82">
       <formula>AND(ABS(B6)&gt;0, ABS(B6)&lt;=50)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:U14">
-    <cfRule type="colorScale" priority="235">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4410,7 +5154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:Q14 V14">
-    <cfRule type="colorScale" priority="232">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4422,7 +5166,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:Q14 V14">
-    <cfRule type="colorScale" priority="233">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4434,7 +5178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:Q14 V14">
-    <cfRule type="colorScale" priority="234">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4446,261 +5190,145 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:Q14 V14">
-    <cfRule type="expression" dxfId="95" priority="229">
+    <cfRule type="expression" dxfId="29" priority="70">
       <formula>AND(ABS(B14)&gt;200, ABS(B14)&lt;=300)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:V14">
-    <cfRule type="expression" dxfId="94" priority="226">
+    <cfRule type="expression" dxfId="28" priority="67">
       <formula>ABS(B14)&gt;300</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="227">
+    <cfRule type="expression" dxfId="27" priority="68">
       <formula>AND(ABS(B14)&gt;150, ABS(B14)&lt;=200)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="228">
+    <cfRule type="expression" dxfId="26" priority="69">
       <formula>AND(ABS(B14)&gt;50, ABS(B14)&lt;=100)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="230">
+    <cfRule type="expression" dxfId="25" priority="71">
       <formula>AND(ABS(B14)&gt;100, ABS(B14)&lt;=150)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="231">
+    <cfRule type="expression" dxfId="24" priority="72">
       <formula>AND(ABS(B14)&gt;0, ABS(B14)&lt;=50)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C28">
-    <cfRule type="colorScale" priority="223">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C28">
-    <cfRule type="colorScale" priority="224">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C28">
-    <cfRule type="colorScale" priority="225">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C28">
-    <cfRule type="expression" dxfId="89" priority="220">
+  <conditionalFormatting sqref="B28:F28">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F28">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F28">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F28">
+    <cfRule type="expression" dxfId="23" priority="61">
       <formula>AND(ABS(B28)&gt;200, ABS(B28)&lt;=300)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C28">
-    <cfRule type="expression" dxfId="88" priority="217">
+  <conditionalFormatting sqref="B28:F28">
+    <cfRule type="expression" dxfId="22" priority="58">
       <formula>ABS(B28)&gt;300</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="218">
+    <cfRule type="expression" dxfId="21" priority="59">
       <formula>AND(ABS(B28)&gt;150, ABS(B28)&lt;=200)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="219">
+    <cfRule type="expression" dxfId="20" priority="60">
       <formula>AND(ABS(B28)&gt;50, ABS(B28)&lt;=100)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="221">
+    <cfRule type="expression" dxfId="19" priority="62">
       <formula>AND(ABS(B28)&gt;100, ABS(B28)&lt;=150)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="222">
+    <cfRule type="expression" dxfId="18" priority="63">
       <formula>AND(ABS(B28)&gt;0, ABS(B28)&lt;=50)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:C35">
-    <cfRule type="colorScale" priority="205">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:C35">
-    <cfRule type="colorScale" priority="206">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:C35">
-    <cfRule type="colorScale" priority="207">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:C35">
-    <cfRule type="expression" dxfId="77" priority="202">
+  <conditionalFormatting sqref="B35:F35">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:F35">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:F35">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:F35">
+    <cfRule type="expression" dxfId="17" priority="52">
       <formula>AND(ABS(B35)&gt;200, ABS(B35)&lt;=300)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:C35">
-    <cfRule type="expression" dxfId="76" priority="199">
+  <conditionalFormatting sqref="B35:F35">
+    <cfRule type="expression" dxfId="16" priority="49">
       <formula>ABS(B35)&gt;300</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="200">
+    <cfRule type="expression" dxfId="15" priority="50">
       <formula>AND(ABS(B35)&gt;150, ABS(B35)&lt;=200)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="201">
+    <cfRule type="expression" dxfId="14" priority="51">
       <formula>AND(ABS(B35)&gt;50, ABS(B35)&lt;=100)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="203">
+    <cfRule type="expression" dxfId="13" priority="53">
       <formula>AND(ABS(B35)&gt;100, ABS(B35)&lt;=150)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="204">
+    <cfRule type="expression" dxfId="12" priority="54">
       <formula>AND(ABS(B35)&gt;0, ABS(B35)&lt;=50)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:F35">
-    <cfRule type="expression" dxfId="65" priority="136">
-      <formula>AND(ABS(D35)&gt;200, ABS(D35)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:F35">
-    <cfRule type="expression" dxfId="64" priority="133">
-      <formula>ABS(D35)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="134">
-      <formula>AND(ABS(D35)&gt;150, ABS(D35)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="135">
-      <formula>AND(ABS(D35)&gt;50, ABS(D35)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="137">
-      <formula>AND(ABS(D35)&gt;100, ABS(D35)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="138">
-      <formula>AND(ABS(D35)&gt;0, ABS(D35)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:F28">
-    <cfRule type="colorScale" priority="148">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:F28">
-    <cfRule type="colorScale" priority="149">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:F28">
-    <cfRule type="colorScale" priority="150">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:F28">
-    <cfRule type="expression" dxfId="59" priority="145">
-      <formula>AND(ABS(D28)&gt;200, ABS(D28)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:F28">
-    <cfRule type="expression" dxfId="58" priority="142">
-      <formula>ABS(D28)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="143">
-      <formula>AND(ABS(D28)&gt;150, ABS(D28)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="144">
-      <formula>AND(ABS(D28)&gt;50, ABS(D28)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="146">
-      <formula>AND(ABS(D28)&gt;100, ABS(D28)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="147">
-      <formula>AND(ABS(D28)&gt;0, ABS(D28)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:F35">
-    <cfRule type="colorScale" priority="139">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:F35">
-    <cfRule type="colorScale" priority="140">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:F35">
-    <cfRule type="colorScale" priority="141">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I25:M25">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4712,7 +5340,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:M27 I29:M30">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4724,7 +5352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:M26 K27:M27 K29:M30">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4736,7 +5364,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:M27">
-    <cfRule type="colorScale" priority="60">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4748,7 +5376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:M30">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4760,7 +5388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:M25">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4772,7 +5400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:M26">
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4784,7 +5412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:M27">
-    <cfRule type="colorScale" priority="64">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4796,7 +5424,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:M30">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4808,7 +5436,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:M30">
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4820,7 +5448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:M25">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4832,7 +5460,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:M26">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4844,7 +5472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:M27">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4856,7 +5484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:M29">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4868,7 +5496,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:M30">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4880,7 +5508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:M32">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4892,7 +5520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:M34 I36:M37">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4904,7 +5532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:M33 K34:M34 K36:M37">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4916,7 +5544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:M34">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4928,7 +5556,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:M37">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4940,7 +5568,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:M32">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4952,7 +5580,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:M33">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4964,7 +5592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:M34">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4976,7 +5604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:M37">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4988,7 +5616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:M37">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5000,7 +5628,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:M32">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5012,7 +5640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:M33">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5024,7 +5652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:M34">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5036,7 +5664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:M36">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5048,247 +5676,131 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:M37">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:J28">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:J28">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:J28">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:J28">
-    <cfRule type="expression" dxfId="23" priority="31">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:M28">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:M28">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:M28">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:M28">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>AND(ABS(I28)&gt;200, ABS(I28)&lt;=300)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:J28">
-    <cfRule type="expression" dxfId="22" priority="28">
+  <conditionalFormatting sqref="I28:M28">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>ABS(I28)&gt;300</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="29">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>AND(ABS(I28)&gt;150, ABS(I28)&lt;=200)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>AND(ABS(I28)&gt;50, ABS(I28)&lt;=100)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="32">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>AND(ABS(I28)&gt;100, ABS(I28)&lt;=150)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="33">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>AND(ABS(I28)&gt;0, ABS(I28)&lt;=50)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J35">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J35">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J35">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J35">
-    <cfRule type="expression" dxfId="17" priority="22">
+  <conditionalFormatting sqref="I35:M35">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:M35">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:M35">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:M35">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(ABS(I35)&gt;200, ABS(I35)&lt;=300)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J35">
-    <cfRule type="expression" dxfId="16" priority="19">
+  <conditionalFormatting sqref="I35:M35">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>ABS(I35)&gt;300</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(ABS(I35)&gt;150, ABS(I35)&lt;=200)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(ABS(I35)&gt;50, ABS(I35)&lt;=100)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="23">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND(ABS(I35)&gt;100, ABS(I35)&lt;=150)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>AND(ABS(I35)&gt;0, ABS(I35)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35:M35">
-    <cfRule type="expression" dxfId="11" priority="4">
-      <formula>AND(ABS(K35)&gt;200, ABS(K35)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35:M35">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>ABS(K35)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>AND(ABS(K35)&gt;150, ABS(K35)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
-      <formula>AND(ABS(K35)&gt;50, ABS(K35)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>AND(ABS(K35)&gt;100, ABS(K35)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>AND(ABS(K35)&gt;0, ABS(K35)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28:M28">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28:M28">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28:M28">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28:M28">
-    <cfRule type="expression" dxfId="5" priority="13">
-      <formula>AND(ABS(K28)&gt;200, ABS(K28)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28:M28">
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>ABS(K28)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
-      <formula>AND(ABS(K28)&gt;150, ABS(K28)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
-      <formula>AND(ABS(K28)&gt;50, ABS(K28)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND(ABS(K28)&gt;100, ABS(K28)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="15">
-      <formula>AND(ABS(K28)&gt;0, ABS(K28)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35:M35">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35:M35">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35:M35">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analysis3-Heatmap.xlsx
+++ b/Analysis3-Heatmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSDS\DS Project\TK analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B03BEFE-94D5-4693-A730-E4944BAF3256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6A91DB-5039-42D2-BA4A-837FDBF3A3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28935" yWindow="-165" windowWidth="29070" windowHeight="15870" xr2:uid="{EF2B5DF0-820C-4264-A359-51F45012B519}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EF2B5DF0-820C-4264-A359-51F45012B519}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
   <si>
     <t>At Merriwa</t>
   </si>
@@ -148,7 +148,73 @@
     <t xml:space="preserve">Encoder-Decoder </t>
   </si>
   <si>
-    <t>SL Results</t>
+    <t>Random forest (Random search)</t>
+  </si>
+  <si>
+    <t>SVR (Random search)</t>
+  </si>
+  <si>
+    <t>MLR (Random and Grid search</t>
+  </si>
+  <si>
+    <t>Decision Tree (Random search)</t>
+  </si>
+  <si>
+    <t>Lasso (Random search)</t>
+  </si>
+  <si>
+    <t>Ridge (Random search)</t>
+  </si>
+  <si>
+    <t>ElasticNet (Random search)</t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>Method 1 - Regression models</t>
+  </si>
+  <si>
+    <t>Method 2 - Time series</t>
+  </si>
+  <si>
+    <t>ARIMA with external factors</t>
+  </si>
+  <si>
+    <t>SARIMAX</t>
+  </si>
+  <si>
+    <t>Method 3 - Ensemble methods</t>
+  </si>
+  <si>
+    <t>Method 4 - Neural networks</t>
+  </si>
+  <si>
+    <t>ARIMA eith external factors</t>
+  </si>
+  <si>
+    <t>Random forest</t>
+  </si>
+  <si>
+    <t>SVR</t>
+  </si>
+  <si>
+    <t>MLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision Tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ridge </t>
+  </si>
+  <si>
+    <t>ElasticNet</t>
+  </si>
+  <si>
+    <t>SARIMA</t>
   </si>
 </sst>
 </file>
@@ -159,7 +225,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +236,13 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -385,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -426,6 +499,21 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,17 +530,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="228">
+  <dxfs count="144">
     <dxf>
       <fill>
         <patternFill>
@@ -757,6 +885,174 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -799,6 +1095,426 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -841,1183 +1557,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2366,21 +1906,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E05100-03FD-456C-B673-56B7EF01DBA8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:AD72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.77734375" customWidth="1"/>
-    <col min="8" max="12" width="11.77734375" customWidth="1"/>
-    <col min="13" max="18" width="8.88671875" style="2"/>
+    <col min="2" max="12" width="9.77734375" customWidth="1"/>
+    <col min="13" max="18" width="9.77734375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
@@ -2441,8 +1981,35 @@
       <c r="U1" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="V1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2450,7 +2017,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2514,8 +2081,35 @@
       <c r="U3" s="2">
         <v>0.90980000000000005</v>
       </c>
+      <c r="V3">
+        <v>0.88087000000000004</v>
+      </c>
+      <c r="W3">
+        <v>0.88249</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.85182999999999998</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.79551000000000005</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0.88599000000000006</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0.92549000000000003</v>
+      </c>
+      <c r="AB3">
+        <v>0.83567000000000002</v>
+      </c>
+      <c r="AC3">
+        <v>0.80411999999999995</v>
+      </c>
+      <c r="AD3">
+        <v>0.91012000000000004</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2579,8 +2173,35 @@
       <c r="U4" s="2">
         <v>160.72957</v>
       </c>
+      <c r="V4">
+        <v>171.51262</v>
+      </c>
+      <c r="W4">
+        <v>188.35473999999999</v>
+      </c>
+      <c r="X4">
+        <v>172.38102000000001</v>
+      </c>
+      <c r="Y4">
+        <v>250.54906</v>
+      </c>
+      <c r="Z4">
+        <v>170.48398</v>
+      </c>
+      <c r="AA4">
+        <v>134.32982000000001</v>
+      </c>
+      <c r="AB4">
+        <v>192.40432999999999</v>
+      </c>
+      <c r="AC4">
+        <v>363.98</v>
+      </c>
+      <c r="AD4">
+        <v>161.91526999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2644,8 +2265,35 @@
       <c r="U5" s="2">
         <v>131.67061000000001</v>
       </c>
+      <c r="V5">
+        <v>147.21418</v>
+      </c>
+      <c r="W5">
+        <v>158.17454000000001</v>
+      </c>
+      <c r="X5">
+        <v>139.65854999999999</v>
+      </c>
+      <c r="Y5">
+        <v>212.23553000000001</v>
+      </c>
+      <c r="Z5">
+        <v>146.63256000000001</v>
+      </c>
+      <c r="AA5">
+        <v>108.30021000000001</v>
+      </c>
+      <c r="AB5">
+        <v>166.51205999999999</v>
+      </c>
+      <c r="AC5">
+        <v>320.5</v>
+      </c>
+      <c r="AD5">
+        <v>141.05745999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2709,9 +2357,35 @@
       <c r="U6" s="2">
         <v>43.669170000000001</v>
       </c>
-      <c r="V6" s="2"/>
+      <c r="V6" s="2">
+        <v>121.40636000000001</v>
+      </c>
+      <c r="W6">
+        <v>143.04382000000001</v>
+      </c>
+      <c r="X6">
+        <v>103.47265</v>
+      </c>
+      <c r="Y6">
+        <v>163.89363</v>
+      </c>
+      <c r="Z6">
+        <v>138.22121999999999</v>
+      </c>
+      <c r="AA6">
+        <v>81.11918</v>
+      </c>
+      <c r="AB6">
+        <v>152.47541000000001</v>
+      </c>
+      <c r="AC6">
+        <v>207.52</v>
+      </c>
+      <c r="AD6">
+        <v>20.699269999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2775,42 +2449,69 @@
       <c r="U7" s="2">
         <v>1971.03</v>
       </c>
+      <c r="V7">
+        <v>2498.92</v>
+      </c>
+      <c r="W7">
+        <v>2209.52</v>
+      </c>
+      <c r="X7">
+        <v>1813.48</v>
+      </c>
+      <c r="Y7">
+        <v>3517.84</v>
+      </c>
+      <c r="Z7">
+        <v>2238.3000000000002</v>
+      </c>
+      <c r="AA7">
+        <v>1553.7</v>
+      </c>
+      <c r="AB7">
+        <v>2539.71</v>
+      </c>
+      <c r="AC7">
+        <v>4808.3999999999996</v>
+      </c>
+      <c r="AD7">
+        <v>3235.86</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8">
         <v>0.90875279768639095</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>1.28887554345791</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>1.4860622940102901</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>1.66467435614429</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>1.58821914999553</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>1.16942642248332</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>1.19271260533985</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>1.03064030364334</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>1.0651448539736501</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>1.1491499434555501</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>1.1239387096443501</v>
       </c>
       <c r="M8" s="2">
@@ -2840,8 +2541,35 @@
       <c r="U8" s="2">
         <v>0.69657999999999998</v>
       </c>
+      <c r="V8" s="2">
+        <v>0.77881</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.73884000000000005</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>1.1228</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0.77573999999999999</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0.57294999999999996</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0.88090999999999997</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>1.69554</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0.81169999999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2849,7 +2577,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2913,8 +2641,35 @@
       <c r="U11" s="2">
         <v>0.82643999999999995</v>
       </c>
+      <c r="V11">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="W11">
+        <v>0.58492</v>
+      </c>
+      <c r="X11">
+        <v>0.65529999999999999</v>
+      </c>
+      <c r="Y11">
+        <v>0.54335</v>
+      </c>
+      <c r="Z11">
+        <v>0.79935999999999996</v>
+      </c>
+      <c r="AA11">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="AB11">
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="AC11">
+        <v>0.86102000000000001</v>
+      </c>
+      <c r="AD11">
+        <v>0.82633999999999996</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2978,8 +2733,35 @@
       <c r="U12" s="2">
         <v>216.14597000000001</v>
       </c>
+      <c r="V12">
+        <v>236.16172</v>
+      </c>
+      <c r="W12">
+        <v>333.89425</v>
+      </c>
+      <c r="X12">
+        <v>248.72363000000001</v>
+      </c>
+      <c r="Y12">
+        <v>398.50585000000001</v>
+      </c>
+      <c r="Z12">
+        <v>205.8837</v>
+      </c>
+      <c r="AA12">
+        <v>209.02052</v>
+      </c>
+      <c r="AB12">
+        <v>235.66945999999999</v>
+      </c>
+      <c r="AC12">
+        <v>291.11</v>
+      </c>
+      <c r="AD12">
+        <v>235.46321</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3043,8 +2825,35 @@
       <c r="U13" s="2">
         <v>193.26488000000001</v>
       </c>
+      <c r="V13">
+        <v>187.57248000000001</v>
+      </c>
+      <c r="W13">
+        <v>305.18646000000001</v>
+      </c>
+      <c r="X13">
+        <v>195.94677999999999</v>
+      </c>
+      <c r="Y13">
+        <v>325.34257000000002</v>
+      </c>
+      <c r="Z13">
+        <v>170.17706999999999</v>
+      </c>
+      <c r="AA13">
+        <v>170.21517</v>
+      </c>
+      <c r="AB13">
+        <v>188.99198000000001</v>
+      </c>
+      <c r="AC13">
+        <v>244.68</v>
+      </c>
+      <c r="AD13">
+        <v>187.31584000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3109,11 +2918,34 @@
         <v>73.015739999999994</v>
       </c>
       <c r="V14" s="2">
-        <f>V19</f>
-        <v>0</v>
+        <v>5.0127600000000001</v>
+      </c>
+      <c r="W14">
+        <v>-235.74709999999999</v>
+      </c>
+      <c r="X14">
+        <v>67.338260000000005</v>
+      </c>
+      <c r="Y14">
+        <v>49.00179</v>
+      </c>
+      <c r="Z14">
+        <v>-4.3332600000000001</v>
+      </c>
+      <c r="AA14">
+        <v>-36.702370000000002</v>
+      </c>
+      <c r="AB14">
+        <v>-37.538170000000001</v>
+      </c>
+      <c r="AC14">
+        <v>136.29</v>
+      </c>
+      <c r="AD14">
+        <v>89.946370000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3177,8 +3009,35 @@
       <c r="U15" s="2">
         <v>2319.91</v>
       </c>
+      <c r="V15">
+        <v>1673.83</v>
+      </c>
+      <c r="W15">
+        <v>4920.72</v>
+      </c>
+      <c r="X15">
+        <v>2941.34</v>
+      </c>
+      <c r="Y15">
+        <v>4318.9399999999996</v>
+      </c>
+      <c r="Z15">
+        <v>2375.2600000000002</v>
+      </c>
+      <c r="AA15">
+        <v>1819.68</v>
+      </c>
+      <c r="AB15">
+        <v>2419.5300000000002</v>
+      </c>
+      <c r="AC15">
+        <v>5291.34</v>
+      </c>
+      <c r="AD15">
+        <v>3119.44</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3241,6 +3100,33 @@
       </c>
       <c r="U16" s="2">
         <v>0.88275999999999999</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0.85280999999999996</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1.3875500000000001</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0.89088000000000001</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>1.47919</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0.77371999999999996</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0.77417000000000002</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0.85926000000000002</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>1.1175999999999999</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0.86968999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3374,667 +3260,1996 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="H21" t="s">
-        <v>40</v>
+      <c r="A21" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+    <row r="22" spans="1:21" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="34"/>
+      <c r="M22" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="34"/>
     </row>
-    <row r="23" spans="1:21" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="12" t="s">
+    <row r="23" spans="1:21" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="N23" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="O23" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="25" t="s">
+      <c r="P23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="Q23" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M23" s="25" t="s">
+      <c r="R23" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="19"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="43">
         <f>$B$3</f>
         <v>0.83319741802372405</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="43">
         <f>$C$3</f>
         <v>0.71511616084183505</v>
       </c>
-      <c r="D25" s="13">
-        <f>P3</f>
+      <c r="D25" s="43">
+        <f>V3</f>
+        <v>0.88087000000000004</v>
+      </c>
+      <c r="E25" s="43">
+        <f t="shared" ref="E25:J30" si="0">W3</f>
+        <v>0.88249</v>
+      </c>
+      <c r="F25" s="43">
+        <f t="shared" si="0"/>
+        <v>0.85182999999999998</v>
+      </c>
+      <c r="G25" s="43">
+        <f t="shared" si="0"/>
+        <v>0.79551000000000005</v>
+      </c>
+      <c r="H25" s="43">
+        <f t="shared" si="0"/>
+        <v>0.88599000000000006</v>
+      </c>
+      <c r="I25" s="43">
+        <f t="shared" si="0"/>
+        <v>0.92549000000000003</v>
+      </c>
+      <c r="J25" s="43">
+        <f t="shared" si="0"/>
+        <v>0.83567000000000002</v>
+      </c>
+      <c r="K25" s="43">
+        <f>AC3</f>
+        <v>0.80411999999999995</v>
+      </c>
+      <c r="L25" s="43">
+        <f>AD3</f>
+        <v>0.91012000000000004</v>
+      </c>
+      <c r="M25" s="43">
+        <f>D43</f>
         <v>0.79549399019883904</v>
       </c>
-      <c r="E25" s="13">
-        <f>Q3</f>
+      <c r="N25" s="43">
+        <f t="shared" ref="N25:O30" si="1">E43</f>
         <v>0.83404310143979898</v>
       </c>
-      <c r="F25" s="13">
-        <f>R3</f>
+      <c r="O25" s="43">
+        <f t="shared" si="1"/>
         <v>0.811631930572148</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="P25" s="43">
+        <f>K43</f>
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="Q25" s="43">
+        <f t="shared" ref="Q25:R30" si="2">L43</f>
+        <v>0.91481000000000001</v>
+      </c>
+      <c r="R25" s="43">
+        <f t="shared" si="2"/>
+        <v>0.90980000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="44">
+        <f>$B$4</f>
+        <v>212.959093374106</v>
+      </c>
+      <c r="C26" s="44">
+        <f>$C$4</f>
+        <v>318.60121933773701</v>
+      </c>
+      <c r="D26" s="44">
+        <f t="shared" ref="D26:D30" si="3">V4</f>
+        <v>171.51262</v>
+      </c>
+      <c r="E26" s="44">
+        <f t="shared" si="0"/>
+        <v>188.35473999999999</v>
+      </c>
+      <c r="F26" s="44">
+        <f t="shared" si="0"/>
+        <v>172.38102000000001</v>
+      </c>
+      <c r="G26" s="44">
+        <f t="shared" si="0"/>
+        <v>250.54906</v>
+      </c>
+      <c r="H26" s="44">
+        <f t="shared" si="0"/>
+        <v>170.48398</v>
+      </c>
+      <c r="I26" s="44">
+        <f t="shared" si="0"/>
+        <v>134.32982000000001</v>
+      </c>
+      <c r="J26" s="44">
+        <f t="shared" si="0"/>
+        <v>192.40432999999999</v>
+      </c>
+      <c r="K26" s="44">
+        <f>AC4</f>
+        <v>363.98</v>
+      </c>
+      <c r="L26" s="44">
+        <f>AD4</f>
+        <v>161.91526999999999</v>
+      </c>
+      <c r="M26" s="44">
+        <f t="shared" ref="M26:M30" si="4">D44</f>
+        <v>235.35118613417299</v>
+      </c>
+      <c r="N26" s="44">
+        <f t="shared" si="1"/>
+        <v>203.98336248729899</v>
+      </c>
+      <c r="O26" s="44">
+        <f t="shared" si="1"/>
+        <v>206.87060566903401</v>
+      </c>
+      <c r="P26" s="44">
+        <f t="shared" ref="P26:P30" si="5">K44</f>
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="Q26" s="44">
+        <f t="shared" si="2"/>
+        <v>155.02667</v>
+      </c>
+      <c r="R26" s="44">
+        <f t="shared" si="2"/>
+        <v>160.72957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="44">
+        <f>$B$5</f>
+        <v>171.77557861519901</v>
+      </c>
+      <c r="C27" s="44">
+        <f>$C$5</f>
+        <v>243.62768709391699</v>
+      </c>
+      <c r="D27" s="44">
+        <f t="shared" si="3"/>
+        <v>147.21418</v>
+      </c>
+      <c r="E27" s="44">
+        <f t="shared" si="0"/>
+        <v>158.17454000000001</v>
+      </c>
+      <c r="F27" s="44">
+        <f t="shared" si="0"/>
+        <v>139.65854999999999</v>
+      </c>
+      <c r="G27" s="44">
+        <f t="shared" si="0"/>
+        <v>212.23553000000001</v>
+      </c>
+      <c r="H27" s="44">
+        <f t="shared" si="0"/>
+        <v>146.63256000000001</v>
+      </c>
+      <c r="I27" s="44">
+        <f t="shared" si="0"/>
+        <v>108.30021000000001</v>
+      </c>
+      <c r="J27" s="44">
+        <f t="shared" si="0"/>
+        <v>166.51205999999999</v>
+      </c>
+      <c r="K27" s="44">
+        <f>AC5</f>
+        <v>320.5</v>
+      </c>
+      <c r="L27" s="44">
+        <f>AD5</f>
+        <v>141.05745999999999</v>
+      </c>
+      <c r="M27" s="44">
+        <f t="shared" si="4"/>
+        <v>206.00623185761401</v>
+      </c>
+      <c r="N27" s="44">
+        <f t="shared" si="1"/>
+        <v>169.351818070794</v>
+      </c>
+      <c r="O27" s="44">
+        <f t="shared" si="1"/>
+        <v>177.97778245741</v>
+      </c>
+      <c r="P27" s="44">
+        <f t="shared" si="5"/>
+        <v>165.06471999999999</v>
+      </c>
+      <c r="Q27" s="44">
+        <f t="shared" si="2"/>
+        <v>126.46784</v>
+      </c>
+      <c r="R27" s="44">
+        <f t="shared" si="2"/>
+        <v>131.67061000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="44">
+        <f>$B$6</f>
+        <v>-21.589624677775099</v>
+      </c>
+      <c r="C28" s="44">
+        <f>$C$6</f>
+        <v>114.603179488891</v>
+      </c>
+      <c r="D28" s="44">
+        <f t="shared" si="3"/>
+        <v>121.40636000000001</v>
+      </c>
+      <c r="E28" s="44">
+        <f t="shared" si="0"/>
+        <v>143.04382000000001</v>
+      </c>
+      <c r="F28" s="44">
+        <f t="shared" si="0"/>
+        <v>103.47265</v>
+      </c>
+      <c r="G28" s="44">
+        <f t="shared" si="0"/>
+        <v>163.89363</v>
+      </c>
+      <c r="H28" s="44">
+        <f t="shared" si="0"/>
+        <v>138.22121999999999</v>
+      </c>
+      <c r="I28" s="44">
+        <f t="shared" si="0"/>
+        <v>81.11918</v>
+      </c>
+      <c r="J28" s="44">
+        <f t="shared" si="0"/>
+        <v>152.47541000000001</v>
+      </c>
+      <c r="K28" s="44">
+        <f>AC6</f>
+        <v>207.52</v>
+      </c>
+      <c r="L28" s="44">
+        <f>AD6</f>
+        <v>20.699269999999999</v>
+      </c>
+      <c r="M28" s="44">
+        <f t="shared" si="4"/>
+        <v>193.857194737508</v>
+      </c>
+      <c r="N28" s="44">
+        <f t="shared" si="1"/>
+        <v>154.000218244341</v>
+      </c>
+      <c r="O28" s="44">
+        <f t="shared" si="1"/>
+        <v>159.01040396538099</v>
+      </c>
+      <c r="P28" s="44">
+        <f t="shared" si="5"/>
+        <v>24.861910000000002</v>
+      </c>
+      <c r="Q28" s="44">
+        <f t="shared" si="2"/>
+        <v>19.603090000000002</v>
+      </c>
+      <c r="R28" s="44">
+        <f t="shared" si="2"/>
+        <v>43.669170000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="44">
+        <f>$B$7</f>
+        <v>3611.44141869947</v>
+      </c>
+      <c r="C29" s="44">
+        <f>$C$7</f>
+        <v>5243.57686626132</v>
+      </c>
+      <c r="D29" s="44">
+        <f t="shared" si="3"/>
+        <v>2498.92</v>
+      </c>
+      <c r="E29" s="44">
+        <f t="shared" si="0"/>
+        <v>2209.52</v>
+      </c>
+      <c r="F29" s="44">
+        <f t="shared" si="0"/>
+        <v>1813.48</v>
+      </c>
+      <c r="G29" s="44">
+        <f t="shared" si="0"/>
+        <v>3517.84</v>
+      </c>
+      <c r="H29" s="44">
+        <f t="shared" si="0"/>
+        <v>2238.3000000000002</v>
+      </c>
+      <c r="I29" s="44">
+        <f t="shared" si="0"/>
+        <v>1553.7</v>
+      </c>
+      <c r="J29" s="44">
+        <f t="shared" si="0"/>
+        <v>2539.71</v>
+      </c>
+      <c r="K29" s="44">
+        <f>AC7</f>
+        <v>4808.3999999999996</v>
+      </c>
+      <c r="L29" s="44">
+        <f>AD7</f>
+        <v>3235.86</v>
+      </c>
+      <c r="M29" s="44">
+        <f t="shared" si="4"/>
+        <v>3819.21668252272</v>
+      </c>
+      <c r="N29" s="44">
+        <f t="shared" si="1"/>
+        <v>2525.3496100518801</v>
+      </c>
+      <c r="O29" s="44">
+        <f t="shared" si="1"/>
+        <v>4175.3776112124597</v>
+      </c>
+      <c r="P29" s="44">
+        <f t="shared" si="5"/>
+        <v>2397.92</v>
+      </c>
+      <c r="Q29" s="44">
+        <f t="shared" si="2"/>
+        <v>1957.58</v>
+      </c>
+      <c r="R29" s="44">
+        <f t="shared" si="2"/>
+        <v>1971.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="45">
+        <f>$B$8</f>
+        <v>0.90875279768639095</v>
+      </c>
+      <c r="C30" s="45">
+        <f>$C$8</f>
+        <v>1.28887554345791</v>
+      </c>
+      <c r="D30" s="45">
+        <f t="shared" si="3"/>
+        <v>0.77881</v>
+      </c>
+      <c r="E30" s="45">
+        <f t="shared" si="0"/>
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="F30" s="45">
+        <f t="shared" si="0"/>
+        <v>0.73884000000000005</v>
+      </c>
+      <c r="G30" s="45">
+        <f t="shared" si="0"/>
+        <v>1.1228</v>
+      </c>
+      <c r="H30" s="45">
+        <f t="shared" si="0"/>
+        <v>0.77573999999999999</v>
+      </c>
+      <c r="I30" s="45">
+        <f t="shared" si="0"/>
+        <v>0.57294999999999996</v>
+      </c>
+      <c r="J30" s="45">
+        <f t="shared" si="0"/>
+        <v>0.88090999999999997</v>
+      </c>
+      <c r="K30" s="45">
+        <f>AC8</f>
+        <v>1.69554</v>
+      </c>
+      <c r="L30" s="45">
+        <f>AD8</f>
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="M30" s="45">
+        <f t="shared" si="4"/>
+        <v>1.0898449072368499</v>
+      </c>
+      <c r="N30" s="45">
+        <f t="shared" si="1"/>
+        <v>0.89593025799008397</v>
+      </c>
+      <c r="O30" s="45">
+        <f t="shared" si="1"/>
+        <v>0.94156462192164303</v>
+      </c>
+      <c r="P30" s="45">
+        <f t="shared" si="5"/>
+        <v>0.87324999999999997</v>
+      </c>
+      <c r="Q30" s="45">
+        <f t="shared" si="2"/>
+        <v>0.66905999999999999</v>
+      </c>
+      <c r="R30" s="45">
+        <f t="shared" si="2"/>
+        <v>0.69657999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="40"/>
+      <c r="B31" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="13">
+      <c r="B32" s="43">
+        <f>$B$11</f>
+        <v>0.39773650792426901</v>
+      </c>
+      <c r="C32" s="43">
+        <f>$C$11</f>
+        <v>0.52481268909677503</v>
+      </c>
+      <c r="D32" s="43">
+        <f>V11</f>
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="E32" s="43">
+        <f t="shared" ref="E32:J37" si="6">W11</f>
+        <v>0.58492</v>
+      </c>
+      <c r="F32" s="43">
+        <f t="shared" si="6"/>
+        <v>0.65529999999999999</v>
+      </c>
+      <c r="G32" s="43">
+        <f t="shared" si="6"/>
+        <v>0.54335</v>
+      </c>
+      <c r="H32" s="43">
+        <f t="shared" si="6"/>
+        <v>0.79935999999999996</v>
+      </c>
+      <c r="I32" s="43">
+        <f t="shared" si="6"/>
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="J32" s="43">
+        <f t="shared" si="6"/>
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="K32" s="43">
+        <f>AC11</f>
+        <v>0.86102000000000001</v>
+      </c>
+      <c r="L32" s="43">
+        <f>AD11</f>
+        <v>0.82633999999999996</v>
+      </c>
+      <c r="M32" s="43">
+        <f>D50</f>
+        <v>0.75722065694084995</v>
+      </c>
+      <c r="N32" s="43">
+        <f t="shared" ref="N32:O37" si="7">E50</f>
+        <v>0.79078542244594296</v>
+      </c>
+      <c r="O32" s="43">
+        <f t="shared" si="7"/>
+        <v>0.75221091588370603</v>
+      </c>
+      <c r="P32" s="43">
+        <f>K50</f>
+        <v>0.85718000000000005</v>
+      </c>
+      <c r="Q32" s="43">
+        <f t="shared" ref="Q32:R37" si="8">L50</f>
+        <v>0.82977000000000001</v>
+      </c>
+      <c r="R32" s="43">
+        <f t="shared" si="8"/>
+        <v>0.82643999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="44">
+        <f>$B$12</f>
+        <v>585.35819956461705</v>
+      </c>
+      <c r="C33" s="44">
+        <f>$C$12</f>
+        <v>573.70993018248305</v>
+      </c>
+      <c r="D33" s="44">
+        <f t="shared" ref="D33:D37" si="9">V12</f>
+        <v>236.16172</v>
+      </c>
+      <c r="E33" s="44">
+        <f t="shared" si="6"/>
+        <v>333.89425</v>
+      </c>
+      <c r="F33" s="44">
+        <f t="shared" si="6"/>
+        <v>248.72363000000001</v>
+      </c>
+      <c r="G33" s="44">
+        <f t="shared" si="6"/>
+        <v>398.50585000000001</v>
+      </c>
+      <c r="H33" s="44">
+        <f t="shared" si="6"/>
+        <v>205.8837</v>
+      </c>
+      <c r="I33" s="44">
+        <f t="shared" si="6"/>
+        <v>209.02052</v>
+      </c>
+      <c r="J33" s="44">
+        <f t="shared" si="6"/>
+        <v>235.66945999999999</v>
+      </c>
+      <c r="K33" s="44">
+        <f>AC12</f>
+        <v>291.11</v>
+      </c>
+      <c r="L33" s="44">
+        <f>AD12</f>
+        <v>235.46321</v>
+      </c>
+      <c r="M33" s="44">
+        <f t="shared" ref="M33:M37" si="10">D51</f>
+        <v>243.35929527891099</v>
+      </c>
+      <c r="N33" s="44">
+        <f t="shared" si="7"/>
+        <v>231.974710992735</v>
+      </c>
+      <c r="O33" s="44">
+        <f t="shared" si="7"/>
+        <v>241.31411140247499</v>
+      </c>
+      <c r="P33" s="44">
+        <f t="shared" ref="P33:P37" si="11">K51</f>
+        <v>197.39032</v>
+      </c>
+      <c r="Q33" s="44">
+        <f t="shared" si="8"/>
+        <v>220.63361</v>
+      </c>
+      <c r="R33" s="44">
+        <f t="shared" si="8"/>
+        <v>216.14597000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="44">
+        <f>$B$13</f>
+        <v>505.07920994760201</v>
+      </c>
+      <c r="C34" s="44">
+        <f>$C$13</f>
+        <v>473.14111102327303</v>
+      </c>
+      <c r="D34" s="44">
+        <f t="shared" si="9"/>
+        <v>187.57248000000001</v>
+      </c>
+      <c r="E34" s="44">
+        <f t="shared" si="6"/>
+        <v>305.18646000000001</v>
+      </c>
+      <c r="F34" s="44">
+        <f t="shared" si="6"/>
+        <v>195.94677999999999</v>
+      </c>
+      <c r="G34" s="44">
+        <f t="shared" si="6"/>
+        <v>325.34257000000002</v>
+      </c>
+      <c r="H34" s="44">
+        <f t="shared" si="6"/>
+        <v>170.17706999999999</v>
+      </c>
+      <c r="I34" s="44">
+        <f t="shared" si="6"/>
+        <v>170.21517</v>
+      </c>
+      <c r="J34" s="44">
+        <f t="shared" si="6"/>
+        <v>188.99198000000001</v>
+      </c>
+      <c r="K34" s="44">
+        <f>AC13</f>
+        <v>244.68</v>
+      </c>
+      <c r="L34" s="44">
+        <f>AD13</f>
+        <v>187.31584000000001</v>
+      </c>
+      <c r="M34" s="44">
+        <f t="shared" si="10"/>
+        <v>190.49006449298199</v>
+      </c>
+      <c r="N34" s="44">
+        <f t="shared" si="7"/>
+        <v>181.89402495562001</v>
+      </c>
+      <c r="O34" s="44">
+        <f t="shared" si="7"/>
+        <v>173.88340111534399</v>
+      </c>
+      <c r="P34" s="44">
+        <f t="shared" si="11"/>
+        <v>168.51536999999999</v>
+      </c>
+      <c r="Q34" s="44">
+        <f t="shared" si="8"/>
+        <v>193.72343000000001</v>
+      </c>
+      <c r="R34" s="44">
+        <f t="shared" si="8"/>
+        <v>193.26488000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="44">
+        <f>$B$14</f>
+        <v>-375.16142476241703</v>
+      </c>
+      <c r="C35" s="44">
+        <f>$C$14</f>
+        <v>-428.84949976241597</v>
+      </c>
+      <c r="D35" s="44">
+        <f t="shared" si="9"/>
+        <v>5.0127600000000001</v>
+      </c>
+      <c r="E35" s="44">
+        <f t="shared" si="6"/>
+        <v>-235.74709999999999</v>
+      </c>
+      <c r="F35" s="44">
+        <f t="shared" si="6"/>
+        <v>67.338260000000005</v>
+      </c>
+      <c r="G35" s="44">
+        <f t="shared" si="6"/>
+        <v>49.00179</v>
+      </c>
+      <c r="H35" s="44">
+        <f t="shared" si="6"/>
+        <v>-4.3332600000000001</v>
+      </c>
+      <c r="I35" s="44">
+        <f t="shared" si="6"/>
+        <v>-36.702370000000002</v>
+      </c>
+      <c r="J35" s="44">
+        <f t="shared" si="6"/>
+        <v>-37.538170000000001</v>
+      </c>
+      <c r="K35" s="44">
+        <f>AC14</f>
+        <v>136.29</v>
+      </c>
+      <c r="L35" s="44">
+        <f>AD14</f>
+        <v>89.946370000000002</v>
+      </c>
+      <c r="M35" s="44">
+        <f t="shared" si="10"/>
+        <v>5.8716042618343396</v>
+      </c>
+      <c r="N35" s="44">
+        <f t="shared" si="7"/>
+        <v>31.668914219201302</v>
+      </c>
+      <c r="O35" s="44">
+        <f t="shared" si="7"/>
+        <v>9.2951625537961409</v>
+      </c>
+      <c r="P35" s="44">
+        <f t="shared" si="11"/>
+        <v>52.681609999999999</v>
+      </c>
+      <c r="Q35" s="44">
+        <f t="shared" si="8"/>
+        <v>-5.0073100000000004</v>
+      </c>
+      <c r="R35" s="44">
+        <f t="shared" si="8"/>
+        <v>73.015739999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="44">
+        <f>$B$15</f>
+        <v>12043.293816520199</v>
+      </c>
+      <c r="C36" s="44">
+        <f>$C$15</f>
+        <v>8962.8026559521404</v>
+      </c>
+      <c r="D36" s="44">
+        <f t="shared" si="9"/>
+        <v>1673.83</v>
+      </c>
+      <c r="E36" s="44">
+        <f t="shared" si="6"/>
+        <v>4920.72</v>
+      </c>
+      <c r="F36" s="44">
+        <f t="shared" si="6"/>
+        <v>2941.34</v>
+      </c>
+      <c r="G36" s="44">
+        <f t="shared" si="6"/>
+        <v>4318.9399999999996</v>
+      </c>
+      <c r="H36" s="44">
+        <f t="shared" si="6"/>
+        <v>2375.2600000000002</v>
+      </c>
+      <c r="I36" s="44">
+        <f t="shared" si="6"/>
+        <v>1819.68</v>
+      </c>
+      <c r="J36" s="44">
+        <f t="shared" si="6"/>
+        <v>2419.5300000000002</v>
+      </c>
+      <c r="K36" s="44">
+        <f>AC15</f>
+        <v>5291.34</v>
+      </c>
+      <c r="L36" s="44">
+        <f>AD15</f>
+        <v>3119.44</v>
+      </c>
+      <c r="M36" s="44">
+        <f t="shared" si="10"/>
+        <v>1704.23316722559</v>
+      </c>
+      <c r="N36" s="44">
+        <f t="shared" si="7"/>
+        <v>2230.8070560995802</v>
+      </c>
+      <c r="O36" s="44">
+        <f t="shared" si="7"/>
+        <v>1304.8175854455801</v>
+      </c>
+      <c r="P36" s="44">
+        <f t="shared" si="11"/>
+        <v>2422.2199999999998</v>
+      </c>
+      <c r="Q36" s="44">
+        <f t="shared" si="8"/>
+        <v>2450.39</v>
+      </c>
+      <c r="R36" s="44">
+        <f t="shared" si="8"/>
+        <v>2319.91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="45">
+        <f>$B$16</f>
+        <v>2.2963707223832999</v>
+      </c>
+      <c r="C37" s="45">
+        <f>$C$16</f>
+        <v>2.1511623791097398</v>
+      </c>
+      <c r="D37" s="45">
+        <f t="shared" si="9"/>
+        <v>0.85280999999999996</v>
+      </c>
+      <c r="E37" s="45">
+        <f t="shared" si="6"/>
+        <v>1.3875500000000001</v>
+      </c>
+      <c r="F37" s="45">
+        <f t="shared" si="6"/>
+        <v>0.89088000000000001</v>
+      </c>
+      <c r="G37" s="45">
+        <f t="shared" si="6"/>
+        <v>1.47919</v>
+      </c>
+      <c r="H37" s="45">
+        <f t="shared" si="6"/>
+        <v>0.77371999999999996</v>
+      </c>
+      <c r="I37" s="45">
+        <f t="shared" si="6"/>
+        <v>0.77417000000000002</v>
+      </c>
+      <c r="J37" s="45">
+        <f t="shared" si="6"/>
+        <v>0.85926000000000002</v>
+      </c>
+      <c r="K37" s="45">
+        <f>AC16</f>
+        <v>1.1175999999999999</v>
+      </c>
+      <c r="L37" s="45">
+        <f>AD16</f>
+        <v>0.86968999999999996</v>
+      </c>
+      <c r="M37" s="45">
+        <f t="shared" si="10"/>
+        <v>0.866073673972789</v>
+      </c>
+      <c r="N37" s="45">
+        <f t="shared" si="7"/>
+        <v>0.82699130207295402</v>
+      </c>
+      <c r="O37" s="45">
+        <f t="shared" si="7"/>
+        <v>0.790570555202883</v>
+      </c>
+      <c r="P37" s="45">
+        <f t="shared" si="11"/>
+        <v>0.76971999999999996</v>
+      </c>
+      <c r="Q37" s="45">
+        <f t="shared" si="8"/>
+        <v>0.88485999999999998</v>
+      </c>
+      <c r="R37" s="45">
+        <f t="shared" si="8"/>
+        <v>0.88275999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:18" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="24"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="24"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="13">
         <f>$B$3</f>
         <v>0.83319741802372405</v>
       </c>
-      <c r="J25" s="13">
+      <c r="C43" s="13">
         <f>$C$3</f>
         <v>0.71511616084183505</v>
       </c>
-      <c r="K25" s="13">
-        <f>S3</f>
+      <c r="D43" s="13">
+        <f t="shared" ref="D43:F48" si="12">P3</f>
+        <v>0.79549399019883904</v>
+      </c>
+      <c r="E43" s="13">
+        <f t="shared" si="12"/>
+        <v>0.83404310143979898</v>
+      </c>
+      <c r="F43" s="13">
+        <f t="shared" si="12"/>
+        <v>0.811631930572148</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="13">
+        <f>$B$3</f>
+        <v>0.83319741802372405</v>
+      </c>
+      <c r="J43" s="13">
+        <f>$C$3</f>
+        <v>0.71511616084183505</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="shared" ref="K43:M48" si="13">S3</f>
         <v>0.88009999999999999</v>
       </c>
-      <c r="L25" s="13">
-        <f t="shared" ref="L25:M30" si="0">T3</f>
+      <c r="L43" s="13">
+        <f t="shared" si="13"/>
         <v>0.91481000000000001</v>
       </c>
-      <c r="M25" s="13">
-        <f t="shared" si="0"/>
+      <c r="M43" s="13">
+        <f t="shared" si="13"/>
         <v>0.90980000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B44" s="14">
         <f>$B$4</f>
         <v>212.959093374106</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C44" s="14">
         <f>$C$4</f>
         <v>318.60121933773701</v>
       </c>
-      <c r="D26" s="14">
-        <f>P4</f>
+      <c r="D44" s="14">
+        <f t="shared" si="12"/>
         <v>235.35118613417299</v>
       </c>
-      <c r="E26" s="14">
-        <f>Q4</f>
+      <c r="E44" s="14">
+        <f t="shared" si="12"/>
         <v>203.98336248729899</v>
       </c>
-      <c r="F26" s="14">
-        <f>R4</f>
+      <c r="F44" s="14">
+        <f t="shared" si="12"/>
         <v>206.87060566903401</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I44" s="14">
         <f>$B$4</f>
         <v>212.959093374106</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J44" s="14">
         <f>$C$4</f>
         <v>318.60121933773701</v>
       </c>
-      <c r="K26" s="14">
-        <f t="shared" ref="K26:K30" si="1">S4</f>
+      <c r="K44" s="14">
+        <f t="shared" si="13"/>
         <v>0.88009999999999999</v>
       </c>
-      <c r="L26" s="14">
-        <f t="shared" si="0"/>
+      <c r="L44" s="14">
+        <f t="shared" si="13"/>
         <v>155.02667</v>
       </c>
-      <c r="M26" s="14">
-        <f t="shared" si="0"/>
+      <c r="M44" s="14">
+        <f t="shared" si="13"/>
         <v>160.72957</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B45" s="14">
         <f>$B$5</f>
         <v>171.77557861519901</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C45" s="18">
         <f>$C$5</f>
         <v>243.62768709391699</v>
       </c>
-      <c r="D27" s="14">
-        <f>P5</f>
+      <c r="D45" s="14">
+        <f t="shared" si="12"/>
         <v>206.00623185761401</v>
       </c>
-      <c r="E27" s="14">
-        <f>Q5</f>
+      <c r="E45" s="14">
+        <f t="shared" si="12"/>
         <v>169.351818070794</v>
       </c>
-      <c r="F27" s="14">
-        <f>R5</f>
+      <c r="F45" s="14">
+        <f t="shared" si="12"/>
         <v>177.97778245741</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I45" s="14">
         <f>$B$5</f>
         <v>171.77557861519901</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J45" s="18">
         <f>$C$5</f>
         <v>243.62768709391699</v>
       </c>
-      <c r="K27" s="14">
-        <f t="shared" si="1"/>
+      <c r="K45" s="14">
+        <f t="shared" si="13"/>
         <v>165.06471999999999</v>
       </c>
-      <c r="L27" s="14">
-        <f t="shared" si="0"/>
+      <c r="L45" s="14">
+        <f t="shared" si="13"/>
         <v>126.46784</v>
       </c>
-      <c r="M27" s="14">
-        <f t="shared" si="0"/>
+      <c r="M45" s="14">
+        <f t="shared" si="13"/>
         <v>131.67061000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B46" s="14">
         <f>$B$6</f>
         <v>-21.589624677775099</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C46" s="14">
         <f>$C$6</f>
         <v>114.603179488891</v>
       </c>
-      <c r="D28" s="14">
-        <f>P6</f>
+      <c r="D46" s="14">
+        <f t="shared" si="12"/>
         <v>193.857194737508</v>
       </c>
-      <c r="E28" s="14">
-        <f t="shared" ref="E28:F28" si="2">Q6</f>
+      <c r="E46" s="14">
+        <f t="shared" si="12"/>
         <v>154.000218244341</v>
       </c>
-      <c r="F28" s="14">
-        <f t="shared" si="2"/>
+      <c r="F46" s="14">
+        <f t="shared" si="12"/>
         <v>159.01040396538099</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I46" s="14">
         <f>$B$6</f>
         <v>-21.589624677775099</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J46" s="14">
         <f>$C$6</f>
         <v>114.603179488891</v>
       </c>
-      <c r="K28" s="14">
-        <f t="shared" si="1"/>
+      <c r="K46" s="14">
+        <f t="shared" si="13"/>
         <v>24.861910000000002</v>
       </c>
-      <c r="L28" s="14">
-        <f t="shared" si="0"/>
+      <c r="L46" s="14">
+        <f t="shared" si="13"/>
         <v>19.603090000000002</v>
       </c>
-      <c r="M28" s="14">
-        <f t="shared" si="0"/>
+      <c r="M46" s="14">
+        <f t="shared" si="13"/>
         <v>43.669170000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B47" s="14">
         <f>$B$7</f>
         <v>3611.44141869947</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C47" s="18">
         <f>$C$7</f>
         <v>5243.57686626132</v>
       </c>
-      <c r="D29" s="14">
-        <f>P7</f>
+      <c r="D47" s="14">
+        <f t="shared" si="12"/>
         <v>3819.21668252272</v>
       </c>
-      <c r="E29" s="14">
-        <f>Q7</f>
+      <c r="E47" s="14">
+        <f t="shared" si="12"/>
         <v>2525.3496100518801</v>
       </c>
-      <c r="F29" s="14">
-        <f>R7</f>
+      <c r="F47" s="14">
+        <f t="shared" si="12"/>
         <v>4175.3776112124597</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I47" s="14">
         <f>$B$7</f>
         <v>3611.44141869947</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J47" s="18">
         <f>$C$7</f>
         <v>5243.57686626132</v>
       </c>
-      <c r="K29" s="14">
-        <f t="shared" si="1"/>
+      <c r="K47" s="14">
+        <f t="shared" si="13"/>
         <v>2397.92</v>
       </c>
-      <c r="L29" s="14">
-        <f t="shared" si="0"/>
+      <c r="L47" s="14">
+        <f t="shared" si="13"/>
         <v>1957.58</v>
       </c>
-      <c r="M29" s="14">
-        <f t="shared" si="0"/>
+      <c r="M47" s="14">
+        <f t="shared" si="13"/>
         <v>1971.03</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B48" s="15">
         <f>$B$8</f>
         <v>0.90875279768639095</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C48" s="15">
         <f>$C$8</f>
         <v>1.28887554345791</v>
       </c>
-      <c r="D30" s="16">
-        <f>P8</f>
+      <c r="D48" s="16">
+        <f t="shared" si="12"/>
         <v>1.0898449072368499</v>
       </c>
-      <c r="E30" s="16">
-        <f>Q8</f>
+      <c r="E48" s="16">
+        <f t="shared" si="12"/>
         <v>0.89593025799008397</v>
       </c>
-      <c r="F30" s="16">
-        <f>R8</f>
+      <c r="F48" s="16">
+        <f t="shared" si="12"/>
         <v>0.94156462192164303</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I48" s="15">
         <f>$B$8</f>
         <v>0.90875279768639095</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J48" s="15">
         <f>$C$8</f>
         <v>1.28887554345791</v>
       </c>
-      <c r="K30" s="16">
-        <f t="shared" si="1"/>
+      <c r="K48" s="16">
+        <f t="shared" si="13"/>
         <v>0.87324999999999997</v>
       </c>
-      <c r="L30" s="16">
-        <f t="shared" si="0"/>
+      <c r="L48" s="16">
+        <f t="shared" si="13"/>
         <v>0.66905999999999999</v>
       </c>
-      <c r="M30" s="16">
-        <f t="shared" si="0"/>
+      <c r="M48" s="16">
+        <f t="shared" si="13"/>
         <v>0.69657999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="18" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="18" t="s">
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="19"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="24"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B50" s="13">
         <f>$B$11</f>
         <v>0.39773650792426901</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C50" s="13">
         <f>$C$11</f>
         <v>0.52481268909677503</v>
       </c>
-      <c r="D32" s="13">
-        <f>P11</f>
+      <c r="D50" s="13">
+        <f t="shared" ref="D50:F55" si="14">P11</f>
         <v>0.75722065694084995</v>
       </c>
-      <c r="E32" s="13">
-        <f>Q11</f>
+      <c r="E50" s="13">
+        <f t="shared" si="14"/>
         <v>0.79078542244594296</v>
       </c>
-      <c r="F32" s="13">
-        <f>R11</f>
+      <c r="F50" s="13">
+        <f t="shared" si="14"/>
         <v>0.75221091588370603</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I50" s="13">
         <f>$B$11</f>
         <v>0.39773650792426901</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J50" s="13">
         <f>$C$11</f>
         <v>0.52481268909677503</v>
       </c>
-      <c r="K32" s="13">
-        <f>S11</f>
+      <c r="K50" s="13">
+        <f t="shared" ref="K50:M55" si="15">S11</f>
         <v>0.85718000000000005</v>
       </c>
-      <c r="L32" s="13">
-        <f t="shared" ref="L32:M37" si="3">T11</f>
+      <c r="L50" s="13">
+        <f t="shared" si="15"/>
         <v>0.82977000000000001</v>
       </c>
-      <c r="M32" s="13">
-        <f t="shared" si="3"/>
+      <c r="M50" s="13">
+        <f t="shared" si="15"/>
         <v>0.82643999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B51" s="14">
         <f>$B$12</f>
         <v>585.35819956461705</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C51" s="14">
         <f>$C$12</f>
         <v>573.70993018248305</v>
       </c>
-      <c r="D33" s="14">
-        <f>P12</f>
+      <c r="D51" s="14">
+        <f t="shared" si="14"/>
         <v>243.35929527891099</v>
       </c>
-      <c r="E33" s="14">
-        <f>Q12</f>
+      <c r="E51" s="14">
+        <f t="shared" si="14"/>
         <v>231.974710992735</v>
       </c>
-      <c r="F33" s="14">
-        <f>R12</f>
+      <c r="F51" s="14">
+        <f t="shared" si="14"/>
         <v>241.31411140247499</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I51" s="14">
         <f>$B$12</f>
         <v>585.35819956461705</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J51" s="14">
         <f>$C$12</f>
         <v>573.70993018248305</v>
       </c>
-      <c r="K33" s="14">
-        <f t="shared" ref="K33:K37" si="4">S12</f>
+      <c r="K51" s="14">
+        <f t="shared" si="15"/>
         <v>197.39032</v>
       </c>
-      <c r="L33" s="14">
-        <f t="shared" si="3"/>
+      <c r="L51" s="14">
+        <f t="shared" si="15"/>
         <v>220.63361</v>
       </c>
-      <c r="M33" s="14">
-        <f t="shared" si="3"/>
+      <c r="M51" s="14">
+        <f t="shared" si="15"/>
         <v>216.14597000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B52" s="14">
         <f>$B$13</f>
         <v>505.07920994760201</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C52" s="14">
         <f>$C$13</f>
         <v>473.14111102327303</v>
       </c>
-      <c r="D34" s="14">
-        <f>P13</f>
+      <c r="D52" s="14">
+        <f t="shared" si="14"/>
         <v>190.49006449298199</v>
       </c>
-      <c r="E34" s="14">
-        <f>Q13</f>
+      <c r="E52" s="14">
+        <f t="shared" si="14"/>
         <v>181.89402495562001</v>
       </c>
-      <c r="F34" s="14">
-        <f>R13</f>
+      <c r="F52" s="14">
+        <f t="shared" si="14"/>
         <v>173.88340111534399</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I52" s="14">
         <f>$B$13</f>
         <v>505.07920994760201</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J52" s="14">
         <f>$C$13</f>
         <v>473.14111102327303</v>
       </c>
-      <c r="K34" s="14">
-        <f t="shared" si="4"/>
+      <c r="K52" s="14">
+        <f t="shared" si="15"/>
         <v>168.51536999999999</v>
       </c>
-      <c r="L34" s="14">
-        <f t="shared" si="3"/>
+      <c r="L52" s="14">
+        <f t="shared" si="15"/>
         <v>193.72343000000001</v>
       </c>
-      <c r="M34" s="14">
-        <f t="shared" si="3"/>
+      <c r="M52" s="14">
+        <f t="shared" si="15"/>
         <v>193.26488000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B53" s="14">
         <f>$B$14</f>
         <v>-375.16142476241703</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C53" s="14">
         <f>$C$14</f>
         <v>-428.84949976241597</v>
       </c>
-      <c r="D35" s="14">
-        <f>P14</f>
+      <c r="D53" s="14">
+        <f t="shared" si="14"/>
         <v>5.8716042618343396</v>
       </c>
-      <c r="E35" s="14">
-        <f t="shared" ref="E35:F35" si="5">Q14</f>
+      <c r="E53" s="14">
+        <f t="shared" si="14"/>
         <v>31.668914219201302</v>
       </c>
-      <c r="F35" s="14">
-        <f t="shared" si="5"/>
+      <c r="F53" s="14">
+        <f t="shared" si="14"/>
         <v>9.2951625537961409</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I53" s="14">
         <f>$B$14</f>
         <v>-375.16142476241703</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J53" s="14">
         <f>$C$14</f>
         <v>-428.84949976241597</v>
       </c>
-      <c r="K35" s="14">
-        <f t="shared" si="4"/>
+      <c r="K53" s="14">
+        <f t="shared" si="15"/>
         <v>52.681609999999999</v>
       </c>
-      <c r="L35" s="14">
-        <f t="shared" si="3"/>
+      <c r="L53" s="14">
+        <f t="shared" si="15"/>
         <v>-5.0073100000000004</v>
       </c>
-      <c r="M35" s="14">
-        <f t="shared" si="3"/>
+      <c r="M53" s="14">
+        <f t="shared" si="15"/>
         <v>73.015739999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B54" s="14">
         <f>$B$15</f>
         <v>12043.293816520199</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C54" s="14">
         <f>$C$15</f>
         <v>8962.8026559521404</v>
       </c>
-      <c r="D36" s="14">
-        <f>P15</f>
+      <c r="D54" s="14">
+        <f t="shared" si="14"/>
         <v>1704.23316722559</v>
       </c>
-      <c r="E36" s="14">
-        <f>Q15</f>
+      <c r="E54" s="14">
+        <f t="shared" si="14"/>
         <v>2230.8070560995802</v>
       </c>
-      <c r="F36" s="14">
-        <f>R15</f>
+      <c r="F54" s="14">
+        <f t="shared" si="14"/>
         <v>1304.8175854455801</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I54" s="14">
         <f>$B$15</f>
         <v>12043.293816520199</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J54" s="14">
         <f>$C$15</f>
         <v>8962.8026559521404</v>
       </c>
-      <c r="K36" s="14">
-        <f t="shared" si="4"/>
+      <c r="K54" s="14">
+        <f t="shared" si="15"/>
         <v>2422.2199999999998</v>
       </c>
-      <c r="L36" s="14">
-        <f t="shared" si="3"/>
+      <c r="L54" s="14">
+        <f t="shared" si="15"/>
         <v>2450.39</v>
       </c>
-      <c r="M36" s="14">
-        <f t="shared" si="3"/>
+      <c r="M54" s="14">
+        <f t="shared" si="15"/>
         <v>2319.91</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B55" s="15">
         <f>$B$16</f>
         <v>2.2963707223832999</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C55" s="15">
         <f>$C$16</f>
         <v>2.1511623791097398</v>
       </c>
-      <c r="D37" s="17">
-        <f>P16</f>
+      <c r="D55" s="17">
+        <f t="shared" si="14"/>
         <v>0.866073673972789</v>
       </c>
-      <c r="E37" s="17">
-        <f>Q16</f>
+      <c r="E55" s="17">
+        <f t="shared" si="14"/>
         <v>0.82699130207295402</v>
       </c>
-      <c r="F37" s="17">
-        <f>R16</f>
+      <c r="F55" s="17">
+        <f t="shared" si="14"/>
         <v>0.790570555202883</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I55" s="15">
         <f>$B$16</f>
         <v>2.2963707223832999</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J55" s="15">
         <f>$C$16</f>
         <v>2.1511623791097398</v>
       </c>
-      <c r="K37" s="17">
-        <f t="shared" si="4"/>
+      <c r="K55" s="17">
+        <f t="shared" si="15"/>
         <v>0.76971999999999996</v>
       </c>
-      <c r="L37" s="17">
-        <f t="shared" si="3"/>
+      <c r="L55" s="17">
+        <f t="shared" si="15"/>
         <v>0.88485999999999998</v>
       </c>
-      <c r="M37" s="17">
-        <f t="shared" si="3"/>
+      <c r="M55" s="17">
+        <f t="shared" si="15"/>
         <v>0.88275999999999999</v>
       </c>
+    </row>
+    <row r="58" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L58" s="2"/>
+      <c r="R58"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="L59" s="2"/>
+      <c r="R59"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="13">
+        <f>B43</f>
+        <v>0.83319741802372405</v>
+      </c>
+      <c r="C60" s="13">
+        <f>C43</f>
+        <v>0.71511616084183505</v>
+      </c>
+      <c r="D60" s="13">
+        <f>AC3</f>
+        <v>0.80411999999999995</v>
+      </c>
+      <c r="E60" s="13">
+        <f>AD3</f>
+        <v>0.91012000000000004</v>
+      </c>
+      <c r="F60" s="13"/>
+      <c r="L60" s="2"/>
+      <c r="R60"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="14">
+        <f t="shared" ref="B61:C65" si="16">B44</f>
+        <v>212.959093374106</v>
+      </c>
+      <c r="C61" s="14">
+        <f t="shared" si="16"/>
+        <v>318.60121933773701</v>
+      </c>
+      <c r="D61" s="14">
+        <f t="shared" ref="D61:E65" si="17">AC4</f>
+        <v>363.98</v>
+      </c>
+      <c r="E61" s="14">
+        <f t="shared" si="17"/>
+        <v>161.91526999999999</v>
+      </c>
+      <c r="F61" s="14"/>
+      <c r="L61" s="2"/>
+      <c r="R61"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="14">
+        <f t="shared" si="16"/>
+        <v>171.77557861519901</v>
+      </c>
+      <c r="C62" s="18">
+        <f t="shared" si="16"/>
+        <v>243.62768709391699</v>
+      </c>
+      <c r="D62" s="14">
+        <f t="shared" si="17"/>
+        <v>320.5</v>
+      </c>
+      <c r="E62" s="14">
+        <f t="shared" si="17"/>
+        <v>141.05745999999999</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="L62" s="2"/>
+      <c r="R62"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="14">
+        <f t="shared" si="16"/>
+        <v>-21.589624677775099</v>
+      </c>
+      <c r="C63" s="14">
+        <f t="shared" si="16"/>
+        <v>114.603179488891</v>
+      </c>
+      <c r="D63" s="14">
+        <f t="shared" si="17"/>
+        <v>207.52</v>
+      </c>
+      <c r="E63" s="14">
+        <f t="shared" si="17"/>
+        <v>20.699269999999999</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="L63" s="2"/>
+      <c r="R63"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="14">
+        <f t="shared" si="16"/>
+        <v>3611.44141869947</v>
+      </c>
+      <c r="C64" s="18">
+        <f t="shared" si="16"/>
+        <v>5243.57686626132</v>
+      </c>
+      <c r="D64" s="14">
+        <f t="shared" si="17"/>
+        <v>4808.3999999999996</v>
+      </c>
+      <c r="E64" s="14">
+        <f t="shared" si="17"/>
+        <v>3235.86</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="L64" s="2"/>
+      <c r="R64"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="15">
+        <f t="shared" si="16"/>
+        <v>0.90875279768639095</v>
+      </c>
+      <c r="C65" s="15">
+        <f t="shared" si="16"/>
+        <v>1.28887554345791</v>
+      </c>
+      <c r="D65" s="16">
+        <f t="shared" si="17"/>
+        <v>1.69554</v>
+      </c>
+      <c r="E65" s="16">
+        <f t="shared" si="17"/>
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="L65" s="2"/>
+      <c r="R65"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="29"/>
+      <c r="L66" s="2"/>
+      <c r="R66"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="13">
+        <f>B50</f>
+        <v>0.39773650792426901</v>
+      </c>
+      <c r="C67" s="13">
+        <f>C50</f>
+        <v>0.52481268909677503</v>
+      </c>
+      <c r="D67" s="13">
+        <f>AC11</f>
+        <v>0.86102000000000001</v>
+      </c>
+      <c r="E67" s="13">
+        <f>AD11</f>
+        <v>0.82633999999999996</v>
+      </c>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="14">
+        <f t="shared" ref="B68:C72" si="18">B51</f>
+        <v>585.35819956461705</v>
+      </c>
+      <c r="C68" s="14">
+        <f t="shared" si="18"/>
+        <v>573.70993018248305</v>
+      </c>
+      <c r="D68" s="14">
+        <f t="shared" ref="D68:E72" si="19">AC12</f>
+        <v>291.11</v>
+      </c>
+      <c r="E68" s="14">
+        <f t="shared" si="19"/>
+        <v>235.46321</v>
+      </c>
+      <c r="F68" s="14"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="14">
+        <f t="shared" si="18"/>
+        <v>505.07920994760201</v>
+      </c>
+      <c r="C69" s="14">
+        <f t="shared" si="18"/>
+        <v>473.14111102327303</v>
+      </c>
+      <c r="D69" s="14">
+        <f t="shared" si="19"/>
+        <v>244.68</v>
+      </c>
+      <c r="E69" s="14">
+        <f t="shared" si="19"/>
+        <v>187.31584000000001</v>
+      </c>
+      <c r="F69" s="14"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="14">
+        <f t="shared" si="18"/>
+        <v>-375.16142476241703</v>
+      </c>
+      <c r="C70" s="14">
+        <f t="shared" si="18"/>
+        <v>-428.84949976241597</v>
+      </c>
+      <c r="D70" s="14">
+        <f t="shared" si="19"/>
+        <v>136.29</v>
+      </c>
+      <c r="E70" s="14">
+        <f t="shared" si="19"/>
+        <v>89.946370000000002</v>
+      </c>
+      <c r="F70" s="14"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="14">
+        <f t="shared" si="18"/>
+        <v>12043.293816520199</v>
+      </c>
+      <c r="C71" s="14">
+        <f t="shared" si="18"/>
+        <v>8962.8026559521404</v>
+      </c>
+      <c r="D71" s="14">
+        <f t="shared" si="19"/>
+        <v>5291.34</v>
+      </c>
+      <c r="E71" s="14">
+        <f t="shared" si="19"/>
+        <v>3119.44</v>
+      </c>
+      <c r="F71" s="14"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="15">
+        <f t="shared" si="18"/>
+        <v>2.2963707223832999</v>
+      </c>
+      <c r="C72" s="15">
+        <f t="shared" si="18"/>
+        <v>2.1511623791097398</v>
+      </c>
+      <c r="D72" s="17">
+        <f t="shared" si="19"/>
+        <v>1.1175999999999999</v>
+      </c>
+      <c r="E72" s="17">
+        <f t="shared" si="19"/>
+        <v>0.86968999999999996</v>
+      </c>
+      <c r="F72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="I31:M31"/>
+  <mergeCells count="15">
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B31:R31"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:R3">
-    <cfRule type="colorScale" priority="520">
+    <cfRule type="colorScale" priority="646">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4046,7 +5261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:R5 G7:R8">
-    <cfRule type="colorScale" priority="522">
+    <cfRule type="colorScale" priority="648">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4058,7 +5273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:R4">
-    <cfRule type="colorScale" priority="521">
+    <cfRule type="colorScale" priority="647">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4070,7 +5285,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:R5">
-    <cfRule type="colorScale" priority="519">
+    <cfRule type="colorScale" priority="645">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4082,7 +5297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:R8">
-    <cfRule type="colorScale" priority="517">
+    <cfRule type="colorScale" priority="643">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4094,19 +5309,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:F3">
-    <cfRule type="colorScale" priority="536">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F5 B7:F8">
-    <cfRule type="colorScale" priority="537">
+    <cfRule type="colorScale" priority="662">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F5 B7:F8 B8:AD8">
+    <cfRule type="colorScale" priority="663">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4118,7 +5333,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:F4">
-    <cfRule type="colorScale" priority="538">
+    <cfRule type="colorScale" priority="664">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4130,19 +5345,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:F5">
-    <cfRule type="colorScale" priority="539">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:F8">
-    <cfRule type="colorScale" priority="541">
+    <cfRule type="colorScale" priority="665">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:F8 B8:AD8">
+    <cfRule type="colorScale" priority="667">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4154,7 +5369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:R3">
-    <cfRule type="colorScale" priority="542">
+    <cfRule type="colorScale" priority="668">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4166,7 +5381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:R4">
-    <cfRule type="colorScale" priority="544">
+    <cfRule type="colorScale" priority="670">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4178,91 +5393,91 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:R5">
-    <cfRule type="colorScale" priority="546">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:R8">
-    <cfRule type="colorScale" priority="550">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:R8">
-    <cfRule type="colorScale" priority="568">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:U3">
-    <cfRule type="colorScale" priority="492">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:U4">
-    <cfRule type="colorScale" priority="491">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:U5">
-    <cfRule type="colorScale" priority="490">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:U7">
-    <cfRule type="colorScale" priority="488">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:U8">
-    <cfRule type="colorScale" priority="487">
+    <cfRule type="colorScale" priority="672">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:R8 B8:AD8">
+    <cfRule type="colorScale" priority="676">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:AD8">
+    <cfRule type="colorScale" priority="694">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:AD3">
+    <cfRule type="colorScale" priority="618">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:AD4">
+    <cfRule type="colorScale" priority="617">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:AD5">
+    <cfRule type="colorScale" priority="616">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:AD7">
+    <cfRule type="colorScale" priority="614">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:AD8">
+    <cfRule type="colorScale" priority="613">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4274,7 +5489,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:R11">
-    <cfRule type="colorScale" priority="472">
+    <cfRule type="colorScale" priority="598">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4286,7 +5501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:R13 G15:R16">
-    <cfRule type="colorScale" priority="474">
+    <cfRule type="colorScale" priority="600">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4298,7 +5513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:R12">
-    <cfRule type="colorScale" priority="473">
+    <cfRule type="colorScale" priority="599">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4310,7 +5525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:R13">
-    <cfRule type="colorScale" priority="471">
+    <cfRule type="colorScale" priority="597">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4322,7 +5537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:R16">
-    <cfRule type="colorScale" priority="469">
+    <cfRule type="colorScale" priority="595">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4334,19 +5549,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:F11">
-    <cfRule type="colorScale" priority="475">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:F13 B15:F16">
-    <cfRule type="colorScale" priority="476">
+    <cfRule type="colorScale" priority="601">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F13 B15:F16 B16:AD16">
+    <cfRule type="colorScale" priority="602">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4358,7 +5573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:F12">
-    <cfRule type="colorScale" priority="477">
+    <cfRule type="colorScale" priority="603">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4370,19 +5585,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:F13">
-    <cfRule type="colorScale" priority="478">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:F16">
-    <cfRule type="colorScale" priority="480">
+    <cfRule type="colorScale" priority="604">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:F16 B16:AD16">
+    <cfRule type="colorScale" priority="606">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4394,7 +5609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:R11">
-    <cfRule type="colorScale" priority="481">
+    <cfRule type="colorScale" priority="607">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4406,7 +5621,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:R12">
-    <cfRule type="colorScale" priority="482">
+    <cfRule type="colorScale" priority="608">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4418,43 +5633,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:R13">
-    <cfRule type="colorScale" priority="483">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:R16">
-    <cfRule type="colorScale" priority="485">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:R16">
-    <cfRule type="colorScale" priority="486">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:U11">
-    <cfRule type="colorScale" priority="468">
+    <cfRule type="colorScale" priority="609">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:R16 B16:AD16">
+    <cfRule type="colorScale" priority="611">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:AD16">
+    <cfRule type="colorScale" priority="612">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V15:V16 W14:AC16 B11:AD11 V12:AD13 AD14:AD15">
+    <cfRule type="colorScale" priority="594">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4466,7 +5681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:U12">
-    <cfRule type="colorScale" priority="467">
+    <cfRule type="colorScale" priority="593">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4478,6 +5693,496 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:U13">
+    <cfRule type="colorScale" priority="592">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:U15">
+    <cfRule type="colorScale" priority="590">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:AD16">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:F43">
+    <cfRule type="colorScale" priority="577">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:F45 B47:F48">
+    <cfRule type="colorScale" priority="578">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:F44 D45:F45 D47:F48">
+    <cfRule type="colorScale" priority="579">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:F45">
+    <cfRule type="colorScale" priority="580">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:F48">
+    <cfRule type="colorScale" priority="582">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:F43">
+    <cfRule type="colorScale" priority="583">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:F44">
+    <cfRule type="colorScale" priority="584">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:F45">
+    <cfRule type="colorScale" priority="585">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:F48">
+    <cfRule type="colorScale" priority="587">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:F48">
+    <cfRule type="colorScale" priority="588">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:F43">
+    <cfRule type="colorScale" priority="576">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:F44">
+    <cfRule type="colorScale" priority="575">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:F45">
+    <cfRule type="colorScale" priority="574">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:F47">
+    <cfRule type="colorScale" priority="572">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:F48">
+    <cfRule type="colorScale" priority="571">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:F50">
+    <cfRule type="colorScale" priority="559">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:F52 B54:F55">
+    <cfRule type="colorScale" priority="560">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:F51 D52:F52 D54:F55">
+    <cfRule type="colorScale" priority="561">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:F52">
+    <cfRule type="colorScale" priority="562">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:F55">
+    <cfRule type="colorScale" priority="564">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:F50">
+    <cfRule type="colorScale" priority="565">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:F51">
+    <cfRule type="colorScale" priority="566">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:F52">
+    <cfRule type="colorScale" priority="567">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:F55">
+    <cfRule type="colorScale" priority="569">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55:F55">
+    <cfRule type="colorScale" priority="570">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:F50">
+    <cfRule type="colorScale" priority="558">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:F51">
+    <cfRule type="colorScale" priority="557">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:F52">
+    <cfRule type="colorScale" priority="556">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:F54">
+    <cfRule type="colorScale" priority="554">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55:F55">
+    <cfRule type="colorScale" priority="553">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18:U18">
+    <cfRule type="colorScale" priority="529">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
+    <cfRule type="colorScale" priority="496">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
+    <cfRule type="colorScale" priority="497">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
+    <cfRule type="colorScale" priority="498">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Q18">
+    <cfRule type="expression" dxfId="77" priority="493">
+      <formula>AND(ABS(B18)&gt;200, ABS(B18)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:U18">
+    <cfRule type="expression" dxfId="76" priority="478">
+      <formula>ABS(B18)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="485">
+      <formula>AND(ABS(B18)&gt;150, ABS(B18)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="486">
+      <formula>AND(ABS(B18)&gt;50, ABS(B18)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="494">
+      <formula>AND(ABS(B18)&gt;100, ABS(B18)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="495">
+      <formula>AND(ABS(B18)&gt;0, ABS(B18)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6">
+    <cfRule type="colorScale" priority="464">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6">
+    <cfRule type="colorScale" priority="465">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V6">
     <cfRule type="colorScale" priority="466">
       <colorScale>
         <cfvo type="min"/>
@@ -4489,519 +6194,1035 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:U15">
-    <cfRule type="colorScale" priority="464">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:U16">
-    <cfRule type="colorScale" priority="463">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F25">
-    <cfRule type="colorScale" priority="451">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F27 B29:F30">
-    <cfRule type="colorScale" priority="452">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F26 D27:F27 D29:F30">
-    <cfRule type="colorScale" priority="453">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:F27">
-    <cfRule type="colorScale" priority="454">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F30">
-    <cfRule type="colorScale" priority="456">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F25">
-    <cfRule type="colorScale" priority="457">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F26">
-    <cfRule type="colorScale" priority="458">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:F27">
-    <cfRule type="colorScale" priority="459">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F30">
-    <cfRule type="colorScale" priority="461">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:F30">
-    <cfRule type="colorScale" priority="462">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:F25">
-    <cfRule type="colorScale" priority="450">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F26">
-    <cfRule type="colorScale" priority="449">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:F27">
-    <cfRule type="colorScale" priority="448">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F29">
-    <cfRule type="colorScale" priority="446">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:F30">
-    <cfRule type="colorScale" priority="445">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F32">
-    <cfRule type="colorScale" priority="433">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F34 B36:F37">
-    <cfRule type="colorScale" priority="434">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F33 D34:F34 D36:F37">
-    <cfRule type="colorScale" priority="435">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:F34">
-    <cfRule type="colorScale" priority="436">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:F37">
-    <cfRule type="colorScale" priority="438">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F32">
-    <cfRule type="colorScale" priority="439">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F33">
-    <cfRule type="colorScale" priority="440">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:F34">
-    <cfRule type="colorScale" priority="441">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:F37">
-    <cfRule type="colorScale" priority="443">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:F37">
-    <cfRule type="colorScale" priority="444">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:F32">
-    <cfRule type="colorScale" priority="432">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:F33">
-    <cfRule type="colorScale" priority="431">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:F34">
-    <cfRule type="colorScale" priority="430">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:F36">
-    <cfRule type="colorScale" priority="428">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:F37">
-    <cfRule type="colorScale" priority="427">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18:U18">
-    <cfRule type="colorScale" priority="403">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="colorScale" priority="370">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="colorScale" priority="371">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="colorScale" priority="372">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="expression" dxfId="227" priority="367">
-      <formula>AND(ABS(B18)&gt;200, ABS(B18)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:U18">
-    <cfRule type="expression" dxfId="226" priority="352">
-      <formula>ABS(B18)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="359">
-      <formula>AND(ABS(B18)&gt;150, ABS(B18)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="360">
-      <formula>AND(ABS(B18)&gt;50, ABS(B18)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="368">
-      <formula>AND(ABS(B18)&gt;100, ABS(B18)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="223" priority="369">
-      <formula>AND(ABS(B18)&gt;0, ABS(B18)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="colorScale" priority="338">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+    <cfRule type="expression" dxfId="71" priority="461">
+      <formula>AND(ABS(V6)&gt;200, ABS(V6)&lt;=300)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="colorScale" priority="339">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V6">
-    <cfRule type="colorScale" priority="340">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V6">
-    <cfRule type="expression" dxfId="216" priority="335">
-      <formula>AND(ABS(V6)&gt;200, ABS(V6)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V6">
-    <cfRule type="expression" dxfId="215" priority="332">
+    <cfRule type="expression" dxfId="70" priority="458">
       <formula>ABS(V6)&gt;300</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="333">
+    <cfRule type="expression" dxfId="69" priority="459">
       <formula>AND(ABS(V6)&gt;150, ABS(V6)&lt;=200)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="334">
+    <cfRule type="expression" dxfId="68" priority="460">
       <formula>AND(ABS(V6)&gt;50, ABS(V6)&lt;=100)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="336">
+    <cfRule type="expression" dxfId="67" priority="462">
       <formula>AND(ABS(V6)&gt;100, ABS(V6)&lt;=150)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="337">
+    <cfRule type="expression" dxfId="66" priority="463">
       <formula>AND(ABS(V6)&gt;0, ABS(V6)&lt;=50)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:U19">
+    <cfRule type="colorScale" priority="222">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
+    <cfRule type="colorScale" priority="219">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
+    <cfRule type="colorScale" priority="221">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
+    <cfRule type="expression" dxfId="65" priority="216">
+      <formula>AND(ABS(B19)&gt;200, ABS(B19)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:U19">
+    <cfRule type="expression" dxfId="64" priority="213">
+      <formula>ABS(B19)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="214">
+      <formula>AND(ABS(B19)&gt;150, ABS(B19)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="215">
+      <formula>AND(ABS(B19)&gt;50, ABS(B19)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="217">
+      <formula>AND(ABS(B19)&gt;100, ABS(B19)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="218">
+      <formula>AND(ABS(B19)&gt;0, ABS(B19)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:U6 W6:AD6">
+    <cfRule type="colorScale" priority="212">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6">
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6">
+    <cfRule type="colorScale" priority="210">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6">
+    <cfRule type="colorScale" priority="211">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6">
+    <cfRule type="expression" dxfId="59" priority="206">
+      <formula>AND(ABS(B6)&gt;200, ABS(B6)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:U6 W6:AD6">
+    <cfRule type="expression" dxfId="58" priority="203">
+      <formula>ABS(B6)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="204">
+      <formula>AND(ABS(B6)&gt;150, ABS(B6)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="205">
+      <formula>AND(ABS(B6)&gt;50, ABS(B6)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="207">
+      <formula>AND(ABS(B6)&gt;100, ABS(B6)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="208">
+      <formula>AND(ABS(B6)&gt;0, ABS(B6)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14:U14">
+    <cfRule type="colorScale" priority="202">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:Q14 V14">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:Q14 V14">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:Q14 V14">
+    <cfRule type="colorScale" priority="201">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:Q14 V14">
+    <cfRule type="expression" dxfId="53" priority="196">
+      <formula>AND(ABS(B14)&gt;200, ABS(B14)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:V14">
+    <cfRule type="expression" dxfId="52" priority="193">
+      <formula>ABS(B14)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="194">
+      <formula>AND(ABS(B14)&gt;150, ABS(B14)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="195">
+      <formula>AND(ABS(B14)&gt;50, ABS(B14)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="197">
+      <formula>AND(ABS(B14)&gt;100, ABS(B14)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="198">
+      <formula>AND(ABS(B14)&gt;0, ABS(B14)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:F46">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:F46">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:F46">
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:F46">
+    <cfRule type="expression" dxfId="47" priority="187">
+      <formula>AND(ABS(B46)&gt;200, ABS(B46)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:F46">
+    <cfRule type="expression" dxfId="46" priority="184">
+      <formula>ABS(B46)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="185">
+      <formula>AND(ABS(B46)&gt;150, ABS(B46)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="186">
+      <formula>AND(ABS(B46)&gt;50, ABS(B46)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="188">
+      <formula>AND(ABS(B46)&gt;100, ABS(B46)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="189">
+      <formula>AND(ABS(B46)&gt;0, ABS(B46)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:F53">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:F53">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:F53">
+    <cfRule type="colorScale" priority="183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:F53">
+    <cfRule type="expression" dxfId="41" priority="178">
+      <formula>AND(ABS(B53)&gt;200, ABS(B53)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:F53">
+    <cfRule type="expression" dxfId="40" priority="175">
+      <formula>ABS(B53)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="176">
+      <formula>AND(ABS(B53)&gt;150, ABS(B53)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="177">
+      <formula>AND(ABS(B53)&gt;50, ABS(B53)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="179">
+      <formula>AND(ABS(B53)&gt;100, ABS(B53)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="180">
+      <formula>AND(ABS(B53)&gt;0, ABS(B53)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:M43">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:M45 I47:M48">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:M44 K45:M45 K47:M48">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:M45">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:M48">
+    <cfRule type="colorScale" priority="169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:M43">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:M44">
+    <cfRule type="colorScale" priority="171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:M45">
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:M48">
+    <cfRule type="colorScale" priority="173">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:M48">
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:M43">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:M44">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:M45">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:M47">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:M48">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:M50">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:M52 I54:M55">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:M51 K52:M52 K54:M55">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:M52">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:M55">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:M50">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:M51">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:M52">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:M55">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:M55">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:M50">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:M51">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:M52">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:M54">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:M55">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:M46">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:M46">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:M46">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:M46">
+    <cfRule type="expression" dxfId="35" priority="139">
+      <formula>AND(ABS(I46)&gt;200, ABS(I46)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:M46">
+    <cfRule type="expression" dxfId="34" priority="136">
+      <formula>ABS(I46)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="137">
+      <formula>AND(ABS(I46)&gt;150, ABS(I46)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="138">
+      <formula>AND(ABS(I46)&gt;50, ABS(I46)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="140">
+      <formula>AND(ABS(I46)&gt;100, ABS(I46)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="141">
+      <formula>AND(ABS(I46)&gt;0, ABS(I46)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:M53">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:M53">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:M53">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:M53">
+    <cfRule type="expression" dxfId="29" priority="130">
+      <formula>AND(ABS(I53)&gt;200, ABS(I53)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:M53">
+    <cfRule type="expression" dxfId="28" priority="127">
+      <formula>ABS(I53)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="128">
+      <formula>AND(ABS(I53)&gt;150, ABS(I53)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="129">
+      <formula>AND(ABS(I53)&gt;50, ABS(I53)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="131">
+      <formula>AND(ABS(I53)&gt;100, ABS(I53)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="132">
+      <formula>AND(ABS(I53)&gt;0, ABS(I53)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:J30 B25:R25">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:J30 B25:R27 B29:R30">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:R26">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:R27">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:R30">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:R25">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:R26">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:R27">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:R30">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:R30">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:R25">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:R26">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:R27">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:R29">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:R30">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:R28">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:R28">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:R28">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -5013,135 +7234,113 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="expression" dxfId="41" priority="90">
-      <formula>AND(ABS(B19)&gt;200, ABS(B19)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:U19">
-    <cfRule type="expression" dxfId="40" priority="87">
-      <formula>ABS(B19)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="88">
-      <formula>AND(ABS(B19)&gt;150, ABS(B19)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="89">
-      <formula>AND(ABS(B19)&gt;50, ABS(B19)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="91">
-      <formula>AND(ABS(B19)&gt;100, ABS(B19)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="92">
-      <formula>AND(ABS(B19)&gt;0, ABS(B19)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S6:U6">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Q6">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Q6">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Q6">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Q6">
-    <cfRule type="expression" dxfId="35" priority="80">
-      <formula>AND(ABS(B6)&gt;200, ABS(B6)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:U6">
-    <cfRule type="expression" dxfId="34" priority="77">
-      <formula>ABS(B6)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="78">
-      <formula>AND(ABS(B6)&gt;150, ABS(B6)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="79">
-      <formula>AND(ABS(B6)&gt;50, ABS(B6)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="81">
-      <formula>AND(ABS(B6)&gt;100, ABS(B6)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="82">
-      <formula>AND(ABS(B6)&gt;0, ABS(B6)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14:U14">
+  <conditionalFormatting sqref="B28:R28">
+    <cfRule type="expression" dxfId="23" priority="91">
+      <formula>AND(ABS(B28)&gt;200, ABS(B28)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:R28">
+    <cfRule type="expression" dxfId="22" priority="88">
+      <formula>ABS(B28)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="89">
+      <formula>AND(ABS(B28)&gt;150, ABS(B28)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="90">
+      <formula>AND(ABS(B28)&gt;50, ABS(B28)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="92">
+      <formula>AND(ABS(B28)&gt;100, ABS(B28)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="93">
+      <formula>AND(ABS(B28)&gt;0, ABS(B28)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:J37 B32:R32">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:J37 B32:C34 K32:R34 B36:C37 K36:R37">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:R33">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:R34">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:R37">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:R32">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:R33">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:R34">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -5153,65 +7352,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:Q14 V14">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:Q14 V14">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:Q14 V14">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:Q14 V14">
-    <cfRule type="expression" dxfId="29" priority="70">
-      <formula>AND(ABS(B14)&gt;200, ABS(B14)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:V14">
-    <cfRule type="expression" dxfId="28" priority="67">
-      <formula>ABS(B14)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="68">
-      <formula>AND(ABS(B14)&gt;150, ABS(B14)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="69">
-      <formula>AND(ABS(B14)&gt;50, ABS(B14)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="71">
-      <formula>AND(ABS(B14)&gt;100, ABS(B14)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="72">
-      <formula>AND(ABS(B14)&gt;0, ABS(B14)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F28">
+  <conditionalFormatting sqref="B36:R37">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:R37">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:R32">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:R33">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:R34">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:R36">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:R37">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -5223,111 +7436,125 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F28">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F28">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F28">
-    <cfRule type="expression" dxfId="23" priority="61">
-      <formula>AND(ABS(B28)&gt;200, ABS(B28)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F28">
-    <cfRule type="expression" dxfId="22" priority="58">
-      <formula>ABS(B28)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="59">
-      <formula>AND(ABS(B28)&gt;150, ABS(B28)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="60">
-      <formula>AND(ABS(B28)&gt;50, ABS(B28)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="62">
-      <formula>AND(ABS(B28)&gt;100, ABS(B28)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="63">
-      <formula>AND(ABS(B28)&gt;0, ABS(B28)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="17" priority="52">
+  <conditionalFormatting sqref="B35:R35">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:R35">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:R35">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:R35">
+    <cfRule type="expression" dxfId="17" priority="58">
       <formula>AND(ABS(B35)&gt;200, ABS(B35)&lt;=300)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:F35">
-    <cfRule type="expression" dxfId="16" priority="49">
+  <conditionalFormatting sqref="B35:R35">
+    <cfRule type="expression" dxfId="16" priority="55">
       <formula>ABS(B35)&gt;300</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="50">
+    <cfRule type="expression" dxfId="15" priority="56">
       <formula>AND(ABS(B35)&gt;150, ABS(B35)&lt;=200)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="51">
+    <cfRule type="expression" dxfId="14" priority="57">
       <formula>AND(ABS(B35)&gt;50, ABS(B35)&lt;=100)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="53">
+    <cfRule type="expression" dxfId="13" priority="59">
       <formula>AND(ABS(B35)&gt;100, ABS(B35)&lt;=150)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="54">
+    <cfRule type="expression" dxfId="12" priority="60">
       <formula>AND(ABS(B35)&gt;0, ABS(B35)&lt;=50)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:M25">
+  <conditionalFormatting sqref="AD16">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD16">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD16">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD16">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD16">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:F60">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -5339,7 +7566,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:M27 I29:M30">
+  <conditionalFormatting sqref="B60:F62 B64:F65">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -5351,7 +7578,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:M26 K27:M27 K29:M30">
+  <conditionalFormatting sqref="B61:F61 D62:F62 D64:F65">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -5363,7 +7590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:M27">
+  <conditionalFormatting sqref="B62:F62">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -5375,7 +7602,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:M30">
+  <conditionalFormatting sqref="B64:F65">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -5387,7 +7614,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:M25">
+  <conditionalFormatting sqref="B60:F60">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -5399,7 +7626,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:M26">
+  <conditionalFormatting sqref="B61:F61">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -5411,7 +7638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:M27">
+  <conditionalFormatting sqref="B62:F62">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -5423,7 +7650,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:M30">
+  <conditionalFormatting sqref="B64:F65">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -5435,7 +7662,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:M30">
+  <conditionalFormatting sqref="B65:F65">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -5447,7 +7674,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:M25">
+  <conditionalFormatting sqref="B60:F60">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -5459,7 +7686,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:M26">
+  <conditionalFormatting sqref="B61:F61">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -5471,7 +7698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:M27">
+  <conditionalFormatting sqref="B62:F62">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -5483,7 +7710,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:M29">
+  <conditionalFormatting sqref="B64:F64">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -5495,7 +7722,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:M30">
+  <conditionalFormatting sqref="B65:F65">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -5507,7 +7734,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:M32">
+  <conditionalFormatting sqref="B67:F67">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -5519,7 +7746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:M34 I36:M37">
+  <conditionalFormatting sqref="B67:F69 B71:F72">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -5531,7 +7758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:M33 K34:M34 K36:M37">
+  <conditionalFormatting sqref="B68:F68 D69:F69 D71:F72">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -5543,7 +7770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:M34">
+  <conditionalFormatting sqref="B69:F69">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -5555,7 +7782,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:M37">
+  <conditionalFormatting sqref="B71:F72">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -5567,7 +7794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:M32">
+  <conditionalFormatting sqref="B67:F67">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -5579,7 +7806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:M33">
+  <conditionalFormatting sqref="B68:F68">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -5591,7 +7818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:M34">
+  <conditionalFormatting sqref="B69:F69">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -5603,7 +7830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:M37">
+  <conditionalFormatting sqref="B71:F72">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -5615,7 +7842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:M37">
+  <conditionalFormatting sqref="B72:F72">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -5627,7 +7854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:M32">
+  <conditionalFormatting sqref="B67:F67">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -5639,7 +7866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:M33">
+  <conditionalFormatting sqref="B68:F68">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -5651,7 +7878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:M34">
+  <conditionalFormatting sqref="B69:F69">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5663,7 +7890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:M36">
+  <conditionalFormatting sqref="B71:F71">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5675,7 +7902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:M37">
+  <conditionalFormatting sqref="B72:F72">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5687,7 +7914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:M28">
+  <conditionalFormatting sqref="B63:F63">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5699,7 +7926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:M28">
+  <conditionalFormatting sqref="B63:F63">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5711,7 +7938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:M28">
+  <conditionalFormatting sqref="B63:F63">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5723,29 +7950,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:M28">
+  <conditionalFormatting sqref="B63:F63">
     <cfRule type="expression" dxfId="11" priority="13">
-      <formula>AND(ABS(I28)&gt;200, ABS(I28)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:M28">
+      <formula>AND(ABS(B63)&gt;200, ABS(B63)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:F63">
     <cfRule type="expression" dxfId="10" priority="10">
-      <formula>ABS(I28)&gt;300</formula>
+      <formula>ABS(B63)&gt;300</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="11">
-      <formula>AND(ABS(I28)&gt;150, ABS(I28)&lt;=200)</formula>
+      <formula>AND(ABS(B63)&gt;150, ABS(B63)&lt;=200)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="12">
-      <formula>AND(ABS(I28)&gt;50, ABS(I28)&lt;=100)</formula>
+      <formula>AND(ABS(B63)&gt;50, ABS(B63)&lt;=100)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="14">
-      <formula>AND(ABS(I28)&gt;100, ABS(I28)&lt;=150)</formula>
+      <formula>AND(ABS(B63)&gt;100, ABS(B63)&lt;=150)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="15">
-      <formula>AND(ABS(I28)&gt;0, ABS(I28)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:M35">
+      <formula>AND(ABS(B63)&gt;0, ABS(B63)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:F70">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5757,7 +7984,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:M35">
+  <conditionalFormatting sqref="B70:F70">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5769,7 +7996,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:M35">
+  <conditionalFormatting sqref="B70:F70">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5781,26 +8008,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:M35">
+  <conditionalFormatting sqref="B70:F70">
     <cfRule type="expression" dxfId="5" priority="4">
-      <formula>AND(ABS(I35)&gt;200, ABS(I35)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:M35">
+      <formula>AND(ABS(B70)&gt;200, ABS(B70)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:F70">
     <cfRule type="expression" dxfId="4" priority="1">
-      <formula>ABS(I35)&gt;300</formula>
+      <formula>ABS(B70)&gt;300</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="2">
-      <formula>AND(ABS(I35)&gt;150, ABS(I35)&lt;=200)</formula>
+      <formula>AND(ABS(B70)&gt;150, ABS(B70)&lt;=200)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(ABS(I35)&gt;50, ABS(I35)&lt;=100)</formula>
+      <formula>AND(ABS(B70)&gt;50, ABS(B70)&lt;=100)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>AND(ABS(I35)&gt;100, ABS(I35)&lt;=150)</formula>
+      <formula>AND(ABS(B70)&gt;100, ABS(B70)&lt;=150)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND(ABS(I35)&gt;0, ABS(I35)&lt;=50)</formula>
+      <formula>AND(ABS(B70)&gt;0, ABS(B70)&lt;=50)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5823,12 +8050,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
@@ -5850,13 +8077,13 @@
     </row>
     <row r="6" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
@@ -5980,13 +8207,13 @@
     </row>
     <row r="13" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">

--- a/Analysis3-Heatmap.xlsx
+++ b/Analysis3-Heatmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSDS\DS Project\TK analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6A91DB-5039-42D2-BA4A-837FDBF3A3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8BE259-07EA-43B5-BEBF-7E247F2A7BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EF2B5DF0-820C-4264-A359-51F45012B519}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="63">
   <si>
     <t>At Merriwa</t>
   </si>
@@ -458,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -511,6 +511,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,57 +574,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
+  <dxfs count="90">
     <dxf>
       <fill>
         <patternFill>
@@ -676,384 +677,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1908,8 +1531,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2165,7 +1788,7 @@
         <v>206.87060566903401</v>
       </c>
       <c r="S4" s="2">
-        <v>0.88009999999999999</v>
+        <v>148</v>
       </c>
       <c r="T4" s="2">
         <v>155.02667</v>
@@ -3129,7 +2752,7 @@
         <v>0.86968999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -3194,7 +2817,7 @@
         <v>43.669170000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -3259,1017 +2882,1441 @@
         <v>73.015739999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31" t="s">
+    <row r="22" spans="1:30" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="32" t="s">
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="34"/>
-      <c r="M22" s="32" t="s">
+      <c r="L22" s="39"/>
+      <c r="M22" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="N22" s="33"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="32" t="s">
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="34"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="39"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="W22" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="X22" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="39"/>
     </row>
-    <row r="23" spans="1:21" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:30" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="34"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="38" t="s">
+      <c r="M23" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="38" t="s">
+      <c r="N23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="38" t="s">
+      <c r="O23" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P23" s="39" t="s">
+      <c r="P23" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Q23" s="39" t="s">
+      <c r="Q23" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="R23" s="39" t="s">
+      <c r="R23" s="25" t="s">
         <v>39</v>
       </c>
+      <c r="U23" s="34"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z23" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA23" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB23" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC23" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD23" s="23" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41" t="s">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="B24" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="28">
         <f>$B$3</f>
         <v>0.83319741802372405</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="28">
         <f>$C$3</f>
         <v>0.71511616084183505</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="28">
         <f>V3</f>
         <v>0.88087000000000004</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="28">
         <f t="shared" ref="E25:J30" si="0">W3</f>
         <v>0.88249</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="28">
         <f t="shared" si="0"/>
         <v>0.85182999999999998</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="28">
         <f t="shared" si="0"/>
         <v>0.79551000000000005</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="28">
         <f t="shared" si="0"/>
         <v>0.88599000000000006</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I25" s="28">
         <f t="shared" si="0"/>
         <v>0.92549000000000003</v>
       </c>
-      <c r="J25" s="43">
+      <c r="J25" s="28">
         <f t="shared" si="0"/>
         <v>0.83567000000000002</v>
       </c>
-      <c r="K25" s="43">
-        <f>AC3</f>
+      <c r="K25" s="28">
+        <f t="shared" ref="K25:L30" si="1">AC3</f>
         <v>0.80411999999999995</v>
       </c>
-      <c r="L25" s="43">
-        <f>AD3</f>
+      <c r="L25" s="28">
+        <f t="shared" si="1"/>
         <v>0.91012000000000004</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="28">
         <f>D43</f>
         <v>0.79549399019883904</v>
       </c>
-      <c r="N25" s="43">
-        <f t="shared" ref="N25:O30" si="1">E43</f>
+      <c r="N25" s="28">
+        <f t="shared" ref="N25:O30" si="2">E43</f>
         <v>0.83404310143979898</v>
       </c>
-      <c r="O25" s="43">
-        <f t="shared" si="1"/>
+      <c r="O25" s="28">
+        <f t="shared" si="2"/>
         <v>0.811631930572148</v>
       </c>
-      <c r="P25" s="43">
+      <c r="P25" s="28">
         <f>K43</f>
         <v>0.88009999999999999</v>
       </c>
-      <c r="Q25" s="43">
-        <f t="shared" ref="Q25:R30" si="2">L43</f>
+      <c r="Q25" s="28">
+        <f t="shared" ref="Q25:R30" si="3">L43</f>
         <v>0.91481000000000001</v>
       </c>
-      <c r="R25" s="43">
-        <f t="shared" si="2"/>
+      <c r="R25" s="28">
+        <f t="shared" si="3"/>
         <v>0.90980000000000005</v>
       </c>
+      <c r="U25" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="V25" s="28">
+        <v>0.83319741802372405</v>
+      </c>
+      <c r="W25" s="28">
+        <v>0.71511616084183505</v>
+      </c>
+      <c r="X25" s="28">
+        <v>0.88087000000000004</v>
+      </c>
+      <c r="Y25" s="28">
+        <v>0.88249</v>
+      </c>
+      <c r="Z25" s="28">
+        <v>0.85182999999999998</v>
+      </c>
+      <c r="AA25" s="28">
+        <v>0.79551000000000005</v>
+      </c>
+      <c r="AB25" s="28">
+        <v>0.88599000000000006</v>
+      </c>
+      <c r="AC25" s="28">
+        <v>0.92549000000000003</v>
+      </c>
+      <c r="AD25" s="28">
+        <v>0.83567000000000002</v>
+      </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="29">
         <f>$B$4</f>
         <v>212.959093374106</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="29">
         <f>$C$4</f>
         <v>318.60121933773701</v>
       </c>
-      <c r="D26" s="44">
-        <f t="shared" ref="D26:D30" si="3">V4</f>
+      <c r="D26" s="29">
+        <f t="shared" ref="D26:D30" si="4">V4</f>
         <v>171.51262</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="29">
         <f t="shared" si="0"/>
         <v>188.35473999999999</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="29">
         <f t="shared" si="0"/>
         <v>172.38102000000001</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="29">
         <f t="shared" si="0"/>
         <v>250.54906</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="29">
         <f t="shared" si="0"/>
         <v>170.48398</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="29">
         <f t="shared" si="0"/>
         <v>134.32982000000001</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="29">
         <f t="shared" si="0"/>
         <v>192.40432999999999</v>
       </c>
-      <c r="K26" s="44">
-        <f>AC4</f>
+      <c r="K26" s="29">
+        <f t="shared" si="1"/>
         <v>363.98</v>
       </c>
-      <c r="L26" s="44">
-        <f>AD4</f>
+      <c r="L26" s="29">
+        <f t="shared" si="1"/>
         <v>161.91526999999999</v>
       </c>
-      <c r="M26" s="44">
-        <f t="shared" ref="M26:M30" si="4">D44</f>
+      <c r="M26" s="29">
+        <f t="shared" ref="M26:M30" si="5">D44</f>
         <v>235.35118613417299</v>
       </c>
-      <c r="N26" s="44">
-        <f t="shared" si="1"/>
+      <c r="N26" s="29">
+        <f t="shared" si="2"/>
         <v>203.98336248729899</v>
       </c>
-      <c r="O26" s="44">
-        <f t="shared" si="1"/>
+      <c r="O26" s="29">
+        <f t="shared" si="2"/>
         <v>206.87060566903401</v>
       </c>
-      <c r="P26" s="44">
-        <f t="shared" ref="P26:P30" si="5">K44</f>
-        <v>0.88009999999999999</v>
-      </c>
-      <c r="Q26" s="44">
-        <f t="shared" si="2"/>
+      <c r="P26" s="29">
+        <f t="shared" ref="P26:P30" si="6">K44</f>
+        <v>148</v>
+      </c>
+      <c r="Q26" s="29">
+        <f t="shared" si="3"/>
         <v>155.02667</v>
       </c>
-      <c r="R26" s="44">
-        <f t="shared" si="2"/>
+      <c r="R26" s="29">
+        <f t="shared" si="3"/>
         <v>160.72957</v>
       </c>
+      <c r="U26" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="29">
+        <v>212.959093374106</v>
+      </c>
+      <c r="W26" s="29">
+        <v>318.60121933773701</v>
+      </c>
+      <c r="X26" s="29">
+        <v>171.51262</v>
+      </c>
+      <c r="Y26" s="29">
+        <v>188.35473999999999</v>
+      </c>
+      <c r="Z26" s="29">
+        <v>172.38102000000001</v>
+      </c>
+      <c r="AA26" s="29">
+        <v>250.54906</v>
+      </c>
+      <c r="AB26" s="29">
+        <v>170.48398</v>
+      </c>
+      <c r="AC26" s="29">
+        <v>134.32982000000001</v>
+      </c>
+      <c r="AD26" s="29">
+        <v>192.40432999999999</v>
+      </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="29">
         <f>$B$5</f>
         <v>171.77557861519901</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="29">
         <f>$C$5</f>
         <v>243.62768709391699</v>
       </c>
-      <c r="D27" s="44">
-        <f t="shared" si="3"/>
+      <c r="D27" s="29">
+        <f t="shared" si="4"/>
         <v>147.21418</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="29">
         <f t="shared" si="0"/>
         <v>158.17454000000001</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="29">
         <f t="shared" si="0"/>
         <v>139.65854999999999</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="29">
         <f t="shared" si="0"/>
         <v>212.23553000000001</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="29">
         <f t="shared" si="0"/>
         <v>146.63256000000001</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="29">
         <f t="shared" si="0"/>
         <v>108.30021000000001</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="29">
         <f t="shared" si="0"/>
         <v>166.51205999999999</v>
       </c>
-      <c r="K27" s="44">
-        <f>AC5</f>
+      <c r="K27" s="29">
+        <f t="shared" si="1"/>
         <v>320.5</v>
       </c>
-      <c r="L27" s="44">
-        <f>AD5</f>
+      <c r="L27" s="29">
+        <f t="shared" si="1"/>
         <v>141.05745999999999</v>
       </c>
-      <c r="M27" s="44">
-        <f t="shared" si="4"/>
+      <c r="M27" s="29">
+        <f t="shared" si="5"/>
         <v>206.00623185761401</v>
       </c>
-      <c r="N27" s="44">
-        <f t="shared" si="1"/>
+      <c r="N27" s="29">
+        <f t="shared" si="2"/>
         <v>169.351818070794</v>
       </c>
-      <c r="O27" s="44">
-        <f t="shared" si="1"/>
+      <c r="O27" s="29">
+        <f t="shared" si="2"/>
         <v>177.97778245741</v>
       </c>
-      <c r="P27" s="44">
-        <f t="shared" si="5"/>
+      <c r="P27" s="29">
+        <f t="shared" si="6"/>
         <v>165.06471999999999</v>
       </c>
-      <c r="Q27" s="44">
-        <f t="shared" si="2"/>
+      <c r="Q27" s="29">
+        <f t="shared" si="3"/>
         <v>126.46784</v>
       </c>
-      <c r="R27" s="44">
-        <f t="shared" si="2"/>
+      <c r="R27" s="29">
+        <f t="shared" si="3"/>
         <v>131.67061000000001</v>
       </c>
+      <c r="U27" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="29">
+        <v>171.77557861519901</v>
+      </c>
+      <c r="W27" s="29">
+        <v>243.62768709391699</v>
+      </c>
+      <c r="X27" s="29">
+        <v>147.21418</v>
+      </c>
+      <c r="Y27" s="29">
+        <v>158.17454000000001</v>
+      </c>
+      <c r="Z27" s="29">
+        <v>139.65854999999999</v>
+      </c>
+      <c r="AA27" s="29">
+        <v>212.23553000000001</v>
+      </c>
+      <c r="AB27" s="29">
+        <v>146.63256000000001</v>
+      </c>
+      <c r="AC27" s="29">
+        <v>108.30021000000001</v>
+      </c>
+      <c r="AD27" s="29">
+        <v>166.51205999999999</v>
+      </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="29">
         <f>$B$6</f>
         <v>-21.589624677775099</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="29">
         <f>$C$6</f>
         <v>114.603179488891</v>
       </c>
-      <c r="D28" s="44">
-        <f t="shared" si="3"/>
+      <c r="D28" s="29">
+        <f t="shared" si="4"/>
         <v>121.40636000000001</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="29">
         <f t="shared" si="0"/>
         <v>143.04382000000001</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="29">
         <f t="shared" si="0"/>
         <v>103.47265</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="29">
         <f t="shared" si="0"/>
         <v>163.89363</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="29">
         <f t="shared" si="0"/>
         <v>138.22121999999999</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="29">
         <f t="shared" si="0"/>
         <v>81.11918</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="29">
         <f t="shared" si="0"/>
         <v>152.47541000000001</v>
       </c>
-      <c r="K28" s="44">
-        <f>AC6</f>
+      <c r="K28" s="29">
+        <f t="shared" si="1"/>
         <v>207.52</v>
       </c>
-      <c r="L28" s="44">
-        <f>AD6</f>
+      <c r="L28" s="29">
+        <f t="shared" si="1"/>
         <v>20.699269999999999</v>
       </c>
-      <c r="M28" s="44">
-        <f t="shared" si="4"/>
+      <c r="M28" s="29">
+        <f t="shared" si="5"/>
         <v>193.857194737508</v>
       </c>
-      <c r="N28" s="44">
-        <f t="shared" si="1"/>
+      <c r="N28" s="29">
+        <f t="shared" si="2"/>
         <v>154.000218244341</v>
       </c>
-      <c r="O28" s="44">
-        <f t="shared" si="1"/>
+      <c r="O28" s="29">
+        <f t="shared" si="2"/>
         <v>159.01040396538099</v>
       </c>
-      <c r="P28" s="44">
-        <f t="shared" si="5"/>
+      <c r="P28" s="29">
+        <f t="shared" si="6"/>
         <v>24.861910000000002</v>
       </c>
-      <c r="Q28" s="44">
-        <f t="shared" si="2"/>
+      <c r="Q28" s="29">
+        <f t="shared" si="3"/>
         <v>19.603090000000002</v>
       </c>
-      <c r="R28" s="44">
-        <f t="shared" si="2"/>
+      <c r="R28" s="29">
+        <f t="shared" si="3"/>
         <v>43.669170000000001</v>
       </c>
+      <c r="U28" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="V28" s="29">
+        <v>-21.589624677775099</v>
+      </c>
+      <c r="W28" s="29">
+        <v>114.603179488891</v>
+      </c>
+      <c r="X28" s="29">
+        <v>121.40636000000001</v>
+      </c>
+      <c r="Y28" s="29">
+        <v>143.04382000000001</v>
+      </c>
+      <c r="Z28" s="29">
+        <v>103.47265</v>
+      </c>
+      <c r="AA28" s="29">
+        <v>163.89363</v>
+      </c>
+      <c r="AB28" s="29">
+        <v>138.22121999999999</v>
+      </c>
+      <c r="AC28" s="29">
+        <v>81.11918</v>
+      </c>
+      <c r="AD28" s="29">
+        <v>152.47541000000001</v>
+      </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="29">
         <f>$B$7</f>
         <v>3611.44141869947</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="29">
         <f>$C$7</f>
         <v>5243.57686626132</v>
       </c>
-      <c r="D29" s="44">
-        <f t="shared" si="3"/>
+      <c r="D29" s="29">
+        <f t="shared" si="4"/>
         <v>2498.92</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="29">
         <f t="shared" si="0"/>
         <v>2209.52</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="29">
         <f t="shared" si="0"/>
         <v>1813.48</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="29">
         <f t="shared" si="0"/>
         <v>3517.84</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="29">
         <f t="shared" si="0"/>
         <v>2238.3000000000002</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I29" s="29">
         <f t="shared" si="0"/>
         <v>1553.7</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="29">
         <f t="shared" si="0"/>
         <v>2539.71</v>
       </c>
-      <c r="K29" s="44">
-        <f>AC7</f>
+      <c r="K29" s="29">
+        <f t="shared" si="1"/>
         <v>4808.3999999999996</v>
       </c>
-      <c r="L29" s="44">
-        <f>AD7</f>
+      <c r="L29" s="29">
+        <f t="shared" si="1"/>
         <v>3235.86</v>
       </c>
-      <c r="M29" s="44">
-        <f t="shared" si="4"/>
+      <c r="M29" s="29">
+        <f t="shared" si="5"/>
         <v>3819.21668252272</v>
       </c>
-      <c r="N29" s="44">
-        <f t="shared" si="1"/>
+      <c r="N29" s="29">
+        <f t="shared" si="2"/>
         <v>2525.3496100518801</v>
       </c>
-      <c r="O29" s="44">
-        <f t="shared" si="1"/>
+      <c r="O29" s="29">
+        <f t="shared" si="2"/>
         <v>4175.3776112124597</v>
       </c>
-      <c r="P29" s="44">
-        <f t="shared" si="5"/>
+      <c r="P29" s="29">
+        <f t="shared" si="6"/>
         <v>2397.92</v>
       </c>
-      <c r="Q29" s="44">
-        <f t="shared" si="2"/>
+      <c r="Q29" s="29">
+        <f t="shared" si="3"/>
         <v>1957.58</v>
       </c>
-      <c r="R29" s="44">
-        <f t="shared" si="2"/>
+      <c r="R29" s="29">
+        <f t="shared" si="3"/>
         <v>1971.03</v>
       </c>
+      <c r="U29" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="V29" s="29">
+        <v>3611.44141869947</v>
+      </c>
+      <c r="W29" s="29">
+        <v>5243.57686626132</v>
+      </c>
+      <c r="X29" s="29">
+        <v>2498.92</v>
+      </c>
+      <c r="Y29" s="29">
+        <v>2209.52</v>
+      </c>
+      <c r="Z29" s="29">
+        <v>1813.48</v>
+      </c>
+      <c r="AA29" s="29">
+        <v>3517.84</v>
+      </c>
+      <c r="AB29" s="29">
+        <v>2238.3000000000002</v>
+      </c>
+      <c r="AC29" s="29">
+        <v>1553.7</v>
+      </c>
+      <c r="AD29" s="29">
+        <v>2539.71</v>
+      </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="30">
         <f>$B$8</f>
         <v>0.90875279768639095</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="30">
         <f>$C$8</f>
         <v>1.28887554345791</v>
       </c>
-      <c r="D30" s="45">
-        <f t="shared" si="3"/>
+      <c r="D30" s="30">
+        <f t="shared" si="4"/>
         <v>0.77881</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="30">
         <f t="shared" si="0"/>
         <v>0.83679999999999999</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="30">
         <f t="shared" si="0"/>
         <v>0.73884000000000005</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="30">
         <f t="shared" si="0"/>
         <v>1.1228</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="30">
         <f t="shared" si="0"/>
         <v>0.77573999999999999</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30" s="30">
         <f t="shared" si="0"/>
         <v>0.57294999999999996</v>
       </c>
-      <c r="J30" s="45">
+      <c r="J30" s="30">
         <f t="shared" si="0"/>
         <v>0.88090999999999997</v>
       </c>
-      <c r="K30" s="45">
-        <f>AC8</f>
+      <c r="K30" s="30">
+        <f t="shared" si="1"/>
         <v>1.69554</v>
       </c>
-      <c r="L30" s="45">
-        <f>AD8</f>
+      <c r="L30" s="30">
+        <f t="shared" si="1"/>
         <v>0.81169999999999998</v>
       </c>
-      <c r="M30" s="45">
-        <f t="shared" si="4"/>
+      <c r="M30" s="30">
+        <f t="shared" si="5"/>
         <v>1.0898449072368499</v>
       </c>
-      <c r="N30" s="45">
-        <f t="shared" si="1"/>
+      <c r="N30" s="30">
+        <f t="shared" si="2"/>
         <v>0.89593025799008397</v>
       </c>
-      <c r="O30" s="45">
-        <f t="shared" si="1"/>
+      <c r="O30" s="30">
+        <f t="shared" si="2"/>
         <v>0.94156462192164303</v>
       </c>
-      <c r="P30" s="45">
-        <f t="shared" si="5"/>
+      <c r="P30" s="30">
+        <f t="shared" si="6"/>
         <v>0.87324999999999997</v>
       </c>
-      <c r="Q30" s="45">
-        <f t="shared" si="2"/>
+      <c r="Q30" s="30">
+        <f t="shared" si="3"/>
         <v>0.66905999999999999</v>
       </c>
-      <c r="R30" s="45">
-        <f t="shared" si="2"/>
+      <c r="R30" s="30">
+        <f t="shared" si="3"/>
         <v>0.69657999999999998</v>
       </c>
+      <c r="U30" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="V30" s="30">
+        <v>0.90875279768639095</v>
+      </c>
+      <c r="W30" s="30">
+        <v>1.28887554345791</v>
+      </c>
+      <c r="X30" s="30">
+        <v>0.77881</v>
+      </c>
+      <c r="Y30" s="30">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="Z30" s="30">
+        <v>0.73884000000000005</v>
+      </c>
+      <c r="AA30" s="30">
+        <v>1.1228</v>
+      </c>
+      <c r="AB30" s="30">
+        <v>0.77573999999999999</v>
+      </c>
+      <c r="AC30" s="30">
+        <v>0.57294999999999996</v>
+      </c>
+      <c r="AD30" s="30">
+        <v>0.88090999999999997</v>
+      </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41" t="s">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" s="26"/>
+      <c r="B31" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="28">
         <f>$B$11</f>
         <v>0.39773650792426901</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="28">
         <f>$C$11</f>
         <v>0.52481268909677503</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="28">
         <f>V11</f>
         <v>0.74770000000000003</v>
       </c>
-      <c r="E32" s="43">
-        <f t="shared" ref="E32:J37" si="6">W11</f>
+      <c r="E32" s="28">
+        <f t="shared" ref="E32:J37" si="7">W11</f>
         <v>0.58492</v>
       </c>
-      <c r="F32" s="43">
-        <f t="shared" si="6"/>
+      <c r="F32" s="28">
+        <f t="shared" si="7"/>
         <v>0.65529999999999999</v>
       </c>
-      <c r="G32" s="43">
-        <f t="shared" si="6"/>
+      <c r="G32" s="28">
+        <f t="shared" si="7"/>
         <v>0.54335</v>
       </c>
-      <c r="H32" s="43">
-        <f t="shared" si="6"/>
+      <c r="H32" s="28">
+        <f t="shared" si="7"/>
         <v>0.79935999999999996</v>
       </c>
-      <c r="I32" s="43">
-        <f t="shared" si="6"/>
+      <c r="I32" s="28">
+        <f t="shared" si="7"/>
         <v>0.80700000000000005</v>
       </c>
-      <c r="J32" s="43">
-        <f t="shared" si="6"/>
+      <c r="J32" s="28">
+        <f t="shared" si="7"/>
         <v>0.75239999999999996</v>
       </c>
-      <c r="K32" s="43">
-        <f>AC11</f>
+      <c r="K32" s="28">
+        <f t="shared" ref="K32:L37" si="8">AC11</f>
         <v>0.86102000000000001</v>
       </c>
-      <c r="L32" s="43">
-        <f>AD11</f>
+      <c r="L32" s="28">
+        <f t="shared" si="8"/>
         <v>0.82633999999999996</v>
       </c>
-      <c r="M32" s="43">
+      <c r="M32" s="28">
         <f>D50</f>
         <v>0.75722065694084995</v>
       </c>
-      <c r="N32" s="43">
-        <f t="shared" ref="N32:O37" si="7">E50</f>
+      <c r="N32" s="28">
+        <f t="shared" ref="N32:O37" si="9">E50</f>
         <v>0.79078542244594296</v>
       </c>
-      <c r="O32" s="43">
-        <f t="shared" si="7"/>
+      <c r="O32" s="28">
+        <f t="shared" si="9"/>
         <v>0.75221091588370603</v>
       </c>
-      <c r="P32" s="43">
+      <c r="P32" s="28">
         <f>K50</f>
         <v>0.85718000000000005</v>
       </c>
-      <c r="Q32" s="43">
-        <f t="shared" ref="Q32:R37" si="8">L50</f>
+      <c r="Q32" s="28">
+        <f t="shared" ref="Q32:R37" si="10">L50</f>
         <v>0.82977000000000001</v>
       </c>
-      <c r="R32" s="43">
-        <f t="shared" si="8"/>
+      <c r="R32" s="28">
+        <f t="shared" si="10"/>
         <v>0.82643999999999995</v>
       </c>
+      <c r="U32" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" s="28">
+        <v>0.39773650792426901</v>
+      </c>
+      <c r="W32" s="28">
+        <v>0.52481268909677503</v>
+      </c>
+      <c r="X32" s="28">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="Y32" s="28">
+        <v>0.58492</v>
+      </c>
+      <c r="Z32" s="28">
+        <v>0.65529999999999999</v>
+      </c>
+      <c r="AA32" s="28">
+        <v>0.54335</v>
+      </c>
+      <c r="AB32" s="28">
+        <v>0.79935999999999996</v>
+      </c>
+      <c r="AC32" s="28">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="AD32" s="28">
+        <v>0.75239999999999996</v>
+      </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="29">
         <f>$B$12</f>
         <v>585.35819956461705</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="29">
         <f>$C$12</f>
         <v>573.70993018248305</v>
       </c>
-      <c r="D33" s="44">
-        <f t="shared" ref="D33:D37" si="9">V12</f>
+      <c r="D33" s="29">
+        <f t="shared" ref="D33:D37" si="11">V12</f>
         <v>236.16172</v>
       </c>
-      <c r="E33" s="44">
-        <f t="shared" si="6"/>
+      <c r="E33" s="29">
+        <f t="shared" si="7"/>
         <v>333.89425</v>
       </c>
-      <c r="F33" s="44">
-        <f t="shared" si="6"/>
+      <c r="F33" s="29">
+        <f t="shared" si="7"/>
         <v>248.72363000000001</v>
       </c>
-      <c r="G33" s="44">
-        <f t="shared" si="6"/>
+      <c r="G33" s="29">
+        <f t="shared" si="7"/>
         <v>398.50585000000001</v>
       </c>
-      <c r="H33" s="44">
-        <f t="shared" si="6"/>
+      <c r="H33" s="29">
+        <f t="shared" si="7"/>
         <v>205.8837</v>
       </c>
-      <c r="I33" s="44">
-        <f t="shared" si="6"/>
+      <c r="I33" s="29">
+        <f t="shared" si="7"/>
         <v>209.02052</v>
       </c>
-      <c r="J33" s="44">
-        <f t="shared" si="6"/>
+      <c r="J33" s="29">
+        <f t="shared" si="7"/>
         <v>235.66945999999999</v>
       </c>
-      <c r="K33" s="44">
-        <f>AC12</f>
+      <c r="K33" s="29">
+        <f t="shared" si="8"/>
         <v>291.11</v>
       </c>
-      <c r="L33" s="44">
-        <f>AD12</f>
+      <c r="L33" s="29">
+        <f t="shared" si="8"/>
         <v>235.46321</v>
       </c>
-      <c r="M33" s="44">
-        <f t="shared" ref="M33:M37" si="10">D51</f>
+      <c r="M33" s="29">
+        <f t="shared" ref="M33:M37" si="12">D51</f>
         <v>243.35929527891099</v>
       </c>
-      <c r="N33" s="44">
-        <f t="shared" si="7"/>
+      <c r="N33" s="29">
+        <f t="shared" si="9"/>
         <v>231.974710992735</v>
       </c>
-      <c r="O33" s="44">
-        <f t="shared" si="7"/>
+      <c r="O33" s="29">
+        <f t="shared" si="9"/>
         <v>241.31411140247499</v>
       </c>
-      <c r="P33" s="44">
-        <f t="shared" ref="P33:P37" si="11">K51</f>
+      <c r="P33" s="29">
+        <f t="shared" ref="P33:P37" si="13">K51</f>
         <v>197.39032</v>
       </c>
-      <c r="Q33" s="44">
-        <f t="shared" si="8"/>
+      <c r="Q33" s="29">
+        <f t="shared" si="10"/>
         <v>220.63361</v>
       </c>
-      <c r="R33" s="44">
-        <f t="shared" si="8"/>
+      <c r="R33" s="29">
+        <f t="shared" si="10"/>
         <v>216.14597000000001</v>
       </c>
+      <c r="U33" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="V33" s="29">
+        <v>585.35819956461705</v>
+      </c>
+      <c r="W33" s="29">
+        <v>573.70993018248305</v>
+      </c>
+      <c r="X33" s="29">
+        <v>236.16172</v>
+      </c>
+      <c r="Y33" s="29">
+        <v>333.89425</v>
+      </c>
+      <c r="Z33" s="29">
+        <v>248.72363000000001</v>
+      </c>
+      <c r="AA33" s="29">
+        <v>398.50585000000001</v>
+      </c>
+      <c r="AB33" s="29">
+        <v>205.8837</v>
+      </c>
+      <c r="AC33" s="29">
+        <v>209.02052</v>
+      </c>
+      <c r="AD33" s="29">
+        <v>235.66945999999999</v>
+      </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="42" t="s">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="29">
         <f>$B$13</f>
         <v>505.07920994760201</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="29">
         <f>$C$13</f>
         <v>473.14111102327303</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="29">
+        <f t="shared" si="11"/>
+        <v>187.57248000000001</v>
+      </c>
+      <c r="E34" s="29">
+        <f t="shared" si="7"/>
+        <v>305.18646000000001</v>
+      </c>
+      <c r="F34" s="29">
+        <f t="shared" si="7"/>
+        <v>195.94677999999999</v>
+      </c>
+      <c r="G34" s="29">
+        <f t="shared" si="7"/>
+        <v>325.34257000000002</v>
+      </c>
+      <c r="H34" s="29">
+        <f t="shared" si="7"/>
+        <v>170.17706999999999</v>
+      </c>
+      <c r="I34" s="29">
+        <f t="shared" si="7"/>
+        <v>170.21517</v>
+      </c>
+      <c r="J34" s="29">
+        <f t="shared" si="7"/>
+        <v>188.99198000000001</v>
+      </c>
+      <c r="K34" s="29">
+        <f t="shared" si="8"/>
+        <v>244.68</v>
+      </c>
+      <c r="L34" s="29">
+        <f t="shared" si="8"/>
+        <v>187.31584000000001</v>
+      </c>
+      <c r="M34" s="29">
+        <f t="shared" si="12"/>
+        <v>190.49006449298199</v>
+      </c>
+      <c r="N34" s="29">
         <f t="shared" si="9"/>
+        <v>181.89402495562001</v>
+      </c>
+      <c r="O34" s="29">
+        <f t="shared" si="9"/>
+        <v>173.88340111534399</v>
+      </c>
+      <c r="P34" s="29">
+        <f t="shared" si="13"/>
+        <v>168.51536999999999</v>
+      </c>
+      <c r="Q34" s="29">
+        <f t="shared" si="10"/>
+        <v>193.72343000000001</v>
+      </c>
+      <c r="R34" s="29">
+        <f t="shared" si="10"/>
+        <v>193.26488000000001</v>
+      </c>
+      <c r="U34" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="V34" s="29">
+        <v>505.07920994760201</v>
+      </c>
+      <c r="W34" s="29">
+        <v>473.14111102327303</v>
+      </c>
+      <c r="X34" s="29">
         <v>187.57248000000001</v>
       </c>
-      <c r="E34" s="44">
-        <f t="shared" si="6"/>
+      <c r="Y34" s="29">
         <v>305.18646000000001</v>
       </c>
-      <c r="F34" s="44">
-        <f t="shared" si="6"/>
+      <c r="Z34" s="29">
         <v>195.94677999999999</v>
       </c>
-      <c r="G34" s="44">
-        <f t="shared" si="6"/>
+      <c r="AA34" s="29">
         <v>325.34257000000002</v>
       </c>
-      <c r="H34" s="44">
-        <f t="shared" si="6"/>
+      <c r="AB34" s="29">
         <v>170.17706999999999</v>
       </c>
-      <c r="I34" s="44">
-        <f t="shared" si="6"/>
+      <c r="AC34" s="29">
         <v>170.21517</v>
       </c>
-      <c r="J34" s="44">
-        <f t="shared" si="6"/>
+      <c r="AD34" s="29">
         <v>188.99198000000001</v>
       </c>
-      <c r="K34" s="44">
-        <f>AC13</f>
-        <v>244.68</v>
-      </c>
-      <c r="L34" s="44">
-        <f>AD13</f>
-        <v>187.31584000000001</v>
-      </c>
-      <c r="M34" s="44">
-        <f t="shared" si="10"/>
-        <v>190.49006449298199</v>
-      </c>
-      <c r="N34" s="44">
-        <f t="shared" si="7"/>
-        <v>181.89402495562001</v>
-      </c>
-      <c r="O34" s="44">
-        <f t="shared" si="7"/>
-        <v>173.88340111534399</v>
-      </c>
-      <c r="P34" s="44">
-        <f t="shared" si="11"/>
-        <v>168.51536999999999</v>
-      </c>
-      <c r="Q34" s="44">
-        <f t="shared" si="8"/>
-        <v>193.72343000000001</v>
-      </c>
-      <c r="R34" s="44">
-        <f t="shared" si="8"/>
-        <v>193.26488000000001</v>
-      </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="44">
+      <c r="B35" s="29">
         <f>$B$14</f>
         <v>-375.16142476241703</v>
       </c>
-      <c r="C35" s="44">
+      <c r="C35" s="29">
         <f>$C$14</f>
         <v>-428.84949976241597</v>
       </c>
-      <c r="D35" s="44">
+      <c r="D35" s="29">
+        <f t="shared" si="11"/>
+        <v>5.0127600000000001</v>
+      </c>
+      <c r="E35" s="29">
+        <f t="shared" si="7"/>
+        <v>-235.74709999999999</v>
+      </c>
+      <c r="F35" s="29">
+        <f t="shared" si="7"/>
+        <v>67.338260000000005</v>
+      </c>
+      <c r="G35" s="29">
+        <f t="shared" si="7"/>
+        <v>49.00179</v>
+      </c>
+      <c r="H35" s="29">
+        <f t="shared" si="7"/>
+        <v>-4.3332600000000001</v>
+      </c>
+      <c r="I35" s="29">
+        <f t="shared" si="7"/>
+        <v>-36.702370000000002</v>
+      </c>
+      <c r="J35" s="29">
+        <f t="shared" si="7"/>
+        <v>-37.538170000000001</v>
+      </c>
+      <c r="K35" s="29">
+        <f t="shared" si="8"/>
+        <v>136.29</v>
+      </c>
+      <c r="L35" s="29">
+        <f t="shared" si="8"/>
+        <v>89.946370000000002</v>
+      </c>
+      <c r="M35" s="29">
+        <f t="shared" si="12"/>
+        <v>5.8716042618343396</v>
+      </c>
+      <c r="N35" s="29">
         <f t="shared" si="9"/>
+        <v>31.668914219201302</v>
+      </c>
+      <c r="O35" s="29">
+        <f t="shared" si="9"/>
+        <v>9.2951625537961409</v>
+      </c>
+      <c r="P35" s="29">
+        <f t="shared" si="13"/>
+        <v>52.681609999999999</v>
+      </c>
+      <c r="Q35" s="29">
+        <f t="shared" si="10"/>
+        <v>-5.0073100000000004</v>
+      </c>
+      <c r="R35" s="29">
+        <f t="shared" si="10"/>
+        <v>73.015739999999994</v>
+      </c>
+      <c r="U35" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="29">
+        <v>-375.16142476241703</v>
+      </c>
+      <c r="W35" s="29">
+        <v>-428.84949976241597</v>
+      </c>
+      <c r="X35" s="29">
         <v>5.0127600000000001</v>
       </c>
-      <c r="E35" s="44">
-        <f t="shared" si="6"/>
+      <c r="Y35" s="29">
         <v>-235.74709999999999</v>
       </c>
-      <c r="F35" s="44">
-        <f t="shared" si="6"/>
+      <c r="Z35" s="29">
         <v>67.338260000000005</v>
       </c>
-      <c r="G35" s="44">
-        <f t="shared" si="6"/>
+      <c r="AA35" s="29">
         <v>49.00179</v>
       </c>
-      <c r="H35" s="44">
-        <f t="shared" si="6"/>
+      <c r="AB35" s="29">
         <v>-4.3332600000000001</v>
       </c>
-      <c r="I35" s="44">
-        <f t="shared" si="6"/>
+      <c r="AC35" s="29">
         <v>-36.702370000000002</v>
       </c>
-      <c r="J35" s="44">
-        <f t="shared" si="6"/>
+      <c r="AD35" s="29">
         <v>-37.538170000000001</v>
       </c>
-      <c r="K35" s="44">
-        <f>AC14</f>
-        <v>136.29</v>
-      </c>
-      <c r="L35" s="44">
-        <f>AD14</f>
-        <v>89.946370000000002</v>
-      </c>
-      <c r="M35" s="44">
-        <f t="shared" si="10"/>
-        <v>5.8716042618343396</v>
-      </c>
-      <c r="N35" s="44">
-        <f t="shared" si="7"/>
-        <v>31.668914219201302</v>
-      </c>
-      <c r="O35" s="44">
-        <f t="shared" si="7"/>
-        <v>9.2951625537961409</v>
-      </c>
-      <c r="P35" s="44">
-        <f t="shared" si="11"/>
-        <v>52.681609999999999</v>
-      </c>
-      <c r="Q35" s="44">
-        <f t="shared" si="8"/>
-        <v>-5.0073100000000004</v>
-      </c>
-      <c r="R35" s="44">
-        <f t="shared" si="8"/>
-        <v>73.015739999999994</v>
-      </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="29">
         <f>$B$15</f>
         <v>12043.293816520199</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C36" s="29">
         <f>$C$15</f>
         <v>8962.8026559521404</v>
       </c>
-      <c r="D36" s="44">
+      <c r="D36" s="29">
+        <f t="shared" si="11"/>
+        <v>1673.83</v>
+      </c>
+      <c r="E36" s="29">
+        <f t="shared" si="7"/>
+        <v>4920.72</v>
+      </c>
+      <c r="F36" s="29">
+        <f t="shared" si="7"/>
+        <v>2941.34</v>
+      </c>
+      <c r="G36" s="29">
+        <f t="shared" si="7"/>
+        <v>4318.9399999999996</v>
+      </c>
+      <c r="H36" s="29">
+        <f t="shared" si="7"/>
+        <v>2375.2600000000002</v>
+      </c>
+      <c r="I36" s="29">
+        <f t="shared" si="7"/>
+        <v>1819.68</v>
+      </c>
+      <c r="J36" s="29">
+        <f t="shared" si="7"/>
+        <v>2419.5300000000002</v>
+      </c>
+      <c r="K36" s="29">
+        <f t="shared" si="8"/>
+        <v>5291.34</v>
+      </c>
+      <c r="L36" s="29">
+        <f t="shared" si="8"/>
+        <v>3119.44</v>
+      </c>
+      <c r="M36" s="29">
+        <f t="shared" si="12"/>
+        <v>1704.23316722559</v>
+      </c>
+      <c r="N36" s="29">
         <f t="shared" si="9"/>
+        <v>2230.8070560995802</v>
+      </c>
+      <c r="O36" s="29">
+        <f t="shared" si="9"/>
+        <v>1304.8175854455801</v>
+      </c>
+      <c r="P36" s="29">
+        <f t="shared" si="13"/>
+        <v>2422.2199999999998</v>
+      </c>
+      <c r="Q36" s="29">
+        <f t="shared" si="10"/>
+        <v>2450.39</v>
+      </c>
+      <c r="R36" s="29">
+        <f t="shared" si="10"/>
+        <v>2319.91</v>
+      </c>
+      <c r="U36" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="V36" s="29">
+        <v>12043.293816520199</v>
+      </c>
+      <c r="W36" s="29">
+        <v>8962.8026559521404</v>
+      </c>
+      <c r="X36" s="29">
         <v>1673.83</v>
       </c>
-      <c r="E36" s="44">
-        <f t="shared" si="6"/>
+      <c r="Y36" s="29">
         <v>4920.72</v>
       </c>
-      <c r="F36" s="44">
-        <f t="shared" si="6"/>
+      <c r="Z36" s="29">
         <v>2941.34</v>
       </c>
-      <c r="G36" s="44">
-        <f t="shared" si="6"/>
+      <c r="AA36" s="29">
         <v>4318.9399999999996</v>
       </c>
-      <c r="H36" s="44">
-        <f t="shared" si="6"/>
+      <c r="AB36" s="29">
         <v>2375.2600000000002</v>
       </c>
-      <c r="I36" s="44">
-        <f t="shared" si="6"/>
+      <c r="AC36" s="29">
         <v>1819.68</v>
       </c>
-      <c r="J36" s="44">
-        <f t="shared" si="6"/>
+      <c r="AD36" s="29">
         <v>2419.5300000000002</v>
       </c>
-      <c r="K36" s="44">
-        <f>AC15</f>
-        <v>5291.34</v>
-      </c>
-      <c r="L36" s="44">
-        <f>AD15</f>
-        <v>3119.44</v>
-      </c>
-      <c r="M36" s="44">
-        <f t="shared" si="10"/>
-        <v>1704.23316722559</v>
-      </c>
-      <c r="N36" s="44">
-        <f t="shared" si="7"/>
-        <v>2230.8070560995802</v>
-      </c>
-      <c r="O36" s="44">
-        <f t="shared" si="7"/>
-        <v>1304.8175854455801</v>
-      </c>
-      <c r="P36" s="44">
-        <f t="shared" si="11"/>
-        <v>2422.2199999999998</v>
-      </c>
-      <c r="Q36" s="44">
-        <f t="shared" si="8"/>
-        <v>2450.39</v>
-      </c>
-      <c r="R36" s="44">
-        <f t="shared" si="8"/>
-        <v>2319.91</v>
-      </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="45">
+      <c r="B37" s="30">
         <f>$B$16</f>
         <v>2.2963707223832999</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="30">
         <f>$C$16</f>
         <v>2.1511623791097398</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="30">
+        <f t="shared" si="11"/>
+        <v>0.85280999999999996</v>
+      </c>
+      <c r="E37" s="30">
+        <f t="shared" si="7"/>
+        <v>1.3875500000000001</v>
+      </c>
+      <c r="F37" s="30">
+        <f t="shared" si="7"/>
+        <v>0.89088000000000001</v>
+      </c>
+      <c r="G37" s="30">
+        <f t="shared" si="7"/>
+        <v>1.47919</v>
+      </c>
+      <c r="H37" s="30">
+        <f t="shared" si="7"/>
+        <v>0.77371999999999996</v>
+      </c>
+      <c r="I37" s="30">
+        <f t="shared" si="7"/>
+        <v>0.77417000000000002</v>
+      </c>
+      <c r="J37" s="30">
+        <f t="shared" si="7"/>
+        <v>0.85926000000000002</v>
+      </c>
+      <c r="K37" s="30">
+        <f t="shared" si="8"/>
+        <v>1.1175999999999999</v>
+      </c>
+      <c r="L37" s="30">
+        <f t="shared" si="8"/>
+        <v>0.86968999999999996</v>
+      </c>
+      <c r="M37" s="30">
+        <f t="shared" si="12"/>
+        <v>0.866073673972789</v>
+      </c>
+      <c r="N37" s="30">
         <f t="shared" si="9"/>
+        <v>0.82699130207295402</v>
+      </c>
+      <c r="O37" s="30">
+        <f t="shared" si="9"/>
+        <v>0.790570555202883</v>
+      </c>
+      <c r="P37" s="30">
+        <f t="shared" si="13"/>
+        <v>0.76971999999999996</v>
+      </c>
+      <c r="Q37" s="30">
+        <f t="shared" si="10"/>
+        <v>0.88485999999999998</v>
+      </c>
+      <c r="R37" s="30">
+        <f t="shared" si="10"/>
+        <v>0.88275999999999999</v>
+      </c>
+      <c r="U37" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="V37" s="30">
+        <v>2.2963707223832999</v>
+      </c>
+      <c r="W37" s="30">
+        <v>2.1511623791097398</v>
+      </c>
+      <c r="X37" s="30">
         <v>0.85280999999999996</v>
       </c>
-      <c r="E37" s="45">
-        <f t="shared" si="6"/>
+      <c r="Y37" s="30">
         <v>1.3875500000000001</v>
       </c>
-      <c r="F37" s="45">
-        <f t="shared" si="6"/>
+      <c r="Z37" s="30">
         <v>0.89088000000000001</v>
       </c>
-      <c r="G37" s="45">
-        <f t="shared" si="6"/>
+      <c r="AA37" s="30">
         <v>1.47919</v>
       </c>
-      <c r="H37" s="45">
-        <f t="shared" si="6"/>
+      <c r="AB37" s="30">
         <v>0.77371999999999996</v>
       </c>
-      <c r="I37" s="45">
-        <f t="shared" si="6"/>
+      <c r="AC37" s="30">
         <v>0.77417000000000002</v>
       </c>
-      <c r="J37" s="45">
-        <f t="shared" si="6"/>
+      <c r="AD37" s="30">
         <v>0.85926000000000002</v>
       </c>
-      <c r="K37" s="45">
-        <f>AC16</f>
-        <v>1.1175999999999999</v>
-      </c>
-      <c r="L37" s="45">
-        <f>AD16</f>
-        <v>0.86968999999999996</v>
-      </c>
-      <c r="M37" s="45">
-        <f t="shared" si="10"/>
-        <v>0.866073673972789</v>
-      </c>
-      <c r="N37" s="45">
-        <f t="shared" si="7"/>
-        <v>0.82699130207295402</v>
-      </c>
-      <c r="O37" s="45">
-        <f t="shared" si="7"/>
-        <v>0.790570555202883</v>
-      </c>
-      <c r="P37" s="45">
-        <f t="shared" si="11"/>
-        <v>0.76971999999999996</v>
-      </c>
-      <c r="Q37" s="45">
-        <f t="shared" si="8"/>
-        <v>0.88485999999999998</v>
-      </c>
-      <c r="R37" s="45">
-        <f t="shared" si="8"/>
-        <v>0.88275999999999999</v>
-      </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:18" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="12" t="s">
         <v>19</v>
@@ -4302,25 +4349,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="23" t="s">
+      <c r="I42" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="24"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="42"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -4333,15 +4380,15 @@
         <v>0.71511616084183505</v>
       </c>
       <c r="D43" s="13">
-        <f t="shared" ref="D43:F48" si="12">P3</f>
+        <f t="shared" ref="D43:F48" si="14">P3</f>
         <v>0.79549399019883904</v>
       </c>
       <c r="E43" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.83404310143979898</v>
       </c>
       <c r="F43" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.811631930572148</v>
       </c>
       <c r="H43" s="5" t="s">
@@ -4356,19 +4403,19 @@
         <v>0.71511616084183505</v>
       </c>
       <c r="K43" s="13">
-        <f t="shared" ref="K43:M48" si="13">S3</f>
+        <f t="shared" ref="K43:M48" si="15">S3</f>
         <v>0.88009999999999999</v>
       </c>
       <c r="L43" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.91481000000000001</v>
       </c>
       <c r="M43" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.90980000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>2</v>
       </c>
@@ -4381,15 +4428,15 @@
         <v>318.60121933773701</v>
       </c>
       <c r="D44" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>235.35118613417299</v>
       </c>
       <c r="E44" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>203.98336248729899</v>
       </c>
       <c r="F44" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>206.87060566903401</v>
       </c>
       <c r="H44" s="5" t="s">
@@ -4404,19 +4451,19 @@
         <v>318.60121933773701</v>
       </c>
       <c r="K44" s="14">
-        <f t="shared" si="13"/>
-        <v>0.88009999999999999</v>
+        <f t="shared" si="15"/>
+        <v>148</v>
       </c>
       <c r="L44" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>155.02667</v>
       </c>
       <c r="M44" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>160.72957</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -4429,15 +4476,15 @@
         <v>243.62768709391699</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>206.00623185761401</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>169.351818070794</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>177.97778245741</v>
       </c>
       <c r="H45" s="5" t="s">
@@ -4452,19 +4499,19 @@
         <v>243.62768709391699</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>165.06471999999999</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>126.46784</v>
       </c>
       <c r="M45" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>131.67061000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
@@ -4477,15 +4524,15 @@
         <v>114.603179488891</v>
       </c>
       <c r="D46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>193.857194737508</v>
       </c>
       <c r="E46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>154.000218244341</v>
       </c>
       <c r="F46" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>159.01040396538099</v>
       </c>
       <c r="H46" s="5" t="s">
@@ -4500,19 +4547,19 @@
         <v>114.603179488891</v>
       </c>
       <c r="K46" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>24.861910000000002</v>
       </c>
       <c r="L46" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.603090000000002</v>
       </c>
       <c r="M46" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>43.669170000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>18</v>
       </c>
@@ -4525,15 +4572,15 @@
         <v>5243.57686626132</v>
       </c>
       <c r="D47" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3819.21668252272</v>
       </c>
       <c r="E47" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2525.3496100518801</v>
       </c>
       <c r="F47" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4175.3776112124597</v>
       </c>
       <c r="H47" s="5" t="s">
@@ -4548,19 +4595,19 @@
         <v>5243.57686626132</v>
       </c>
       <c r="K47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2397.92</v>
       </c>
       <c r="L47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1957.58</v>
       </c>
       <c r="M47" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1971.03</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>17</v>
       </c>
@@ -4573,15 +4620,15 @@
         <v>1.28887554345791</v>
       </c>
       <c r="D48" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0898449072368499</v>
       </c>
       <c r="E48" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.89593025799008397</v>
       </c>
       <c r="F48" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.94156462192164303</v>
       </c>
       <c r="H48" s="5" t="s">
@@ -4596,35 +4643,35 @@
         <v>1.28887554345791</v>
       </c>
       <c r="K48" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.87324999999999997</v>
       </c>
       <c r="L48" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.66905999999999999</v>
       </c>
       <c r="M48" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.69657999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="24"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="23" t="s">
+      <c r="I49" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="24"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="42"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
@@ -4639,15 +4686,15 @@
         <v>0.52481268909677503</v>
       </c>
       <c r="D50" s="13">
-        <f t="shared" ref="D50:F55" si="14">P11</f>
+        <f t="shared" ref="D50:F55" si="16">P11</f>
         <v>0.75722065694084995</v>
       </c>
       <c r="E50" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.79078542244594296</v>
       </c>
       <c r="F50" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.75221091588370603</v>
       </c>
       <c r="H50" s="5" t="s">
@@ -4662,15 +4709,15 @@
         <v>0.52481268909677503</v>
       </c>
       <c r="K50" s="13">
-        <f t="shared" ref="K50:M55" si="15">S11</f>
+        <f t="shared" ref="K50:M55" si="17">S11</f>
         <v>0.85718000000000005</v>
       </c>
       <c r="L50" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.82977000000000001</v>
       </c>
       <c r="M50" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.82643999999999995</v>
       </c>
     </row>
@@ -4687,15 +4734,15 @@
         <v>573.70993018248305</v>
       </c>
       <c r="D51" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>243.35929527891099</v>
       </c>
       <c r="E51" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>231.974710992735</v>
       </c>
       <c r="F51" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>241.31411140247499</v>
       </c>
       <c r="H51" s="5" t="s">
@@ -4710,15 +4757,15 @@
         <v>573.70993018248305</v>
       </c>
       <c r="K51" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>197.39032</v>
       </c>
       <c r="L51" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>220.63361</v>
       </c>
       <c r="M51" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>216.14597000000001</v>
       </c>
     </row>
@@ -4735,15 +4782,15 @@
         <v>473.14111102327303</v>
       </c>
       <c r="D52" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>190.49006449298199</v>
       </c>
       <c r="E52" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>181.89402495562001</v>
       </c>
       <c r="F52" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>173.88340111534399</v>
       </c>
       <c r="H52" s="5" t="s">
@@ -4758,15 +4805,15 @@
         <v>473.14111102327303</v>
       </c>
       <c r="K52" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>168.51536999999999</v>
       </c>
       <c r="L52" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>193.72343000000001</v>
       </c>
       <c r="M52" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>193.26488000000001</v>
       </c>
     </row>
@@ -4783,15 +4830,15 @@
         <v>-428.84949976241597</v>
       </c>
       <c r="D53" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.8716042618343396</v>
       </c>
       <c r="E53" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>31.668914219201302</v>
       </c>
       <c r="F53" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.2951625537961409</v>
       </c>
       <c r="H53" s="5" t="s">
@@ -4806,15 +4853,15 @@
         <v>-428.84949976241597</v>
       </c>
       <c r="K53" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>52.681609999999999</v>
       </c>
       <c r="L53" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-5.0073100000000004</v>
       </c>
       <c r="M53" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>73.015739999999994</v>
       </c>
     </row>
@@ -4831,15 +4878,15 @@
         <v>8962.8026559521404</v>
       </c>
       <c r="D54" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1704.23316722559</v>
       </c>
       <c r="E54" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2230.8070560995802</v>
       </c>
       <c r="F54" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1304.8175854455801</v>
       </c>
       <c r="H54" s="5" t="s">
@@ -4854,15 +4901,15 @@
         <v>8962.8026559521404</v>
       </c>
       <c r="K54" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2422.2199999999998</v>
       </c>
       <c r="L54" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2450.39</v>
       </c>
       <c r="M54" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2319.91</v>
       </c>
     </row>
@@ -4879,15 +4926,15 @@
         <v>2.1511623791097398</v>
       </c>
       <c r="D55" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.866073673972789</v>
       </c>
       <c r="E55" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.82699130207295402</v>
       </c>
       <c r="F55" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.790570555202883</v>
       </c>
       <c r="H55" s="6" t="s">
@@ -4902,19 +4949,19 @@
         <v>2.1511623791097398</v>
       </c>
       <c r="K55" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.76971999999999996</v>
       </c>
       <c r="L55" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.88485999999999998</v>
       </c>
       <c r="M55" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.88275999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="20" t="s">
         <v>19</v>
@@ -4933,12 +4980,12 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
       <c r="L59" s="2"/>
       <c r="R59"/>
     </row>
@@ -4971,19 +5018,19 @@
         <v>2</v>
       </c>
       <c r="B61" s="14">
-        <f t="shared" ref="B61:C65" si="16">B44</f>
+        <f t="shared" ref="B61:C65" si="18">B44</f>
         <v>212.959093374106</v>
       </c>
       <c r="C61" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>318.60121933773701</v>
       </c>
       <c r="D61" s="14">
-        <f t="shared" ref="D61:E65" si="17">AC4</f>
+        <f t="shared" ref="D61:E65" si="19">AC4</f>
         <v>363.98</v>
       </c>
       <c r="E61" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>161.91526999999999</v>
       </c>
       <c r="F61" s="14"/>
@@ -4995,19 +5042,19 @@
         <v>3</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>171.77557861519901</v>
       </c>
       <c r="C62" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>243.62768709391699</v>
       </c>
       <c r="D62" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>320.5</v>
       </c>
       <c r="E62" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>141.05745999999999</v>
       </c>
       <c r="F62" s="14"/>
@@ -5019,19 +5066,19 @@
         <v>4</v>
       </c>
       <c r="B63" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-21.589624677775099</v>
       </c>
       <c r="C63" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>114.603179488891</v>
       </c>
       <c r="D63" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>207.52</v>
       </c>
       <c r="E63" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20.699269999999999</v>
       </c>
       <c r="F63" s="14"/>
@@ -5043,19 +5090,19 @@
         <v>18</v>
       </c>
       <c r="B64" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3611.44141869947</v>
       </c>
       <c r="C64" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5243.57686626132</v>
       </c>
       <c r="D64" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4808.3999999999996</v>
       </c>
       <c r="E64" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3235.86</v>
       </c>
       <c r="F64" s="14"/>
@@ -5067,19 +5114,19 @@
         <v>17</v>
       </c>
       <c r="B65" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.90875279768639095</v>
       </c>
       <c r="C65" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.28887554345791</v>
       </c>
       <c r="D65" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.69554</v>
       </c>
       <c r="E65" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.81169999999999998</v>
       </c>
       <c r="F65" s="16"/>
@@ -5088,13 +5135,13 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="29"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="22"/>
       <c r="L66" s="2"/>
       <c r="R66"/>
     </row>
@@ -5125,19 +5172,19 @@
         <v>2</v>
       </c>
       <c r="B68" s="14">
-        <f t="shared" ref="B68:C72" si="18">B51</f>
+        <f t="shared" ref="B68:C72" si="20">B51</f>
         <v>585.35819956461705</v>
       </c>
       <c r="C68" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>573.70993018248305</v>
       </c>
       <c r="D68" s="14">
-        <f t="shared" ref="D68:E72" si="19">AC12</f>
+        <f t="shared" ref="D68:E72" si="21">AC12</f>
         <v>291.11</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>235.46321</v>
       </c>
       <c r="F68" s="14"/>
@@ -5147,19 +5194,19 @@
         <v>3</v>
       </c>
       <c r="B69" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>505.07920994760201</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>473.14111102327303</v>
       </c>
       <c r="D69" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>244.68</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>187.31584000000001</v>
       </c>
       <c r="F69" s="14"/>
@@ -5169,19 +5216,19 @@
         <v>4</v>
       </c>
       <c r="B70" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-375.16142476241703</v>
       </c>
       <c r="C70" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-428.84949976241597</v>
       </c>
       <c r="D70" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>136.29</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>89.946370000000002</v>
       </c>
       <c r="F70" s="14"/>
@@ -5191,19 +5238,19 @@
         <v>18</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>12043.293816520199</v>
       </c>
       <c r="C71" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8962.8026559521404</v>
       </c>
       <c r="D71" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5291.34</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3119.44</v>
       </c>
       <c r="F71" s="14"/>
@@ -5213,42 +5260,286 @@
         <v>17</v>
       </c>
       <c r="B72" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.2963707223832999</v>
       </c>
       <c r="C72" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.1511623791097398</v>
       </c>
       <c r="D72" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.1175999999999999</v>
       </c>
       <c r="E72" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.86968999999999996</v>
       </c>
       <c r="F72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B31:R31"/>
     <mergeCell ref="B59:E59"/>
     <mergeCell ref="B66:E66"/>
     <mergeCell ref="B49:F49"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="I42:M42"/>
     <mergeCell ref="I49:M49"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:AD22"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B31:R31"/>
     <mergeCell ref="D22:J22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="P22:R22"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:R3">
+    <cfRule type="colorScale" priority="694">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:R5 G7:R8">
+    <cfRule type="colorScale" priority="696">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:R4">
+    <cfRule type="colorScale" priority="695">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:R5">
+    <cfRule type="colorScale" priority="693">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:R8">
+    <cfRule type="colorScale" priority="691">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="colorScale" priority="710">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F5 B7:F8 B8:AD8">
+    <cfRule type="colorScale" priority="711">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F4">
+    <cfRule type="colorScale" priority="712">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:F5">
+    <cfRule type="colorScale" priority="713">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:F8 B8:AD8">
+    <cfRule type="colorScale" priority="715">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:R3">
+    <cfRule type="colorScale" priority="716">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:R4">
+    <cfRule type="colorScale" priority="718">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:R5">
+    <cfRule type="colorScale" priority="720">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:R8 B8:AD8">
+    <cfRule type="colorScale" priority="724">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:AD8">
+    <cfRule type="colorScale" priority="742">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:AD3">
+    <cfRule type="colorScale" priority="666">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:AD4">
+    <cfRule type="colorScale" priority="665">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:AD5">
+    <cfRule type="colorScale" priority="664">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:AD7">
+    <cfRule type="colorScale" priority="662">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:AD8">
+    <cfRule type="colorScale" priority="661">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:R11">
     <cfRule type="colorScale" priority="646">
       <colorScale>
         <cfvo type="min"/>
@@ -5260,7 +5551,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:R5 G7:R8">
+  <conditionalFormatting sqref="G11:R13 G15:R16">
     <cfRule type="colorScale" priority="648">
       <colorScale>
         <cfvo type="min"/>
@@ -5272,7 +5563,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:R4">
+  <conditionalFormatting sqref="G12:R12">
     <cfRule type="colorScale" priority="647">
       <colorScale>
         <cfvo type="min"/>
@@ -5284,7 +5575,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:R5">
+  <conditionalFormatting sqref="G13:R13">
     <cfRule type="colorScale" priority="645">
       <colorScale>
         <cfvo type="min"/>
@@ -5296,7 +5587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:R8">
+  <conditionalFormatting sqref="G15:R16">
     <cfRule type="colorScale" priority="643">
       <colorScale>
         <cfvo type="min"/>
@@ -5308,792 +5599,552 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="colorScale" priority="662">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F5 B7:F8 B8:AD8">
-    <cfRule type="colorScale" priority="663">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F4">
-    <cfRule type="colorScale" priority="664">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:F5">
-    <cfRule type="colorScale" priority="665">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:F8 B8:AD8">
-    <cfRule type="colorScale" priority="667">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:R3">
-    <cfRule type="colorScale" priority="668">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:R4">
-    <cfRule type="colorScale" priority="670">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:R5">
-    <cfRule type="colorScale" priority="672">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:R8 B8:AD8">
-    <cfRule type="colorScale" priority="676">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:AD8">
-    <cfRule type="colorScale" priority="694">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:AD3">
+  <conditionalFormatting sqref="B11:F11">
+    <cfRule type="colorScale" priority="649">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F13 B15:F16 B16:AD16">
+    <cfRule type="colorScale" priority="650">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:F12">
+    <cfRule type="colorScale" priority="651">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:F13">
+    <cfRule type="colorScale" priority="652">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:F16 B16:AD16">
+    <cfRule type="colorScale" priority="654">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:R11">
+    <cfRule type="colorScale" priority="655">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:R12">
+    <cfRule type="colorScale" priority="656">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:R13">
+    <cfRule type="colorScale" priority="657">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:R16 B16:AD16">
+    <cfRule type="colorScale" priority="659">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:AD16">
+    <cfRule type="colorScale" priority="660">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V15:V16 W14:AC16 B11:AD11 V12:AD13 AD14:AD15">
+    <cfRule type="colorScale" priority="642">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:U12">
+    <cfRule type="colorScale" priority="641">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:U13">
+    <cfRule type="colorScale" priority="640">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:U15">
+    <cfRule type="colorScale" priority="638">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:AD16">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:F43">
+    <cfRule type="colorScale" priority="625">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:F45 B47:F48">
+    <cfRule type="colorScale" priority="626">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:F44 D45:F45 D47:F48">
+    <cfRule type="colorScale" priority="627">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:F45">
+    <cfRule type="colorScale" priority="628">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:F48">
+    <cfRule type="colorScale" priority="630">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:F43">
+    <cfRule type="colorScale" priority="631">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:F44">
+    <cfRule type="colorScale" priority="632">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:F45">
+    <cfRule type="colorScale" priority="633">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:F48">
+    <cfRule type="colorScale" priority="635">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:F48">
+    <cfRule type="colorScale" priority="636">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:F43">
+    <cfRule type="colorScale" priority="624">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:F44">
+    <cfRule type="colorScale" priority="623">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:F45">
+    <cfRule type="colorScale" priority="622">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:F47">
+    <cfRule type="colorScale" priority="620">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:F48">
+    <cfRule type="colorScale" priority="619">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:F50">
+    <cfRule type="colorScale" priority="607">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:F52 B54:F55">
+    <cfRule type="colorScale" priority="608">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:F51 D52:F52 D54:F55">
+    <cfRule type="colorScale" priority="609">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:F52">
+    <cfRule type="colorScale" priority="610">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:F55">
+    <cfRule type="colorScale" priority="612">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:F50">
+    <cfRule type="colorScale" priority="613">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:F51">
+    <cfRule type="colorScale" priority="614">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:F52">
+    <cfRule type="colorScale" priority="615">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:F55">
+    <cfRule type="colorScale" priority="617">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55:F55">
     <cfRule type="colorScale" priority="618">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:AD4">
-    <cfRule type="colorScale" priority="617">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:AD5">
-    <cfRule type="colorScale" priority="616">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:AD7">
-    <cfRule type="colorScale" priority="614">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:AD8">
-    <cfRule type="colorScale" priority="613">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:R11">
-    <cfRule type="colorScale" priority="598">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:R13 G15:R16">
-    <cfRule type="colorScale" priority="600">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:R12">
-    <cfRule type="colorScale" priority="599">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:R13">
-    <cfRule type="colorScale" priority="597">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:R16">
-    <cfRule type="colorScale" priority="595">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:F11">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:F50">
+    <cfRule type="colorScale" priority="606">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:F51">
+    <cfRule type="colorScale" priority="605">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:F52">
+    <cfRule type="colorScale" priority="604">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:F54">
+    <cfRule type="colorScale" priority="602">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55:F55">
     <cfRule type="colorScale" priority="601">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:F13 B15:F16 B16:AD16">
-    <cfRule type="colorScale" priority="602">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:F12">
-    <cfRule type="colorScale" priority="603">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:F13">
-    <cfRule type="colorScale" priority="604">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:F16 B16:AD16">
-    <cfRule type="colorScale" priority="606">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:R11">
-    <cfRule type="colorScale" priority="607">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:R12">
-    <cfRule type="colorScale" priority="608">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:R13">
-    <cfRule type="colorScale" priority="609">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:R16 B16:AD16">
-    <cfRule type="colorScale" priority="611">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:AD16">
-    <cfRule type="colorScale" priority="612">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V15:V16 W14:AC16 B11:AD11 V12:AD13 AD14:AD15">
-    <cfRule type="colorScale" priority="594">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:U12">
-    <cfRule type="colorScale" priority="593">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:U13">
-    <cfRule type="colorScale" priority="592">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:U15">
-    <cfRule type="colorScale" priority="590">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:AD16">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:F43">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18:U18">
     <cfRule type="colorScale" priority="577">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:F45 B47:F48">
-    <cfRule type="colorScale" priority="578">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:F44 D45:F45 D47:F48">
-    <cfRule type="colorScale" priority="579">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:F45">
-    <cfRule type="colorScale" priority="580">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:F48">
-    <cfRule type="colorScale" priority="582">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:F43">
-    <cfRule type="colorScale" priority="583">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:F44">
-    <cfRule type="colorScale" priority="584">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:F45">
-    <cfRule type="colorScale" priority="585">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:F48">
-    <cfRule type="colorScale" priority="587">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:F48">
-    <cfRule type="colorScale" priority="588">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:F43">
-    <cfRule type="colorScale" priority="576">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:F44">
-    <cfRule type="colorScale" priority="575">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:F45">
-    <cfRule type="colorScale" priority="574">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:F47">
-    <cfRule type="colorScale" priority="572">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:F48">
-    <cfRule type="colorScale" priority="571">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:F50">
-    <cfRule type="colorScale" priority="559">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:F52 B54:F55">
-    <cfRule type="colorScale" priority="560">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:F51 D52:F52 D54:F55">
-    <cfRule type="colorScale" priority="561">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:F52">
-    <cfRule type="colorScale" priority="562">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:F55">
-    <cfRule type="colorScale" priority="564">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:F50">
-    <cfRule type="colorScale" priority="565">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:F51">
-    <cfRule type="colorScale" priority="566">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:F52">
-    <cfRule type="colorScale" priority="567">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:F55">
-    <cfRule type="colorScale" priority="569">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55:F55">
-    <cfRule type="colorScale" priority="570">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:F50">
-    <cfRule type="colorScale" priority="558">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:F51">
-    <cfRule type="colorScale" priority="557">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:F52">
-    <cfRule type="colorScale" priority="556">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:F54">
-    <cfRule type="colorScale" priority="554">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55:F55">
-    <cfRule type="colorScale" priority="553">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18:U18">
-    <cfRule type="colorScale" priority="529">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -6101,7 +6152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="colorScale" priority="496">
+    <cfRule type="colorScale" priority="544">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6113,7 +6164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="colorScale" priority="497">
+    <cfRule type="colorScale" priority="545">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6125,7 +6176,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="colorScale" priority="498">
+    <cfRule type="colorScale" priority="546">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6137,29 +6188,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:Q18">
-    <cfRule type="expression" dxfId="77" priority="493">
+    <cfRule type="expression" dxfId="89" priority="541">
       <formula>AND(ABS(B18)&gt;200, ABS(B18)&lt;=300)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:U18">
-    <cfRule type="expression" dxfId="76" priority="478">
+    <cfRule type="expression" dxfId="88" priority="526">
       <formula>ABS(B18)&gt;300</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="485">
+    <cfRule type="expression" dxfId="87" priority="533">
       <formula>AND(ABS(B18)&gt;150, ABS(B18)&lt;=200)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="486">
+    <cfRule type="expression" dxfId="86" priority="534">
       <formula>AND(ABS(B18)&gt;50, ABS(B18)&lt;=100)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="494">
+    <cfRule type="expression" dxfId="85" priority="542">
       <formula>AND(ABS(B18)&gt;100, ABS(B18)&lt;=150)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="495">
+    <cfRule type="expression" dxfId="84" priority="543">
       <formula>AND(ABS(B18)&gt;0, ABS(B18)&lt;=50)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="colorScale" priority="464">
+    <cfRule type="colorScale" priority="512">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6171,7 +6222,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="colorScale" priority="465">
+    <cfRule type="colorScale" priority="513">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6183,7 +6234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="colorScale" priority="466">
+    <cfRule type="colorScale" priority="514">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6195,28 +6246,462 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="expression" dxfId="71" priority="461">
+    <cfRule type="expression" dxfId="83" priority="509">
       <formula>AND(ABS(V6)&gt;200, ABS(V6)&lt;=300)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="expression" dxfId="70" priority="458">
+    <cfRule type="expression" dxfId="82" priority="506">
       <formula>ABS(V6)&gt;300</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="459">
+    <cfRule type="expression" dxfId="81" priority="507">
       <formula>AND(ABS(V6)&gt;150, ABS(V6)&lt;=200)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="460">
+    <cfRule type="expression" dxfId="80" priority="508">
       <formula>AND(ABS(V6)&gt;50, ABS(V6)&lt;=100)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="462">
+    <cfRule type="expression" dxfId="79" priority="510">
       <formula>AND(ABS(V6)&gt;100, ABS(V6)&lt;=150)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="463">
+    <cfRule type="expression" dxfId="78" priority="511">
       <formula>AND(ABS(V6)&gt;0, ABS(V6)&lt;=50)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:U19">
+    <cfRule type="colorScale" priority="270">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
+    <cfRule type="colorScale" priority="267">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
+    <cfRule type="colorScale" priority="268">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
+    <cfRule type="colorScale" priority="269">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Q19">
+    <cfRule type="expression" dxfId="77" priority="264">
+      <formula>AND(ABS(B19)&gt;200, ABS(B19)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:U19">
+    <cfRule type="expression" dxfId="76" priority="261">
+      <formula>ABS(B19)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="262">
+      <formula>AND(ABS(B19)&gt;150, ABS(B19)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="263">
+      <formula>AND(ABS(B19)&gt;50, ABS(B19)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="265">
+      <formula>AND(ABS(B19)&gt;100, ABS(B19)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="266">
+      <formula>AND(ABS(B19)&gt;0, ABS(B19)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:U6 W6:AD6">
+    <cfRule type="colorScale" priority="260">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6">
+    <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6">
+    <cfRule type="colorScale" priority="258">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6">
+    <cfRule type="colorScale" priority="259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6">
+    <cfRule type="expression" dxfId="71" priority="254">
+      <formula>AND(ABS(B6)&gt;200, ABS(B6)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:U6 W6:AD6">
+    <cfRule type="expression" dxfId="70" priority="251">
+      <formula>ABS(B6)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="252">
+      <formula>AND(ABS(B6)&gt;150, ABS(B6)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="253">
+      <formula>AND(ABS(B6)&gt;50, ABS(B6)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="255">
+      <formula>AND(ABS(B6)&gt;100, ABS(B6)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="256">
+      <formula>AND(ABS(B6)&gt;0, ABS(B6)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14:U14">
+    <cfRule type="colorScale" priority="250">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:Q14 V14">
+    <cfRule type="colorScale" priority="247">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:Q14 V14">
+    <cfRule type="colorScale" priority="248">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:Q14 V14">
+    <cfRule type="colorScale" priority="249">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:Q14 V14">
+    <cfRule type="expression" dxfId="65" priority="244">
+      <formula>AND(ABS(B14)&gt;200, ABS(B14)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:V14">
+    <cfRule type="expression" dxfId="64" priority="241">
+      <formula>ABS(B14)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="242">
+      <formula>AND(ABS(B14)&gt;150, ABS(B14)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="243">
+      <formula>AND(ABS(B14)&gt;50, ABS(B14)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="245">
+      <formula>AND(ABS(B14)&gt;100, ABS(B14)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="246">
+      <formula>AND(ABS(B14)&gt;0, ABS(B14)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:F46">
+    <cfRule type="colorScale" priority="238">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:F46">
+    <cfRule type="colorScale" priority="239">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:F46">
+    <cfRule type="colorScale" priority="240">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:F46">
+    <cfRule type="expression" dxfId="59" priority="235">
+      <formula>AND(ABS(B46)&gt;200, ABS(B46)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:F46">
+    <cfRule type="expression" dxfId="58" priority="232">
+      <formula>ABS(B46)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="233">
+      <formula>AND(ABS(B46)&gt;150, ABS(B46)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="234">
+      <formula>AND(ABS(B46)&gt;50, ABS(B46)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="236">
+      <formula>AND(ABS(B46)&gt;100, ABS(B46)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="237">
+      <formula>AND(ABS(B46)&gt;0, ABS(B46)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:F53">
+    <cfRule type="colorScale" priority="229">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:F53">
+    <cfRule type="colorScale" priority="230">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:F53">
+    <cfRule type="colorScale" priority="231">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:F53">
+    <cfRule type="expression" dxfId="53" priority="226">
+      <formula>AND(ABS(B53)&gt;200, ABS(B53)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:F53">
+    <cfRule type="expression" dxfId="52" priority="223">
+      <formula>ABS(B53)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="224">
+      <formula>AND(ABS(B53)&gt;150, ABS(B53)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="225">
+      <formula>AND(ABS(B53)&gt;50, ABS(B53)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="227">
+      <formula>AND(ABS(B53)&gt;100, ABS(B53)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="228">
+      <formula>AND(ABS(B53)&gt;0, ABS(B53)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:M43">
+    <cfRule type="colorScale" priority="213">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:M45 I47:M48">
+    <cfRule type="colorScale" priority="214">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:M44 K45:M45 K47:M48">
+    <cfRule type="colorScale" priority="215">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:M45">
+    <cfRule type="colorScale" priority="216">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:M48">
+    <cfRule type="colorScale" priority="217">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:M43">
+    <cfRule type="colorScale" priority="218">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:M44">
+    <cfRule type="colorScale" priority="219">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:M45">
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:M48">
+    <cfRule type="colorScale" priority="221">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:M48">
     <cfRule type="colorScale" priority="222">
       <colorScale>
         <cfvo type="min"/>
@@ -6228,77 +6713,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="colorScale" priority="219">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="colorScale" priority="220">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="colorScale" priority="221">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:Q19">
-    <cfRule type="expression" dxfId="65" priority="216">
-      <formula>AND(ABS(B19)&gt;200, ABS(B19)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:U19">
-    <cfRule type="expression" dxfId="64" priority="213">
-      <formula>ABS(B19)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="214">
-      <formula>AND(ABS(B19)&gt;150, ABS(B19)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="215">
-      <formula>AND(ABS(B19)&gt;50, ABS(B19)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="217">
-      <formula>AND(ABS(B19)&gt;100, ABS(B19)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="218">
-      <formula>AND(ABS(B19)&gt;0, ABS(B19)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S6:U6 W6:AD6">
+  <conditionalFormatting sqref="I43:M43">
     <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Q6">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:M44">
+    <cfRule type="colorScale" priority="211">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:M45">
+    <cfRule type="colorScale" priority="210">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:M47">
     <cfRule type="colorScale" priority="209">
       <colorScale>
         <cfvo type="min"/>
@@ -6310,53 +6761,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Q6">
-    <cfRule type="colorScale" priority="210">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Q6">
-    <cfRule type="colorScale" priority="211">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Q6">
-    <cfRule type="expression" dxfId="59" priority="206">
-      <formula>AND(ABS(B6)&gt;200, ABS(B6)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:U6 W6:AD6">
-    <cfRule type="expression" dxfId="58" priority="203">
-      <formula>ABS(B6)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="204">
-      <formula>AND(ABS(B6)&gt;150, ABS(B6)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="205">
-      <formula>AND(ABS(B6)&gt;50, ABS(B6)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="207">
-      <formula>AND(ABS(B6)&gt;100, ABS(B6)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="208">
-      <formula>AND(ABS(B6)&gt;0, ABS(B6)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14:U14">
+  <conditionalFormatting sqref="I48:M48">
+    <cfRule type="colorScale" priority="208">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:M50">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:M52 I54:M55">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:M51 K52:M52 K54:M55">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:M52">
+    <cfRule type="colorScale" priority="201">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:M55">
     <cfRule type="colorScale" priority="202">
       <colorScale>
         <cfvo type="min"/>
@@ -6368,65 +6833,127 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:Q14 V14">
-    <cfRule type="colorScale" priority="199">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:Q14 V14">
-    <cfRule type="colorScale" priority="200">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:Q14 V14">
-    <cfRule type="colorScale" priority="201">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:Q14 V14">
-    <cfRule type="expression" dxfId="53" priority="196">
-      <formula>AND(ABS(B14)&gt;200, ABS(B14)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:V14">
-    <cfRule type="expression" dxfId="52" priority="193">
-      <formula>ABS(B14)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="194">
-      <formula>AND(ABS(B14)&gt;150, ABS(B14)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="195">
-      <formula>AND(ABS(B14)&gt;50, ABS(B14)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="197">
-      <formula>AND(ABS(B14)&gt;100, ABS(B14)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="198">
-      <formula>AND(ABS(B14)&gt;0, ABS(B14)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46:F46">
+  <conditionalFormatting sqref="I50:M50">
+    <cfRule type="colorScale" priority="203">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:M51">
+    <cfRule type="colorScale" priority="204">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:M52">
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:M55">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:M55">
+    <cfRule type="colorScale" priority="207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:M50">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:M51">
+    <cfRule type="colorScale" priority="196">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:M52">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:M54">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:M55">
+    <cfRule type="colorScale" priority="193">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:M46">
     <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="min"/>
@@ -6438,7 +6965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:F46">
+  <conditionalFormatting sqref="I46:M46">
     <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
@@ -6450,7 +6977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:F46">
+  <conditionalFormatting sqref="I46:M46">
     <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
@@ -6462,29 +6989,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:F46">
+  <conditionalFormatting sqref="I46:M46">
     <cfRule type="expression" dxfId="47" priority="187">
-      <formula>AND(ABS(B46)&gt;200, ABS(B46)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46:F46">
+      <formula>AND(ABS(I46)&gt;200, ABS(I46)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:M46">
     <cfRule type="expression" dxfId="46" priority="184">
-      <formula>ABS(B46)&gt;300</formula>
+      <formula>ABS(I46)&gt;300</formula>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="185">
-      <formula>AND(ABS(B46)&gt;150, ABS(B46)&lt;=200)</formula>
+      <formula>AND(ABS(I46)&gt;150, ABS(I46)&lt;=200)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="44" priority="186">
-      <formula>AND(ABS(B46)&gt;50, ABS(B46)&lt;=100)</formula>
+      <formula>AND(ABS(I46)&gt;50, ABS(I46)&lt;=100)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="43" priority="188">
-      <formula>AND(ABS(B46)&gt;100, ABS(B46)&lt;=150)</formula>
+      <formula>AND(ABS(I46)&gt;100, ABS(I46)&lt;=150)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="189">
-      <formula>AND(ABS(B46)&gt;0, ABS(B46)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:F53">
+      <formula>AND(ABS(I46)&gt;0, ABS(I46)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:M53">
     <cfRule type="colorScale" priority="181">
       <colorScale>
         <cfvo type="min"/>
@@ -6496,7 +7023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:F53">
+  <conditionalFormatting sqref="I53:M53">
     <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="min"/>
@@ -6508,7 +7035,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:F53">
+  <conditionalFormatting sqref="I53:M53">
     <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
@@ -6520,29 +7047,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:F53">
+  <conditionalFormatting sqref="I53:M53">
     <cfRule type="expression" dxfId="41" priority="178">
-      <formula>AND(ABS(B53)&gt;200, ABS(B53)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:F53">
+      <formula>AND(ABS(I53)&gt;200, ABS(I53)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:M53">
     <cfRule type="expression" dxfId="40" priority="175">
-      <formula>ABS(B53)&gt;300</formula>
+      <formula>ABS(I53)&gt;300</formula>
     </cfRule>
     <cfRule type="expression" dxfId="39" priority="176">
-      <formula>AND(ABS(B53)&gt;150, ABS(B53)&lt;=200)</formula>
+      <formula>AND(ABS(I53)&gt;150, ABS(I53)&lt;=200)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="38" priority="177">
-      <formula>AND(ABS(B53)&gt;50, ABS(B53)&lt;=100)</formula>
+      <formula>AND(ABS(I53)&gt;50, ABS(I53)&lt;=100)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="179">
-      <formula>AND(ABS(B53)&gt;100, ABS(B53)&lt;=150)</formula>
+      <formula>AND(ABS(I53)&gt;100, ABS(I53)&lt;=150)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="36" priority="180">
-      <formula>AND(ABS(B53)&gt;0, ABS(B53)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:M43">
+      <formula>AND(ABS(I53)&gt;0, ABS(I53)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:J30 B25:R25">
     <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
@@ -6554,7 +7081,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:M45 I47:M48">
+  <conditionalFormatting sqref="D26:J30 B25:R27 B29:R30">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
@@ -6566,7 +7093,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:M44 K45:M45 K47:M48">
+  <conditionalFormatting sqref="B26:R26">
     <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
@@ -6578,7 +7105,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:M45">
+  <conditionalFormatting sqref="B27:R27">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
@@ -6590,7 +7117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:M48">
+  <conditionalFormatting sqref="B29:R30">
     <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
@@ -6602,7 +7129,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:M43">
+  <conditionalFormatting sqref="B25:R25">
     <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="min"/>
@@ -6614,7 +7141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:M44">
+  <conditionalFormatting sqref="B26:R26">
     <cfRule type="colorScale" priority="171">
       <colorScale>
         <cfvo type="min"/>
@@ -6626,7 +7153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:M45">
+  <conditionalFormatting sqref="B27:R27">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="min"/>
@@ -6638,7 +7165,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:M48">
+  <conditionalFormatting sqref="B29:R30">
     <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="min"/>
@@ -6650,7 +7177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:M48">
+  <conditionalFormatting sqref="B30:R30">
     <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
@@ -6662,7 +7189,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:M43">
+  <conditionalFormatting sqref="B25:R25">
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
@@ -6674,7 +7201,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:M44">
+  <conditionalFormatting sqref="B26:R26">
     <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
@@ -6686,7 +7213,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:M45">
+  <conditionalFormatting sqref="B27:R27">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
@@ -6698,7 +7225,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:M47">
+  <conditionalFormatting sqref="B29:R29">
     <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
@@ -6710,7 +7237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:M48">
+  <conditionalFormatting sqref="B30:R30">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
@@ -6722,187 +7249,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:M50">
-    <cfRule type="colorScale" priority="150">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50:M52 I54:M55">
-    <cfRule type="colorScale" priority="151">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:M51 K52:M52 K54:M55">
-    <cfRule type="colorScale" priority="152">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:M52">
-    <cfRule type="colorScale" priority="153">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:M55">
-    <cfRule type="colorScale" priority="154">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50:M50">
-    <cfRule type="colorScale" priority="155">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:M51">
-    <cfRule type="colorScale" priority="156">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:M52">
-    <cfRule type="colorScale" priority="157">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:M55">
-    <cfRule type="colorScale" priority="158">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:M55">
-    <cfRule type="colorScale" priority="159">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50:M50">
-    <cfRule type="colorScale" priority="149">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:M51">
-    <cfRule type="colorScale" priority="148">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:M52">
-    <cfRule type="colorScale" priority="147">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:M54">
-    <cfRule type="colorScale" priority="146">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:M55">
-    <cfRule type="colorScale" priority="145">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:M46">
+  <conditionalFormatting sqref="B28:R28">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
@@ -6914,7 +7261,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:M46">
+  <conditionalFormatting sqref="B28:R28">
     <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
@@ -6926,7 +7273,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:M46">
+  <conditionalFormatting sqref="B28:R28">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
@@ -6938,87 +7285,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:M46">
+  <conditionalFormatting sqref="B28:R28">
     <cfRule type="expression" dxfId="35" priority="139">
-      <formula>AND(ABS(I46)&gt;200, ABS(I46)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:M46">
+      <formula>AND(ABS(B28)&gt;200, ABS(B28)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:R28">
     <cfRule type="expression" dxfId="34" priority="136">
-      <formula>ABS(I46)&gt;300</formula>
+      <formula>ABS(B28)&gt;300</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="137">
-      <formula>AND(ABS(I46)&gt;150, ABS(I46)&lt;=200)</formula>
+      <formula>AND(ABS(B28)&gt;150, ABS(B28)&lt;=200)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="138">
-      <formula>AND(ABS(I46)&gt;50, ABS(I46)&lt;=100)</formula>
+      <formula>AND(ABS(B28)&gt;50, ABS(B28)&lt;=100)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="140">
-      <formula>AND(ABS(I46)&gt;100, ABS(I46)&lt;=150)</formula>
+      <formula>AND(ABS(B28)&gt;100, ABS(B28)&lt;=150)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="141">
-      <formula>AND(ABS(I46)&gt;0, ABS(I46)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53:M53">
-    <cfRule type="colorScale" priority="133">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53:M53">
-    <cfRule type="colorScale" priority="134">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53:M53">
-    <cfRule type="colorScale" priority="135">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53:M53">
-    <cfRule type="expression" dxfId="29" priority="130">
-      <formula>AND(ABS(I53)&gt;200, ABS(I53)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53:M53">
-    <cfRule type="expression" dxfId="28" priority="127">
-      <formula>ABS(I53)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="128">
-      <formula>AND(ABS(I53)&gt;150, ABS(I53)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="129">
-      <formula>AND(ABS(I53)&gt;50, ABS(I53)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="131">
-      <formula>AND(ABS(I53)&gt;100, ABS(I53)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="132">
-      <formula>AND(ABS(I53)&gt;0, ABS(I53)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:J30 B25:R25">
+      <formula>AND(ABS(B28)&gt;0, ABS(B28)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:J37 B32:R32">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -7030,7 +7319,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:J30 B25:R27 B29:R30">
+  <conditionalFormatting sqref="D32:J37 B32:C34 K32:R34 B36:C37 K36:R37">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -7042,7 +7331,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:R26">
+  <conditionalFormatting sqref="B33:R33">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
@@ -7054,7 +7343,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:R27">
+  <conditionalFormatting sqref="B34:R34">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -7066,7 +7355,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:R30">
+  <conditionalFormatting sqref="B36:R37">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
@@ -7078,7 +7367,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:R25">
+  <conditionalFormatting sqref="B32:R32">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -7090,7 +7379,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:R26">
+  <conditionalFormatting sqref="B33:R33">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -7102,7 +7391,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:R27">
+  <conditionalFormatting sqref="B34:R34">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -7114,7 +7403,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:R30">
+  <conditionalFormatting sqref="B36:R37">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -7126,7 +7415,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:R30">
+  <conditionalFormatting sqref="B37:R37">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -7138,7 +7427,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:R25">
+  <conditionalFormatting sqref="B32:R32">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -7150,7 +7439,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:R26">
+  <conditionalFormatting sqref="B33:R33">
     <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
@@ -7162,7 +7451,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:R27">
+  <conditionalFormatting sqref="B34:R34">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -7174,7 +7463,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:R29">
+  <conditionalFormatting sqref="B36:R36">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -7186,7 +7475,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:R30">
+  <conditionalFormatting sqref="B37:R37">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -7198,7 +7487,209 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:R28">
+  <conditionalFormatting sqref="B35:R35">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:R35">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:R35">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:R35">
+    <cfRule type="expression" dxfId="29" priority="106">
+      <formula>AND(ABS(B35)&gt;200, ABS(B35)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:R35">
+    <cfRule type="expression" dxfId="28" priority="103">
+      <formula>ABS(B35)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="104">
+      <formula>AND(ABS(B35)&gt;150, ABS(B35)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="105">
+      <formula>AND(ABS(B35)&gt;50, ABS(B35)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="107">
+      <formula>AND(ABS(B35)&gt;100, ABS(B35)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="108">
+      <formula>AND(ABS(B35)&gt;0, ABS(B35)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD16">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD16">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD16">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD16">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD16">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:F60">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:F62 B64:F65">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:F61 D62:F62 D64:F65">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:F62">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:F65">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:F60">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:F61">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:F62">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -7210,7 +7701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:R28">
+  <conditionalFormatting sqref="B64:F65">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -7222,7 +7713,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:R28">
+  <conditionalFormatting sqref="B65:F65">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -7234,161 +7725,235 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:R28">
-    <cfRule type="expression" dxfId="23" priority="91">
-      <formula>AND(ABS(B28)&gt;200, ABS(B28)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:R28">
-    <cfRule type="expression" dxfId="22" priority="88">
-      <formula>ABS(B28)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="89">
-      <formula>AND(ABS(B28)&gt;150, ABS(B28)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="90">
-      <formula>AND(ABS(B28)&gt;50, ABS(B28)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="92">
-      <formula>AND(ABS(B28)&gt;100, ABS(B28)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="93">
-      <formula>AND(ABS(B28)&gt;0, ABS(B28)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:J37 B32:R32">
+  <conditionalFormatting sqref="B60:F60">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:F61">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:F62">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:F64">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:F65">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:F67">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:F69 B71:F72">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:F68 D69:F69 D71:F72">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:F69">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:F72">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:F67">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:F68">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:F69">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:F72">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:F72">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:F67">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:F68">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:F69">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:J37 B32:C34 K32:R34 B36:C37 K36:R37">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:R33">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:R34">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:R37">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:R32">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:R33">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:R34">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:R37">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:R37">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:R32">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:F71">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:R33">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:F72">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -7400,7 +7965,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:R34">
+  <conditionalFormatting sqref="B63:F63">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:F63">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:F63">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -7412,149 +8001,87 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:R36">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:R37">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:R35">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:R35">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:R35">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:R35">
-    <cfRule type="expression" dxfId="17" priority="58">
-      <formula>AND(ABS(B35)&gt;200, ABS(B35)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:R35">
-    <cfRule type="expression" dxfId="16" priority="55">
-      <formula>ABS(B35)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="56">
-      <formula>AND(ABS(B35)&gt;150, ABS(B35)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="57">
-      <formula>AND(ABS(B35)&gt;50, ABS(B35)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="59">
-      <formula>AND(ABS(B35)&gt;100, ABS(B35)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="60">
-      <formula>AND(ABS(B35)&gt;0, ABS(B35)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD16">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD16">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD16">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD16">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD16">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60:F60">
+  <conditionalFormatting sqref="B63:F63">
+    <cfRule type="expression" dxfId="23" priority="61">
+      <formula>AND(ABS(B63)&gt;200, ABS(B63)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:F63">
+    <cfRule type="expression" dxfId="22" priority="58">
+      <formula>ABS(B63)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="59">
+      <formula>AND(ABS(B63)&gt;150, ABS(B63)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="60">
+      <formula>AND(ABS(B63)&gt;50, ABS(B63)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="62">
+      <formula>AND(ABS(B63)&gt;100, ABS(B63)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="63">
+      <formula>AND(ABS(B63)&gt;0, ABS(B63)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:F70">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:F70">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:F70">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:F70">
+    <cfRule type="expression" dxfId="17" priority="52">
+      <formula>AND(ABS(B70)&gt;200, ABS(B70)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:F70">
+    <cfRule type="expression" dxfId="16" priority="49">
+      <formula>ABS(B70)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="50">
+      <formula>AND(ABS(B70)&gt;150, ABS(B70)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="51">
+      <formula>AND(ABS(B70)&gt;50, ABS(B70)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="53">
+      <formula>AND(ABS(B70)&gt;100, ABS(B70)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="54">
+      <formula>AND(ABS(B70)&gt;0, ABS(B70)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X26:AD30 V25:AD25">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -7566,7 +8093,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:F62 B64:F65">
+  <conditionalFormatting sqref="X25:AD30 V25:W27 V29:W30">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -7578,7 +8105,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61:F61 D62:F62 D64:F65">
+  <conditionalFormatting sqref="V26:AD26">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -7590,7 +8117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:F62">
+  <conditionalFormatting sqref="V27:AD27">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -7602,7 +8129,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64:F65">
+  <conditionalFormatting sqref="V29:AD30">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -7614,7 +8141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:F60">
+  <conditionalFormatting sqref="V25:AD25">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -7626,7 +8153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61:F61">
+  <conditionalFormatting sqref="V26:AD26">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -7638,7 +8165,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:F62">
+  <conditionalFormatting sqref="V27:AD27">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -7650,7 +8177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64:F65">
+  <conditionalFormatting sqref="V29:AD30">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -7662,7 +8189,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:F65">
+  <conditionalFormatting sqref="V30:AD30">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -7674,7 +8201,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:F60">
+  <conditionalFormatting sqref="V25:AD25">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -7686,7 +8213,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61:F61">
+  <conditionalFormatting sqref="V26:AD26">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -7698,7 +8225,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:F62">
+  <conditionalFormatting sqref="V27:AD27">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -7710,7 +8237,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64:F64">
+  <conditionalFormatting sqref="V29:AD29">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -7722,7 +8249,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:F65">
+  <conditionalFormatting sqref="V30:AD30">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -7734,245 +8261,245 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:F67">
+  <conditionalFormatting sqref="V28:AD28">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V28:AD28">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V28:AD28">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V28:AD28">
+    <cfRule type="expression" dxfId="11" priority="28">
+      <formula>AND(ABS(V28)&gt;200, ABS(V28)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V28:AD28">
+    <cfRule type="expression" dxfId="10" priority="25">
+      <formula>ABS(V28)&gt;300</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="26">
+      <formula>AND(ABS(V28)&gt;150, ABS(V28)&lt;=200)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="27">
+      <formula>AND(ABS(V28)&gt;50, ABS(V28)&lt;=100)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="29">
+      <formula>AND(ABS(V28)&gt;100, ABS(V28)&lt;=150)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="30">
+      <formula>AND(ABS(V28)&gt;0, ABS(V28)&lt;=50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X33:AD37 V32:AD32">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X32:AD37 V32:W34 V36:W37">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V33:AD33">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V34:AD34">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V36:AD37">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V32:AD32">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V33:AD33">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V34:AD34">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V36:AD37">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V37:AD37">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67:F69 B71:F72">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68:F68 D69:F69 D71:F72">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69:F69">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:F72">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67:F67">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68:F68">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69:F69">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:F72">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:F72">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67:F67">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68:F68">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69:F69">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71:F71">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:F72">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:F63">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:F63">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:F63">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:F63">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>AND(ABS(B63)&gt;200, ABS(B63)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:F63">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>ABS(B63)&gt;300</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>AND(ABS(B63)&gt;150, ABS(B63)&lt;=200)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
-      <formula>AND(ABS(B63)&gt;50, ABS(B63)&lt;=100)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="14">
-      <formula>AND(ABS(B63)&gt;100, ABS(B63)&lt;=150)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15">
-      <formula>AND(ABS(B63)&gt;0, ABS(B63)&lt;=50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70:F70">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V32:AD32">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V33:AD33">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V34:AD34">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V36:AD36">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V37:AD37">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V35:AD35">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -7984,7 +8511,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:F70">
+  <conditionalFormatting sqref="V35:AD35">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -7996,7 +8523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:F70">
+  <conditionalFormatting sqref="V35:AD35">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -8008,26 +8535,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:F70">
+  <conditionalFormatting sqref="V35:AD35">
     <cfRule type="expression" dxfId="5" priority="4">
-      <formula>AND(ABS(B70)&gt;200, ABS(B70)&lt;=300)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70:F70">
+      <formula>AND(ABS(V35)&gt;200, ABS(V35)&lt;=300)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V35:AD35">
     <cfRule type="expression" dxfId="4" priority="1">
-      <formula>ABS(B70)&gt;300</formula>
+      <formula>ABS(V35)&gt;300</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="2">
-      <formula>AND(ABS(B70)&gt;150, ABS(B70)&lt;=200)</formula>
+      <formula>AND(ABS(V35)&gt;150, ABS(V35)&lt;=200)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(ABS(B70)&gt;50, ABS(B70)&lt;=100)</formula>
+      <formula>AND(ABS(V35)&gt;50, ABS(V35)&lt;=100)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>AND(ABS(B70)&gt;100, ABS(B70)&lt;=150)</formula>
+      <formula>AND(ABS(V35)&gt;100, ABS(V35)&lt;=150)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND(ABS(B70)&gt;0, ABS(B70)&lt;=50)</formula>
+      <formula>AND(ABS(V35)&gt;0, ABS(V35)&lt;=50)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8050,12 +8577,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
@@ -8077,13 +8604,13 @@
     </row>
     <row r="6" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
@@ -8207,13 +8734,13 @@
     </row>
     <row r="13" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
